--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9748" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9568" uniqueCount="235">
   <si>
     <t>Sección</t>
   </si>
@@ -717,12 +717,6 @@
     <t>Miles de pesos</t>
   </si>
   <si>
-    <t>Gran_sector</t>
-  </si>
-  <si>
-    <t>Industria del vestido</t>
-  </si>
-  <si>
     <t>cifras</t>
   </si>
   <si>
@@ -62875,7 +62869,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E180"/>
+  <dimension ref="A1:D180"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -62891,9 +62885,6 @@
       <c r="D1" t="s">
         <v>232</v>
       </c>
-      <c r="E1" t="s">
-        <v>234</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -62908,9 +62899,6 @@
       <c r="D2" t="s">
         <v>233</v>
       </c>
-      <c r="E2" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -62925,9 +62913,6 @@
       <c r="D3" t="s">
         <v>233</v>
       </c>
-      <c r="E3" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -62942,9 +62927,6 @@
       <c r="D4" t="s">
         <v>233</v>
       </c>
-      <c r="E4" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -62959,9 +62941,6 @@
       <c r="D5" t="s">
         <v>233</v>
       </c>
-      <c r="E5" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -62976,9 +62955,6 @@
       <c r="D6" t="s">
         <v>233</v>
       </c>
-      <c r="E6" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -62993,9 +62969,6 @@
       <c r="D7" t="s">
         <v>233</v>
       </c>
-      <c r="E7" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -63010,9 +62983,6 @@
       <c r="D8" t="s">
         <v>233</v>
       </c>
-      <c r="E8" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -63027,9 +62997,6 @@
       <c r="D9" t="s">
         <v>233</v>
       </c>
-      <c r="E9" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -63044,9 +63011,6 @@
       <c r="D10" t="s">
         <v>233</v>
       </c>
-      <c r="E10" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -63061,9 +63025,6 @@
       <c r="D11" t="s">
         <v>233</v>
       </c>
-      <c r="E11" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -63078,9 +63039,6 @@
       <c r="D12" t="s">
         <v>233</v>
       </c>
-      <c r="E12" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -63095,9 +63053,6 @@
       <c r="D13" t="s">
         <v>233</v>
       </c>
-      <c r="E13" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -63112,9 +63067,6 @@
       <c r="D14" t="s">
         <v>233</v>
       </c>
-      <c r="E14" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -63129,9 +63081,6 @@
       <c r="D15" t="s">
         <v>233</v>
       </c>
-      <c r="E15" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -63146,9 +63095,6 @@
       <c r="D16" t="s">
         <v>233</v>
       </c>
-      <c r="E16" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -63163,9 +63109,6 @@
       <c r="D17" t="s">
         <v>233</v>
       </c>
-      <c r="E17" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -63180,9 +63123,6 @@
       <c r="D18" t="s">
         <v>233</v>
       </c>
-      <c r="E18" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -63197,9 +63137,6 @@
       <c r="D19" t="s">
         <v>233</v>
       </c>
-      <c r="E19" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -63214,9 +63151,6 @@
       <c r="D20" t="s">
         <v>233</v>
       </c>
-      <c r="E20" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -63231,9 +63165,6 @@
       <c r="D21" t="s">
         <v>233</v>
       </c>
-      <c r="E21" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -63248,9 +63179,6 @@
       <c r="D22" t="s">
         <v>233</v>
       </c>
-      <c r="E22" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -63265,9 +63193,6 @@
       <c r="D23" t="s">
         <v>233</v>
       </c>
-      <c r="E23" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -63282,9 +63207,6 @@
       <c r="D24" t="s">
         <v>233</v>
       </c>
-      <c r="E24" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -63299,9 +63221,6 @@
       <c r="D25" t="s">
         <v>233</v>
       </c>
-      <c r="E25" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -63316,9 +63235,6 @@
       <c r="D26" t="s">
         <v>233</v>
       </c>
-      <c r="E26" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -63333,9 +63249,6 @@
       <c r="D27" t="s">
         <v>233</v>
       </c>
-      <c r="E27" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -63350,9 +63263,6 @@
       <c r="D28" t="s">
         <v>233</v>
       </c>
-      <c r="E28" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -63367,9 +63277,6 @@
       <c r="D29" t="s">
         <v>233</v>
       </c>
-      <c r="E29" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -63384,9 +63291,6 @@
       <c r="D30" t="s">
         <v>233</v>
       </c>
-      <c r="E30" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -63401,9 +63305,6 @@
       <c r="D31" t="s">
         <v>233</v>
       </c>
-      <c r="E31" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -63418,9 +63319,6 @@
       <c r="D32" t="s">
         <v>233</v>
       </c>
-      <c r="E32" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -63435,9 +63333,6 @@
       <c r="D33" t="s">
         <v>233</v>
       </c>
-      <c r="E33" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -63452,9 +63347,6 @@
       <c r="D34" t="s">
         <v>233</v>
       </c>
-      <c r="E34" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -63469,9 +63361,6 @@
       <c r="D35" t="s">
         <v>233</v>
       </c>
-      <c r="E35" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -63486,9 +63375,6 @@
       <c r="D36" t="s">
         <v>233</v>
       </c>
-      <c r="E36" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -63503,9 +63389,6 @@
       <c r="D37" t="s">
         <v>233</v>
       </c>
-      <c r="E37" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -63520,9 +63403,6 @@
       <c r="D38" t="s">
         <v>233</v>
       </c>
-      <c r="E38" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -63537,9 +63417,6 @@
       <c r="D39" t="s">
         <v>233</v>
       </c>
-      <c r="E39" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -63554,9 +63431,6 @@
       <c r="D40" t="s">
         <v>233</v>
       </c>
-      <c r="E40" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -63571,9 +63445,6 @@
       <c r="D41" t="s">
         <v>233</v>
       </c>
-      <c r="E41" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -63588,9 +63459,6 @@
       <c r="D42" t="s">
         <v>233</v>
       </c>
-      <c r="E42" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -63605,9 +63473,6 @@
       <c r="D43" t="s">
         <v>233</v>
       </c>
-      <c r="E43" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -63622,9 +63487,6 @@
       <c r="D44" t="s">
         <v>233</v>
       </c>
-      <c r="E44" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -63639,9 +63501,6 @@
       <c r="D45" t="s">
         <v>233</v>
       </c>
-      <c r="E45" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -63656,9 +63515,6 @@
       <c r="D46" t="s">
         <v>233</v>
       </c>
-      <c r="E46" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -63673,9 +63529,6 @@
       <c r="D47" t="s">
         <v>233</v>
       </c>
-      <c r="E47" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -63690,9 +63543,6 @@
       <c r="D48" t="s">
         <v>233</v>
       </c>
-      <c r="E48" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -63707,9 +63557,6 @@
       <c r="D49" t="s">
         <v>233</v>
       </c>
-      <c r="E49" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -63724,9 +63571,6 @@
       <c r="D50" t="s">
         <v>233</v>
       </c>
-      <c r="E50" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -63741,9 +63585,6 @@
       <c r="D51" t="s">
         <v>233</v>
       </c>
-      <c r="E51" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -63758,9 +63599,6 @@
       <c r="D52" t="s">
         <v>233</v>
       </c>
-      <c r="E52" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -63775,9 +63613,6 @@
       <c r="D53" t="s">
         <v>233</v>
       </c>
-      <c r="E53" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -63792,9 +63627,6 @@
       <c r="D54" t="s">
         <v>233</v>
       </c>
-      <c r="E54" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -63809,9 +63641,6 @@
       <c r="D55" t="s">
         <v>233</v>
       </c>
-      <c r="E55" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -63826,9 +63655,6 @@
       <c r="D56" t="s">
         <v>233</v>
       </c>
-      <c r="E56" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -63843,9 +63669,6 @@
       <c r="D57" t="s">
         <v>233</v>
       </c>
-      <c r="E57" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -63860,9 +63683,6 @@
       <c r="D58" t="s">
         <v>233</v>
       </c>
-      <c r="E58" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -63877,9 +63697,6 @@
       <c r="D59" t="s">
         <v>233</v>
       </c>
-      <c r="E59" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -63894,9 +63711,6 @@
       <c r="D60" t="s">
         <v>233</v>
       </c>
-      <c r="E60" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -63911,9 +63725,6 @@
       <c r="D61" t="s">
         <v>233</v>
       </c>
-      <c r="E61" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -63928,9 +63739,6 @@
       <c r="D62" t="s">
         <v>233</v>
       </c>
-      <c r="E62" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -63945,9 +63753,6 @@
       <c r="D63" t="s">
         <v>233</v>
       </c>
-      <c r="E63" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -63962,9 +63767,6 @@
       <c r="D64" t="s">
         <v>233</v>
       </c>
-      <c r="E64" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
@@ -63979,9 +63781,6 @@
       <c r="D65" t="s">
         <v>233</v>
       </c>
-      <c r="E65" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
@@ -63996,9 +63795,6 @@
       <c r="D66" t="s">
         <v>233</v>
       </c>
-      <c r="E66" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -64013,9 +63809,6 @@
       <c r="D67" t="s">
         <v>233</v>
       </c>
-      <c r="E67" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
@@ -64030,9 +63823,6 @@
       <c r="D68" t="s">
         <v>233</v>
       </c>
-      <c r="E68" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
@@ -64047,9 +63837,6 @@
       <c r="D69" t="s">
         <v>233</v>
       </c>
-      <c r="E69" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -64064,9 +63851,6 @@
       <c r="D70" t="s">
         <v>233</v>
       </c>
-      <c r="E70" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -64081,9 +63865,6 @@
       <c r="D71" t="s">
         <v>233</v>
       </c>
-      <c r="E71" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -64098,9 +63879,6 @@
       <c r="D72" t="s">
         <v>233</v>
       </c>
-      <c r="E72" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
@@ -64115,9 +63893,6 @@
       <c r="D73" t="s">
         <v>233</v>
       </c>
-      <c r="E73" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -64132,9 +63907,6 @@
       <c r="D74" t="s">
         <v>233</v>
       </c>
-      <c r="E74" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -64149,9 +63921,6 @@
       <c r="D75" t="s">
         <v>233</v>
       </c>
-      <c r="E75" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
@@ -64166,9 +63935,6 @@
       <c r="D76" t="s">
         <v>233</v>
       </c>
-      <c r="E76" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
@@ -64183,9 +63949,6 @@
       <c r="D77" t="s">
         <v>233</v>
       </c>
-      <c r="E77" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -64200,9 +63963,6 @@
       <c r="D78" t="s">
         <v>233</v>
       </c>
-      <c r="E78" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -64217,9 +63977,6 @@
       <c r="D79" t="s">
         <v>233</v>
       </c>
-      <c r="E79" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
@@ -64234,9 +63991,6 @@
       <c r="D80" t="s">
         <v>233</v>
       </c>
-      <c r="E80" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
@@ -64251,9 +64005,6 @@
       <c r="D81" t="s">
         <v>233</v>
       </c>
-      <c r="E81" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -64268,9 +64019,6 @@
       <c r="D82" t="s">
         <v>233</v>
       </c>
-      <c r="E82" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
@@ -64285,9 +64033,6 @@
       <c r="D83" t="s">
         <v>233</v>
       </c>
-      <c r="E83" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
@@ -64302,9 +64047,6 @@
       <c r="D84" t="s">
         <v>233</v>
       </c>
-      <c r="E84" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
@@ -64319,9 +64061,6 @@
       <c r="D85" t="s">
         <v>233</v>
       </c>
-      <c r="E85" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
@@ -64336,9 +64075,6 @@
       <c r="D86" t="s">
         <v>233</v>
       </c>
-      <c r="E86" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -64353,9 +64089,6 @@
       <c r="D87" t="s">
         <v>233</v>
       </c>
-      <c r="E87" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -64370,9 +64103,6 @@
       <c r="D88" t="s">
         <v>233</v>
       </c>
-      <c r="E88" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
@@ -64387,9 +64117,6 @@
       <c r="D89" t="s">
         <v>233</v>
       </c>
-      <c r="E89" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
@@ -64404,9 +64131,6 @@
       <c r="D90" t="s">
         <v>233</v>
       </c>
-      <c r="E90" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
@@ -64421,9 +64145,6 @@
       <c r="D91" t="s">
         <v>233</v>
       </c>
-      <c r="E91" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
@@ -64436,10 +64157,7 @@
         <v>1.8647880000000001</v>
       </c>
       <c r="D92" t="s">
-        <v>233</v>
-      </c>
-      <c r="E92" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93">
@@ -64453,10 +64171,7 @@
         <v>6.3323</v>
       </c>
       <c r="D93" t="s">
-        <v>233</v>
-      </c>
-      <c r="E93" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94">
@@ -64470,10 +64185,7 @@
         <v>0.88144599999999995</v>
       </c>
       <c r="D94" t="s">
-        <v>233</v>
-      </c>
-      <c r="E94" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95">
@@ -64487,10 +64199,7 @@
         <v>7.9705779999999997</v>
       </c>
       <c r="D95" t="s">
-        <v>233</v>
-      </c>
-      <c r="E95" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96">
@@ -64504,10 +64213,7 @@
         <v>9.9512909999999994</v>
       </c>
       <c r="D96" t="s">
-        <v>233</v>
-      </c>
-      <c r="E96" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97">
@@ -64521,10 +64227,7 @@
         <v>4.0929969999999996</v>
       </c>
       <c r="D97" t="s">
-        <v>233</v>
-      </c>
-      <c r="E97" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98">
@@ -64538,10 +64241,7 @@
         <v>5.0257550000000002</v>
       </c>
       <c r="D98" t="s">
-        <v>233</v>
-      </c>
-      <c r="E98" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="99">
@@ -64555,10 +64255,7 @@
         <v>36.499832000000005</v>
       </c>
       <c r="D99" t="s">
-        <v>233</v>
-      </c>
-      <c r="E99" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100">
@@ -64572,10 +64269,7 @@
         <v>3.2223809999999999</v>
       </c>
       <c r="D100" t="s">
-        <v>233</v>
-      </c>
-      <c r="E100" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101">
@@ -64589,10 +64283,7 @@
         <v>3.1597689999999998</v>
       </c>
       <c r="D101" t="s">
-        <v>233</v>
-      </c>
-      <c r="E101" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102">
@@ -64606,10 +64297,7 @@
         <v>10.741318</v>
       </c>
       <c r="D102" t="s">
-        <v>233</v>
-      </c>
-      <c r="E102" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="103">
@@ -64623,10 +64311,7 @@
         <v>10.570994000000001</v>
       </c>
       <c r="D103" t="s">
-        <v>233</v>
-      </c>
-      <c r="E103" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104">
@@ -64640,10 +64325,7 @@
         <v>20.958390999999999</v>
       </c>
       <c r="D104" t="s">
-        <v>233</v>
-      </c>
-      <c r="E104" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105">
@@ -64657,10 +64339,7 @@
         <v>14.212596000000001</v>
       </c>
       <c r="D105" t="s">
-        <v>233</v>
-      </c>
-      <c r="E105" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106">
@@ -64674,10 +64353,7 @@
         <v>8.3149080000000009</v>
       </c>
       <c r="D106" t="s">
-        <v>233</v>
-      </c>
-      <c r="E106" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="107">
@@ -64691,10 +64367,7 @@
         <v>10.442649000000001</v>
       </c>
       <c r="D107" t="s">
-        <v>233</v>
-      </c>
-      <c r="E107" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108">
@@ -64708,10 +64381,7 @@
         <v>-0.28429100000000002</v>
       </c>
       <c r="D108" t="s">
-        <v>233</v>
-      </c>
-      <c r="E108" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="109">
@@ -64725,10 +64395,7 @@
         <v>13.099116</v>
       </c>
       <c r="D109" t="s">
-        <v>233</v>
-      </c>
-      <c r="E109" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110">
@@ -64742,10 +64409,7 @@
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>233</v>
-      </c>
-      <c r="E110" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111">
@@ -64759,10 +64423,7 @@
         <v>13.039013000000001</v>
       </c>
       <c r="D111" t="s">
-        <v>233</v>
-      </c>
-      <c r="E111" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112">
@@ -64776,10 +64437,7 @@
         <v>1.955627</v>
       </c>
       <c r="D112" t="s">
-        <v>233</v>
-      </c>
-      <c r="E112" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113">
@@ -64793,10 +64451,7 @@
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>233</v>
-      </c>
-      <c r="E113" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="114">
@@ -64810,10 +64465,7 @@
         <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>233</v>
-      </c>
-      <c r="E114" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="115">
@@ -64827,10 +64479,7 @@
         <v>0.63998299999999997</v>
       </c>
       <c r="D115" t="s">
-        <v>233</v>
-      </c>
-      <c r="E115" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="116">
@@ -64844,10 +64493,7 @@
         <v>-9.9165720000000004</v>
       </c>
       <c r="D116" t="s">
-        <v>233</v>
-      </c>
-      <c r="E116" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117">
@@ -64861,10 +64507,7 @@
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>233</v>
-      </c>
-      <c r="E117" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="118">
@@ -64878,10 +64521,7 @@
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>233</v>
-      </c>
-      <c r="E118" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119">
@@ -64895,10 +64535,7 @@
         <v>0.38894899999999999</v>
       </c>
       <c r="D119" t="s">
-        <v>233</v>
-      </c>
-      <c r="E119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120">
@@ -64912,10 +64549,7 @@
         <v>0</v>
       </c>
       <c r="D120" t="s">
-        <v>233</v>
-      </c>
-      <c r="E120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121">
@@ -64929,10 +64563,7 @@
         <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>233</v>
-      </c>
-      <c r="E121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122">
@@ -64946,10 +64577,7 @@
         <v>0</v>
       </c>
       <c r="D122" t="s">
-        <v>233</v>
-      </c>
-      <c r="E122" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123">
@@ -64963,10 +64591,7 @@
         <v>-0.62884499999999999</v>
       </c>
       <c r="D123" t="s">
-        <v>233</v>
-      </c>
-      <c r="E123" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124">
@@ -64980,10 +64605,7 @@
         <v>2.367626</v>
       </c>
       <c r="D124" t="s">
-        <v>233</v>
-      </c>
-      <c r="E124" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="125">
@@ -64997,10 +64619,7 @@
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>233</v>
-      </c>
-      <c r="E125" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="126">
@@ -65014,10 +64633,7 @@
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>233</v>
-      </c>
-      <c r="E126" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="127">
@@ -65031,10 +64647,7 @@
         <v>0.69270100000000001</v>
       </c>
       <c r="D127" t="s">
-        <v>233</v>
-      </c>
-      <c r="E127" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="128">
@@ -65048,10 +64661,7 @@
         <v>-0.90290000000000004</v>
       </c>
       <c r="D128" t="s">
-        <v>233</v>
-      </c>
-      <c r="E128" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="129">
@@ -65065,10 +64675,7 @@
         <v>0</v>
       </c>
       <c r="D129" t="s">
-        <v>233</v>
-      </c>
-      <c r="E129" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="130">
@@ -65082,10 +64689,7 @@
         <v>0</v>
       </c>
       <c r="D130" t="s">
-        <v>233</v>
-      </c>
-      <c r="E130" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="131">
@@ -65099,10 +64703,7 @@
         <v>0</v>
       </c>
       <c r="D131" t="s">
-        <v>233</v>
-      </c>
-      <c r="E131" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="132">
@@ -65116,10 +64717,7 @@
         <v>0</v>
       </c>
       <c r="D132" t="s">
-        <v>233</v>
-      </c>
-      <c r="E132" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="133">
@@ -65133,10 +64731,7 @@
         <v>0</v>
       </c>
       <c r="D133" t="s">
-        <v>233</v>
-      </c>
-      <c r="E133" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="134">
@@ -65150,10 +64745,7 @@
         <v>0</v>
       </c>
       <c r="D134" t="s">
-        <v>233</v>
-      </c>
-      <c r="E134" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="135">
@@ -65167,10 +64759,7 @@
         <v>0</v>
       </c>
       <c r="D135" t="s">
-        <v>233</v>
-      </c>
-      <c r="E135" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="136">
@@ -65184,10 +64773,7 @@
         <v>0</v>
       </c>
       <c r="D136" t="s">
-        <v>233</v>
-      </c>
-      <c r="E136" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="137">
@@ -65201,10 +64787,7 @@
         <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>233</v>
-      </c>
-      <c r="E137" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="138">
@@ -65218,10 +64801,7 @@
         <v>0</v>
       </c>
       <c r="D138" t="s">
-        <v>233</v>
-      </c>
-      <c r="E138" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="139">
@@ -65235,10 +64815,7 @@
         <v>0</v>
       </c>
       <c r="D139" t="s">
-        <v>233</v>
-      </c>
-      <c r="E139" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="140">
@@ -65252,10 +64829,7 @@
         <v>0</v>
       </c>
       <c r="D140" t="s">
-        <v>233</v>
-      </c>
-      <c r="E140" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="141">
@@ -65269,10 +64843,7 @@
         <v>0</v>
       </c>
       <c r="D141" t="s">
-        <v>233</v>
-      </c>
-      <c r="E141" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="142">
@@ -65286,10 +64857,7 @@
         <v>0</v>
       </c>
       <c r="D142" t="s">
-        <v>233</v>
-      </c>
-      <c r="E142" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="143">
@@ -65303,10 +64871,7 @@
         <v>0</v>
       </c>
       <c r="D143" t="s">
-        <v>233</v>
-      </c>
-      <c r="E143" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="144">
@@ -65320,10 +64885,7 @@
         <v>0</v>
       </c>
       <c r="D144" t="s">
-        <v>233</v>
-      </c>
-      <c r="E144" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="145">
@@ -65337,10 +64899,7 @@
         <v>0</v>
       </c>
       <c r="D145" t="s">
-        <v>233</v>
-      </c>
-      <c r="E145" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="146">
@@ -65354,10 +64913,7 @@
         <v>0</v>
       </c>
       <c r="D146" t="s">
-        <v>233</v>
-      </c>
-      <c r="E146" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="147">
@@ -65371,10 +64927,7 @@
         <v>0</v>
       </c>
       <c r="D147" t="s">
-        <v>233</v>
-      </c>
-      <c r="E147" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="148">
@@ -65388,10 +64941,7 @@
         <v>0</v>
       </c>
       <c r="D148" t="s">
-        <v>233</v>
-      </c>
-      <c r="E148" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="149">
@@ -65405,10 +64955,7 @@
         <v>0</v>
       </c>
       <c r="D149" t="s">
-        <v>233</v>
-      </c>
-      <c r="E149" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="150">
@@ -65422,10 +64969,7 @@
         <v>0</v>
       </c>
       <c r="D150" t="s">
-        <v>233</v>
-      </c>
-      <c r="E150" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="151">
@@ -65439,10 +64983,7 @@
         <v>0</v>
       </c>
       <c r="D151" t="s">
-        <v>233</v>
-      </c>
-      <c r="E151" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="152">
@@ -65456,10 +64997,7 @@
         <v>0</v>
       </c>
       <c r="D152" t="s">
-        <v>233</v>
-      </c>
-      <c r="E152" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="153">
@@ -65473,10 +65011,7 @@
         <v>0</v>
       </c>
       <c r="D153" t="s">
-        <v>233</v>
-      </c>
-      <c r="E153" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="154">
@@ -65490,10 +65025,7 @@
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>233</v>
-      </c>
-      <c r="E154" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="155">
@@ -65507,10 +65039,7 @@
         <v>0</v>
       </c>
       <c r="D155" t="s">
-        <v>233</v>
-      </c>
-      <c r="E155" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="156">
@@ -65524,10 +65053,7 @@
         <v>0</v>
       </c>
       <c r="D156" t="s">
-        <v>233</v>
-      </c>
-      <c r="E156" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="157">
@@ -65541,10 +65067,7 @@
         <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>233</v>
-      </c>
-      <c r="E157" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="158">
@@ -65558,10 +65081,7 @@
         <v>0</v>
       </c>
       <c r="D158" t="s">
-        <v>233</v>
-      </c>
-      <c r="E158" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="159">
@@ -65575,10 +65095,7 @@
         <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>233</v>
-      </c>
-      <c r="E159" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="160">
@@ -65592,10 +65109,7 @@
         <v>0</v>
       </c>
       <c r="D160" t="s">
-        <v>233</v>
-      </c>
-      <c r="E160" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="161">
@@ -65609,10 +65123,7 @@
         <v>0</v>
       </c>
       <c r="D161" t="s">
-        <v>233</v>
-      </c>
-      <c r="E161" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="162">
@@ -65626,10 +65137,7 @@
         <v>0</v>
       </c>
       <c r="D162" t="s">
-        <v>233</v>
-      </c>
-      <c r="E162" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="163">
@@ -65643,10 +65151,7 @@
         <v>0</v>
       </c>
       <c r="D163" t="s">
-        <v>233</v>
-      </c>
-      <c r="E163" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="164">
@@ -65660,10 +65165,7 @@
         <v>0.61121135999999998</v>
       </c>
       <c r="D164" t="s">
-        <v>233</v>
-      </c>
-      <c r="E164" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="165">
@@ -65677,10 +65179,7 @@
         <v>0</v>
       </c>
       <c r="D165" t="s">
-        <v>233</v>
-      </c>
-      <c r="E165" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="166">
@@ -65694,10 +65193,7 @@
         <v>0</v>
       </c>
       <c r="D166" t="s">
-        <v>233</v>
-      </c>
-      <c r="E166" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="167">
@@ -65711,10 +65207,7 @@
         <v>0</v>
       </c>
       <c r="D167" t="s">
-        <v>233</v>
-      </c>
-      <c r="E167" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="168">
@@ -65728,10 +65221,7 @@
         <v>0</v>
       </c>
       <c r="D168" t="s">
-        <v>233</v>
-      </c>
-      <c r="E168" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="169">
@@ -65745,10 +65235,7 @@
         <v>0</v>
       </c>
       <c r="D169" t="s">
-        <v>233</v>
-      </c>
-      <c r="E169" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="170">
@@ -65762,10 +65249,7 @@
         <v>0</v>
       </c>
       <c r="D170" t="s">
-        <v>233</v>
-      </c>
-      <c r="E170" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="171">
@@ -65779,10 +65263,7 @@
         <v>0</v>
       </c>
       <c r="D171" t="s">
-        <v>233</v>
-      </c>
-      <c r="E171" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="172">
@@ -65796,10 +65277,7 @@
         <v>0</v>
       </c>
       <c r="D172" t="s">
-        <v>233</v>
-      </c>
-      <c r="E172" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="173">
@@ -65813,10 +65291,7 @@
         <v>0</v>
       </c>
       <c r="D173" t="s">
-        <v>233</v>
-      </c>
-      <c r="E173" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="174">
@@ -65830,10 +65305,7 @@
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>233</v>
-      </c>
-      <c r="E174" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="175">
@@ -65847,10 +65319,7 @@
         <v>0</v>
       </c>
       <c r="D175" t="s">
-        <v>233</v>
-      </c>
-      <c r="E175" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="176">
@@ -65864,10 +65333,7 @@
         <v>0</v>
       </c>
       <c r="D176" t="s">
-        <v>233</v>
-      </c>
-      <c r="E176" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="177">
@@ -65881,10 +65347,7 @@
         <v>0</v>
       </c>
       <c r="D177" t="s">
-        <v>233</v>
-      </c>
-      <c r="E177" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="178">
@@ -65898,10 +65361,7 @@
         <v>0</v>
       </c>
       <c r="D178" t="s">
-        <v>233</v>
-      </c>
-      <c r="E178" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="179">
@@ -65915,10 +65375,7 @@
         <v>0</v>
       </c>
       <c r="D179" t="s">
-        <v>233</v>
-      </c>
-      <c r="E179" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="180">
@@ -65932,10 +65389,7 @@
         <v>0</v>
       </c>
       <c r="D180" t="s">
-        <v>233</v>
-      </c>
-      <c r="E180" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -55848,7 +55848,7 @@
         <v>1540</v>
       </c>
       <c r="D93" s="1">
-        <v>199.49066213921901</v>
+        <v>199.49066162109375</v>
       </c>
       <c r="E93" t="s">
         <v>1550</v>
@@ -55865,7 +55865,7 @@
         <v>1540</v>
       </c>
       <c r="D94" s="1">
-        <v>189.19482686691697</v>
+        <v>189.19482421875</v>
       </c>
       <c r="E94" t="s">
         <v>1550</v>
@@ -55882,7 +55882,7 @@
         <v>1540</v>
       </c>
       <c r="D95" s="1">
-        <v>182.93718166383701</v>
+        <v>182.93717956542969</v>
       </c>
       <c r="E95" t="s">
         <v>1550</v>
@@ -55899,7 +55899,7 @@
         <v>1540</v>
       </c>
       <c r="D96" s="1">
-        <v>201.66809238665527</v>
+        <v>201.6680908203125</v>
       </c>
       <c r="E96" t="s">
         <v>1550</v>
@@ -55916,7 +55916,7 @@
         <v>1540</v>
       </c>
       <c r="D97" s="1">
-        <v>197.47166521360069</v>
+        <v>197.47166442871094</v>
       </c>
       <c r="E97" t="s">
         <v>1550</v>
@@ -55933,7 +55933,7 @@
         <v>1540</v>
       </c>
       <c r="D98" s="1">
-        <v>195.27027027027026</v>
+        <v>195.270263671875</v>
       </c>
       <c r="E98" t="s">
         <v>1550</v>
@@ -55950,7 +55950,7 @@
         <v>1540</v>
       </c>
       <c r="D99" s="1">
-        <v>203.86603731175546</v>
+        <v>203.86604309082031</v>
       </c>
       <c r="E99" t="s">
         <v>1550</v>
@@ -55967,7 +55967,7 @@
         <v>1540</v>
       </c>
       <c r="D100" s="1">
-        <v>203.48447621174893</v>
+        <v>203.48448181152344</v>
       </c>
       <c r="E100" t="s">
         <v>1550</v>
@@ -55984,7 +55984,7 @@
         <v>1540</v>
       </c>
       <c r="D101" s="1">
-        <v>196.1577350859454</v>
+        <v>196.15773010253906</v>
       </c>
       <c r="E101" t="s">
         <v>1550</v>
@@ -56001,7 +56001,7 @@
         <v>1540</v>
       </c>
       <c r="D102" s="1">
-        <v>207.70676691729324</v>
+        <v>207.70677185058594</v>
       </c>
       <c r="E102" t="s">
         <v>1550</v>
@@ -56018,7 +56018,7 @@
         <v>1540</v>
       </c>
       <c r="D103" s="1">
-        <v>188.38709677419354</v>
+        <v>188.38710021972656</v>
       </c>
       <c r="E103" t="s">
         <v>1550</v>
@@ -56035,7 +56035,7 @@
         <v>1540</v>
       </c>
       <c r="D104" s="1">
-        <v>162.41956241956242</v>
+        <v>162.4195556640625</v>
       </c>
       <c r="E104" t="s">
         <v>1550</v>
@@ -56052,7 +56052,7 @@
         <v>1540</v>
       </c>
       <c r="D105" s="1">
-        <v>198.81839198561519</v>
+        <v>198.81838989257813</v>
       </c>
       <c r="E105" t="s">
         <v>1550</v>
@@ -56069,7 +56069,7 @@
         <v>1540</v>
       </c>
       <c r="D106" s="1">
-        <v>190.42609153077328</v>
+        <v>190.42608642578125</v>
       </c>
       <c r="E106" t="s">
         <v>1550</v>
@@ -56086,7 +56086,7 @@
         <v>1540</v>
       </c>
       <c r="D107" s="1">
-        <v>196.23233908948194</v>
+        <v>196.23234558105469</v>
       </c>
       <c r="E107" t="s">
         <v>1550</v>
@@ -56103,7 +56103,7 @@
         <v>1540</v>
       </c>
       <c r="D108" s="1">
-        <v>197.36495388669303</v>
+        <v>197.36495971679688</v>
       </c>
       <c r="E108" t="s">
         <v>1550</v>
@@ -56120,7 +56120,7 @@
         <v>1540</v>
       </c>
       <c r="D109" s="1">
-        <v>201.23520329387546</v>
+        <v>201.23519897460938</v>
       </c>
       <c r="E109" t="s">
         <v>1550</v>
@@ -56137,7 +56137,7 @@
         <v>1540</v>
       </c>
       <c r="D110" s="1">
-        <v>201.00769026783345</v>
+        <v>201.0076904296875</v>
       </c>
       <c r="E110" t="s">
         <v>1550</v>
@@ -56154,7 +56154,7 @@
         <v>1540</v>
       </c>
       <c r="D111" s="1">
-        <v>206.82523267838675</v>
+        <v>206.82522583007813</v>
       </c>
       <c r="E111" t="s">
         <v>1550</v>
@@ -56171,7 +56171,7 @@
         <v>1540</v>
       </c>
       <c r="D112" s="1">
-        <v>197.71665801764399</v>
+        <v>197.71665954589844</v>
       </c>
       <c r="E112" t="s">
         <v>1550</v>
@@ -56188,7 +56188,7 @@
         <v>1540</v>
       </c>
       <c r="D113" s="1">
-        <v>196.55172413793105</v>
+        <v>196.55172729492188</v>
       </c>
       <c r="E113" t="s">
         <v>1550</v>
@@ -56205,7 +56205,7 @@
         <v>1540</v>
       </c>
       <c r="D114" s="1">
-        <v>206.87003332478852</v>
+        <v>206.87004089355469</v>
       </c>
       <c r="E114" t="s">
         <v>1550</v>
@@ -56222,7 +56222,7 @@
         <v>1540</v>
       </c>
       <c r="D115" s="1">
-        <v>190.64748201438849</v>
+        <v>190.64747619628906</v>
       </c>
       <c r="E115" t="s">
         <v>1550</v>
@@ -56239,7 +56239,7 @@
         <v>1540</v>
       </c>
       <c r="D116" s="1">
-        <v>171.75083311971289</v>
+        <v>171.75083923339844</v>
       </c>
       <c r="E116" t="s">
         <v>1550</v>
@@ -56256,7 +56256,7 @@
         <v>1540</v>
       </c>
       <c r="D117" s="1">
-        <v>197.27716414076548</v>
+        <v>197.27716064453125</v>
       </c>
       <c r="E117" t="s">
         <v>1550</v>
@@ -56273,7 +56273,7 @@
         <v>1540</v>
       </c>
       <c r="D118" s="1">
-        <v>186.4406779661017</v>
+        <v>186.440673828125</v>
       </c>
       <c r="E118" t="s">
         <v>1550</v>
@@ -56290,7 +56290,7 @@
         <v>1540</v>
       </c>
       <c r="D119" s="1">
-        <v>195.41709577754892</v>
+        <v>195.41709899902344</v>
       </c>
       <c r="E119" t="s">
         <v>1550</v>
@@ -56307,7 +56307,7 @@
         <v>1540</v>
       </c>
       <c r="D120" s="1">
-        <v>188.84009299922499</v>
+        <v>188.840087890625</v>
       </c>
       <c r="E120" t="s">
         <v>1550</v>
@@ -56324,7 +56324,7 @@
         <v>1540</v>
       </c>
       <c r="D121" s="1">
-        <v>198.64794591783672</v>
+        <v>198.64794921875</v>
       </c>
       <c r="E121" t="s">
         <v>1550</v>
@@ -56341,7 +56341,7 @@
         <v>1540</v>
       </c>
       <c r="D122" s="1">
-        <v>206.79585877355987</v>
+        <v>206.79585266113281</v>
       </c>
       <c r="E122" t="s">
         <v>1550</v>
@@ -56358,7 +56358,7 @@
         <v>1540</v>
       </c>
       <c r="D123" s="1">
-        <v>208.23244552058111</v>
+        <v>208.23245239257813</v>
       </c>
       <c r="E123" t="s">
         <v>1550</v>
@@ -56375,7 +56375,7 @@
         <v>1540</v>
       </c>
       <c r="D124" s="1">
-        <v>200.96592433592701</v>
+        <v>200.96592712402344</v>
       </c>
       <c r="E124" t="s">
         <v>1550</v>
@@ -56392,7 +56392,7 @@
         <v>1540</v>
       </c>
       <c r="D125" s="1">
-        <v>200.27359781121751</v>
+        <v>200.27360534667969</v>
       </c>
       <c r="E125" t="s">
         <v>1550</v>
@@ -56409,7 +56409,7 @@
         <v>1540</v>
       </c>
       <c r="D126" s="1">
-        <v>204.45894507884719</v>
+        <v>204.45893859863281</v>
       </c>
       <c r="E126" t="s">
         <v>1550</v>
@@ -56426,7 +56426,7 @@
         <v>1540</v>
       </c>
       <c r="D127" s="1">
-        <v>191.97630586968228</v>
+        <v>191.97630310058594</v>
       </c>
       <c r="E127" t="s">
         <v>1550</v>
@@ -56443,7 +56443,7 @@
         <v>1540</v>
       </c>
       <c r="D128" s="1">
-        <v>179.41097000810592</v>
+        <v>179.41096496582031</v>
       </c>
       <c r="E128" t="s">
         <v>1550</v>
@@ -56460,7 +56460,7 @@
         <v>1540</v>
       </c>
       <c r="D129" s="1">
-        <v>186.60930357623016</v>
+        <v>186.60929870605469</v>
       </c>
       <c r="E129" t="s">
         <v>1550</v>
@@ -56477,7 +56477,7 @@
         <v>1540</v>
       </c>
       <c r="D130" s="1">
-        <v>194.39252336448598</v>
+        <v>194.39251708984375</v>
       </c>
       <c r="E130" t="s">
         <v>1550</v>
@@ -56494,7 +56494,7 @@
         <v>1540</v>
       </c>
       <c r="D131" s="1">
-        <v>191.61515721580221</v>
+        <v>191.61515808105469</v>
       </c>
       <c r="E131" t="s">
         <v>1550</v>
@@ -56511,7 +56511,7 @@
         <v>1540</v>
       </c>
       <c r="D132" s="1">
-        <v>196.9614758545849</v>
+        <v>196.96147155761719</v>
       </c>
       <c r="E132" t="s">
         <v>1550</v>
@@ -56528,7 +56528,7 @@
         <v>1540</v>
       </c>
       <c r="D133" s="1">
-        <v>200.5427408412483</v>
+        <v>200.54273986816406</v>
       </c>
       <c r="E133" t="s">
         <v>1550</v>
@@ -56545,7 +56545,7 @@
         <v>1540</v>
       </c>
       <c r="D134" s="1">
-        <v>201.03232817169248</v>
+        <v>201.03233337402344</v>
       </c>
       <c r="E134" t="s">
         <v>1550</v>
@@ -56562,7 +56562,7 @@
         <v>1540</v>
       </c>
       <c r="D135" s="1">
-        <v>197.70849986677325</v>
+        <v>197.70849609375</v>
       </c>
       <c r="E135" t="s">
         <v>1550</v>
@@ -56579,7 +56579,7 @@
         <v>1540</v>
       </c>
       <c r="D136" s="1">
-        <v>209.63401506996772</v>
+        <v>209.63401794433594</v>
       </c>
       <c r="E136" t="s">
         <v>1550</v>
@@ -56596,7 +56596,7 @@
         <v>1540</v>
       </c>
       <c r="D137" s="1">
-        <v>200.0527148128624</v>
+        <v>200.05271911621094</v>
       </c>
       <c r="E137" t="s">
         <v>1550</v>
@@ -56613,7 +56613,7 @@
         <v>1540</v>
       </c>
       <c r="D138" s="1">
-        <v>199.57480733457348</v>
+        <v>199.57481384277344</v>
       </c>
       <c r="E138" t="s">
         <v>1550</v>
@@ -56630,7 +56630,7 @@
         <v>1540</v>
       </c>
       <c r="D139" s="1">
-        <v>199.7828447339848</v>
+        <v>199.78285217285156</v>
       </c>
       <c r="E139" t="s">
         <v>1550</v>
@@ -56647,7 +56647,7 @@
         <v>1540</v>
       </c>
       <c r="D140" s="1">
-        <v>188.35893290218269</v>
+        <v>188.35893249511719</v>
       </c>
       <c r="E140" t="s">
         <v>1550</v>
@@ -56664,7 +56664,7 @@
         <v>1540</v>
       </c>
       <c r="D141" s="1">
-        <v>198.79682800109379</v>
+        <v>198.79682922363281</v>
       </c>
       <c r="E141" t="s">
         <v>1550</v>
@@ -56681,7 +56681,7 @@
         <v>1540</v>
       </c>
       <c r="D142" s="1">
-        <v>184.94271685761046</v>
+        <v>184.94271850585938</v>
       </c>
       <c r="E142" t="s">
         <v>1550</v>
@@ -56698,7 +56698,7 @@
         <v>1540</v>
       </c>
       <c r="D143" s="1">
-        <v>198.64314789687924</v>
+        <v>198.64314270019531</v>
       </c>
       <c r="E143" t="s">
         <v>1550</v>
@@ -56715,7 +56715,7 @@
         <v>1540</v>
       </c>
       <c r="D144" s="1">
-        <v>187.62088974854933</v>
+        <v>187.62089538574219</v>
       </c>
       <c r="E144" t="s">
         <v>1550</v>
@@ -56732,7 +56732,7 @@
         <v>1540</v>
       </c>
       <c r="D145" s="1">
-        <v>201.60176746755039</v>
+        <v>201.60176086425781</v>
       </c>
       <c r="E145" t="s">
         <v>1550</v>
@@ -56749,7 +56749,7 @@
         <v>1540</v>
       </c>
       <c r="D146" s="1">
-        <v>203.36180766051254</v>
+        <v>203.36180114746094</v>
       </c>
       <c r="E146" t="s">
         <v>1550</v>
@@ -56766,7 +56766,7 @@
         <v>1540</v>
       </c>
       <c r="D147" s="1">
-        <v>199.07027618266338</v>
+        <v>199.07028198242188</v>
       </c>
       <c r="E147" t="s">
         <v>1550</v>
@@ -56783,7 +56783,7 @@
         <v>1540</v>
       </c>
       <c r="D148" s="1">
-        <v>208.99542149205493</v>
+        <v>208.99542236328125</v>
       </c>
       <c r="E148" t="s">
         <v>1550</v>
@@ -56800,7 +56800,7 @@
         <v>1540</v>
       </c>
       <c r="D149" s="1">
-        <v>202.65151515151516</v>
+        <v>202.65151977539063</v>
       </c>
       <c r="E149" t="s">
         <v>1550</v>
@@ -56817,7 +56817,7 @@
         <v>1540</v>
       </c>
       <c r="D150" s="1">
-        <v>206.96433586071328</v>
+        <v>206.96434020996094</v>
       </c>
       <c r="E150" t="s">
         <v>1550</v>
@@ -56851,7 +56851,7 @@
         <v>1540</v>
       </c>
       <c r="D152" s="1">
-        <v>180.30433534309503</v>
+        <v>180.30433654785156</v>
       </c>
       <c r="E152" t="s">
         <v>1550</v>
@@ -56868,7 +56868,7 @@
         <v>1540</v>
       </c>
       <c r="D153" s="1">
-        <v>201.60094871034687</v>
+        <v>201.6009521484375</v>
       </c>
       <c r="E153" t="s">
         <v>1550</v>
@@ -56885,7 +56885,7 @@
         <v>1540</v>
       </c>
       <c r="D154" s="1">
-        <v>188.14508994396934</v>
+        <v>188.14509582519531</v>
       </c>
       <c r="E154" t="s">
         <v>1550</v>
@@ -56902,7 +56902,7 @@
         <v>1540</v>
       </c>
       <c r="D155" s="1">
-        <v>197.52714113389627</v>
+        <v>197.52714538574219</v>
       </c>
       <c r="E155" t="s">
         <v>1550</v>
@@ -56919,7 +56919,7 @@
         <v>1540</v>
       </c>
       <c r="D156" s="1">
-        <v>199.82052049057734</v>
+        <v>199.82052612304688</v>
       </c>
       <c r="E156" t="s">
         <v>1550</v>
@@ -56936,7 +56936,7 @@
         <v>1540</v>
       </c>
       <c r="D157" s="1">
-        <v>209.37972768532526</v>
+        <v>209.37973022460938</v>
       </c>
       <c r="E157" t="s">
         <v>1550</v>
@@ -56953,7 +56953,7 @@
         <v>1540</v>
       </c>
       <c r="D158" s="1">
-        <v>201.74646190906353</v>
+        <v>201.7464599609375</v>
       </c>
       <c r="E158" t="s">
         <v>1550</v>
@@ -56970,7 +56970,7 @@
         <v>1540</v>
       </c>
       <c r="D159" s="1">
-        <v>201.61290322580646</v>
+        <v>201.61289978027344</v>
       </c>
       <c r="E159" t="s">
         <v>1550</v>
@@ -56987,7 +56987,7 @@
         <v>1540</v>
       </c>
       <c r="D160" s="1">
-        <v>208.27222059254913</v>
+        <v>208.272216796875</v>
       </c>
       <c r="E160" t="s">
         <v>1550</v>
@@ -57004,7 +57004,7 @@
         <v>1540</v>
       </c>
       <c r="D161" s="1">
-        <v>193.62386662766892</v>
+        <v>193.62387084960938</v>
       </c>
       <c r="E161" t="s">
         <v>1550</v>
@@ -57021,7 +57021,7 @@
         <v>1540</v>
       </c>
       <c r="D162" s="1">
-        <v>205.96755504055619</v>
+        <v>205.96755981445313</v>
       </c>
       <c r="E162" t="s">
         <v>1550</v>
@@ -57038,7 +57038,7 @@
         <v>1540</v>
       </c>
       <c r="D163" s="1">
-        <v>198.83889695210451</v>
+        <v>198.83889770507813</v>
       </c>
       <c r="E163" t="s">
         <v>1550</v>
@@ -57055,7 +57055,7 @@
         <v>1540</v>
       </c>
       <c r="D164" s="1">
-        <v>193.96051103368177</v>
+        <v>193.96051025390625</v>
       </c>
       <c r="E164" t="s">
         <v>1550</v>
@@ -57072,7 +57072,7 @@
         <v>1540</v>
       </c>
       <c r="D165" s="1">
-        <v>200.98751089166424</v>
+        <v>200.98751831054688</v>
       </c>
       <c r="E165" t="s">
         <v>1550</v>
@@ -57089,7 +57089,7 @@
         <v>1540</v>
       </c>
       <c r="D166" s="1">
-        <v>189.7042093287827</v>
+        <v>189.70420837402344</v>
       </c>
       <c r="E166" t="s">
         <v>1550</v>
@@ -57106,7 +57106,7 @@
         <v>1540</v>
       </c>
       <c r="D167" s="1">
-        <v>207.14700755374781</v>
+        <v>207.14700317382813</v>
       </c>
       <c r="E167" t="s">
         <v>1550</v>
@@ -57123,7 +57123,7 @@
         <v>1540</v>
       </c>
       <c r="D168" s="1">
-        <v>197.58064516129033</v>
+        <v>197.58064270019531</v>
       </c>
       <c r="E168" t="s">
         <v>1550</v>
@@ -57140,7 +57140,7 @@
         <v>1540</v>
       </c>
       <c r="D169" s="1">
-        <v>205.76979687959965</v>
+        <v>205.76979064941406</v>
       </c>
       <c r="E169" t="s">
         <v>1550</v>
@@ -57157,7 +57157,7 @@
         <v>1540</v>
       </c>
       <c r="D170" s="1">
-        <v>197.98159691303059</v>
+        <v>197.98159790039063</v>
       </c>
       <c r="E170" t="s">
         <v>1550</v>
@@ -57174,7 +57174,7 @@
         <v>1540</v>
       </c>
       <c r="D171" s="1">
-        <v>197.41974197419742</v>
+        <v>197.41973876953125</v>
       </c>
       <c r="E171" t="s">
         <v>1550</v>
@@ -57191,7 +57191,7 @@
         <v>1540</v>
       </c>
       <c r="D172" s="1">
-        <v>213.73365041617123</v>
+        <v>213.73365783691406</v>
       </c>
       <c r="E172" t="s">
         <v>1550</v>
@@ -57208,7 +57208,7 @@
         <v>1540</v>
       </c>
       <c r="D173" s="1">
-        <v>194.08284023668639</v>
+        <v>194.08283996582031</v>
       </c>
       <c r="E173" t="s">
         <v>1550</v>
@@ -57225,7 +57225,7 @@
         <v>1540</v>
       </c>
       <c r="D174" s="1">
-        <v>204.84776825302987</v>
+        <v>204.84776306152344</v>
       </c>
       <c r="E174" t="s">
         <v>1550</v>
@@ -57242,7 +57242,7 @@
         <v>1540</v>
       </c>
       <c r="D175" s="1">
-        <v>200.70526006464883</v>
+        <v>200.70526123046875</v>
       </c>
       <c r="E175" t="s">
         <v>1550</v>
@@ -57259,7 +57259,7 @@
         <v>1540</v>
       </c>
       <c r="D176" s="1">
-        <v>179.79857819905214</v>
+        <v>179.798583984375</v>
       </c>
       <c r="E176" t="s">
         <v>1550</v>
@@ -57276,7 +57276,7 @@
         <v>1540</v>
       </c>
       <c r="D177" s="1">
-        <v>204.29782082324456</v>
+        <v>204.29782104492188</v>
       </c>
       <c r="E177" t="s">
         <v>1550</v>
@@ -57293,7 +57293,7 @@
         <v>1540</v>
       </c>
       <c r="D178" s="1">
-        <v>190.9532483302975</v>
+        <v>190.9532470703125</v>
       </c>
       <c r="E178" t="s">
         <v>1550</v>
@@ -57310,7 +57310,7 @@
         <v>1540</v>
       </c>
       <c r="D179" s="1">
-        <v>188.9788293897883</v>
+        <v>188.97883605957031</v>
       </c>
       <c r="E179" t="s">
         <v>1550</v>
@@ -57327,7 +57327,7 @@
         <v>1540</v>
       </c>
       <c r="D180" s="1">
-        <v>65.168539325842701</v>
+        <v>65.168540954589844</v>
       </c>
       <c r="E180" t="s">
         <v>1550</v>
@@ -57344,7 +57344,7 @@
         <v>1540</v>
       </c>
       <c r="D181" s="1">
-        <v>121.1038961038961</v>
+        <v>121.10389709472656</v>
       </c>
       <c r="E181" t="s">
         <v>1550</v>
@@ -57361,7 +57361,7 @@
         <v>1540</v>
       </c>
       <c r="D182" s="1">
-        <v>176.68190725016331</v>
+        <v>176.68190002441406</v>
       </c>
       <c r="E182" t="s">
         <v>1550</v>
@@ -57378,7 +57378,7 @@
         <v>1540</v>
       </c>
       <c r="D183" s="1">
-        <v>183.4319526627219</v>
+        <v>183.43194580078125</v>
       </c>
       <c r="E183" t="s">
         <v>1550</v>
@@ -60489,7 +60489,7 @@
         <v>1543</v>
       </c>
       <c r="D366" s="1">
-        <v>155.69126117472973</v>
+        <v>155.69125366210938</v>
       </c>
       <c r="E366" t="s">
         <v>1553</v>
@@ -60506,7 +60506,7 @@
         <v>1543</v>
       </c>
       <c r="D367" s="1">
-        <v>164.44763554896923</v>
+        <v>164.4476318359375</v>
       </c>
       <c r="E367" t="s">
         <v>1553</v>
@@ -60523,7 +60523,7 @@
         <v>1543</v>
       </c>
       <c r="D368" s="1">
-        <v>166.45926788846529</v>
+        <v>166.45927429199219</v>
       </c>
       <c r="E368" t="s">
         <v>1553</v>
@@ -60540,7 +60540,7 @@
         <v>1543</v>
       </c>
       <c r="D369" s="1">
-        <v>150.23643088259681</v>
+        <v>150.23643493652344</v>
       </c>
       <c r="E369" t="s">
         <v>1553</v>
@@ -60557,7 +60557,7 @@
         <v>1543</v>
       </c>
       <c r="D370" s="1">
-        <v>182.03208093895063</v>
+        <v>182.03207397460938</v>
       </c>
       <c r="E370" t="s">
         <v>1553</v>
@@ -60574,7 +60574,7 @@
         <v>1543</v>
       </c>
       <c r="D371" s="1">
-        <v>162.04220913188453</v>
+        <v>162.04220581054688</v>
       </c>
       <c r="E371" t="s">
         <v>1553</v>
@@ -60591,7 +60591,7 @@
         <v>1543</v>
       </c>
       <c r="D372" s="1">
-        <v>170.36334714755085</v>
+        <v>170.36334228515625</v>
       </c>
       <c r="E372" t="s">
         <v>1553</v>
@@ -60608,7 +60608,7 @@
         <v>1543</v>
       </c>
       <c r="D373" s="1">
-        <v>149.81989791932122</v>
+        <v>149.81990051269531</v>
       </c>
       <c r="E373" t="s">
         <v>1553</v>
@@ -60625,7 +60625,7 @@
         <v>1543</v>
       </c>
       <c r="D374" s="1">
-        <v>182.66193313245864</v>
+        <v>182.66192626953125</v>
       </c>
       <c r="E374" t="s">
         <v>1553</v>
@@ -60642,7 +60642,7 @@
         <v>1543</v>
       </c>
       <c r="D375" s="1">
-        <v>159.49295314820495</v>
+        <v>159.49295043945313</v>
       </c>
       <c r="E375" t="s">
         <v>1553</v>
@@ -60659,7 +60659,7 @@
         <v>1543</v>
       </c>
       <c r="D376" s="1">
-        <v>197.54959867380273</v>
+        <v>197.54959106445313</v>
       </c>
       <c r="E376" t="s">
         <v>1553</v>
@@ -60676,7 +60676,7 @@
         <v>1543</v>
       </c>
       <c r="D377" s="1">
-        <v>233.69710460257369</v>
+        <v>233.69709777832031</v>
       </c>
       <c r="E377" t="s">
         <v>1553</v>
@@ -60693,7 +60693,7 @@
         <v>1543</v>
       </c>
       <c r="D378" s="1">
-        <v>221.84266943794319</v>
+        <v>221.84266662597656</v>
       </c>
       <c r="E378" t="s">
         <v>1553</v>
@@ -60710,7 +60710,7 @@
         <v>1543</v>
       </c>
       <c r="D379" s="1">
-        <v>245.21776649616015</v>
+        <v>245.2177734375</v>
       </c>
       <c r="E379" t="s">
         <v>1553</v>
@@ -60727,7 +60727,7 @@
         <v>1543</v>
       </c>
       <c r="D380" s="1">
-        <v>188.38668463709701</v>
+        <v>188.38668823242188</v>
       </c>
       <c r="E380" t="s">
         <v>1553</v>
@@ -60744,7 +60744,7 @@
         <v>1543</v>
       </c>
       <c r="D381" s="1">
-        <v>250.97990115227483</v>
+        <v>250.97990417480469</v>
       </c>
       <c r="E381" t="s">
         <v>1553</v>
@@ -60761,7 +60761,7 @@
         <v>1543</v>
       </c>
       <c r="D382" s="1">
-        <v>183.68647794515203</v>
+        <v>183.68647766113281</v>
       </c>
       <c r="E382" t="s">
         <v>1553</v>
@@ -60778,7 +60778,7 @@
         <v>1543</v>
       </c>
       <c r="D383" s="1">
-        <v>184.46663845799711</v>
+        <v>184.46664428710938</v>
       </c>
       <c r="E383" t="s">
         <v>1553</v>
@@ -60795,7 +60795,7 @@
         <v>1543</v>
       </c>
       <c r="D384" s="1">
-        <v>176.11779384440251</v>
+        <v>176.1177978515625</v>
       </c>
       <c r="E384" t="s">
         <v>1553</v>
@@ -60812,7 +60812,7 @@
         <v>1543</v>
       </c>
       <c r="D385" s="1">
-        <v>196.94274949325953</v>
+        <v>196.9427490234375</v>
       </c>
       <c r="E385" t="s">
         <v>1553</v>
@@ -60829,7 +60829,7 @@
         <v>1543</v>
       </c>
       <c r="D386" s="1">
-        <v>187.73592405306701</v>
+        <v>187.73593139648438</v>
       </c>
       <c r="E386" t="s">
         <v>1553</v>
@@ -60846,7 +60846,7 @@
         <v>1543</v>
       </c>
       <c r="D387" s="1">
-        <v>205.64524622864948</v>
+        <v>205.64524841308594</v>
       </c>
       <c r="E387" t="s">
         <v>1553</v>
@@ -60863,7 +60863,7 @@
         <v>1543</v>
       </c>
       <c r="D388" s="1">
-        <v>218.32926437264766</v>
+        <v>218.32926940917969</v>
       </c>
       <c r="E388" t="s">
         <v>1553</v>
@@ -60880,7 +60880,7 @@
         <v>1543</v>
       </c>
       <c r="D389" s="1">
-        <v>246.40715663835806</v>
+        <v>246.40715026855469</v>
       </c>
       <c r="E389" t="s">
         <v>1553</v>
@@ -60897,7 +60897,7 @@
         <v>1543</v>
       </c>
       <c r="D390" s="1">
-        <v>227.84325711013062</v>
+        <v>227.84326171875</v>
       </c>
       <c r="E390" t="s">
         <v>1553</v>
@@ -60914,7 +60914,7 @@
         <v>1543</v>
       </c>
       <c r="D391" s="1">
-        <v>225.5750521968863</v>
+        <v>225.57505798339844</v>
       </c>
       <c r="E391" t="s">
         <v>1553</v>
@@ -60931,7 +60931,7 @@
         <v>1543</v>
       </c>
       <c r="D392" s="1">
-        <v>210.92046033429494</v>
+        <v>210.92045593261719</v>
       </c>
       <c r="E392" t="s">
         <v>1553</v>
@@ -60948,7 +60948,7 @@
         <v>1543</v>
       </c>
       <c r="D393" s="1">
-        <v>223.5845586675587</v>
+        <v>223.58456420898438</v>
       </c>
       <c r="E393" t="s">
         <v>1553</v>
@@ -60965,7 +60965,7 @@
         <v>1543</v>
       </c>
       <c r="D394" s="1">
-        <v>202.12684373200872</v>
+        <v>202.12684631347656</v>
       </c>
       <c r="E394" t="s">
         <v>1553</v>
@@ -60982,7 +60982,7 @@
         <v>1543</v>
       </c>
       <c r="D395" s="1">
-        <v>192.08640430959892</v>
+        <v>192.08641052246094</v>
       </c>
       <c r="E395" t="s">
         <v>1553</v>
@@ -60999,7 +60999,7 @@
         <v>1543</v>
       </c>
       <c r="D396" s="1">
-        <v>175.61918075009848</v>
+        <v>175.61918640136719</v>
       </c>
       <c r="E396" t="s">
         <v>1553</v>
@@ -61016,7 +61016,7 @@
         <v>1543</v>
       </c>
       <c r="D397" s="1">
-        <v>224.41751336835165</v>
+        <v>224.41751098632813</v>
       </c>
       <c r="E397" t="s">
         <v>1553</v>
@@ -61033,7 +61033,7 @@
         <v>1543</v>
       </c>
       <c r="D398" s="1">
-        <v>202.69973192164287</v>
+        <v>202.69973754882813</v>
       </c>
       <c r="E398" t="s">
         <v>1553</v>
@@ -61050,7 +61050,7 @@
         <v>1543</v>
       </c>
       <c r="D399" s="1">
-        <v>214.4395045501702</v>
+        <v>214.43949890136719</v>
       </c>
       <c r="E399" t="s">
         <v>1553</v>
@@ -61067,7 +61067,7 @@
         <v>1543</v>
       </c>
       <c r="D400" s="1">
-        <v>194.80234954095849</v>
+        <v>194.80235290527344</v>
       </c>
       <c r="E400" t="s">
         <v>1553</v>
@@ -61084,7 +61084,7 @@
         <v>1543</v>
       </c>
       <c r="D401" s="1">
-        <v>213.83380847328965</v>
+        <v>213.83380126953125</v>
       </c>
       <c r="E401" t="s">
         <v>1553</v>
@@ -61101,7 +61101,7 @@
         <v>1543</v>
       </c>
       <c r="D402" s="1">
-        <v>196.04940020428754</v>
+        <v>196.04939270019531</v>
       </c>
       <c r="E402" t="s">
         <v>1553</v>
@@ -61118,7 +61118,7 @@
         <v>1543</v>
       </c>
       <c r="D403" s="1">
-        <v>233.0621327918216</v>
+        <v>233.0621337890625</v>
       </c>
       <c r="E403" t="s">
         <v>1553</v>
@@ -61135,7 +61135,7 @@
         <v>1543</v>
       </c>
       <c r="D404" s="1">
-        <v>209.98950606387223</v>
+        <v>209.989501953125</v>
       </c>
       <c r="E404" t="s">
         <v>1553</v>
@@ -61152,7 +61152,7 @@
         <v>1543</v>
       </c>
       <c r="D405" s="1">
-        <v>200.79041013346904</v>
+        <v>200.7904052734375</v>
       </c>
       <c r="E405" t="s">
         <v>1553</v>
@@ -61169,7 +61169,7 @@
         <v>1543</v>
       </c>
       <c r="D406" s="1">
-        <v>196.1035638249046</v>
+        <v>196.10356140136719</v>
       </c>
       <c r="E406" t="s">
         <v>1553</v>
@@ -61186,7 +61186,7 @@
         <v>1543</v>
       </c>
       <c r="D407" s="1">
-        <v>213.40475009250429</v>
+        <v>213.40475463867188</v>
       </c>
       <c r="E407" t="s">
         <v>1553</v>
@@ -61203,7 +61203,7 @@
         <v>1543</v>
       </c>
       <c r="D408" s="1">
-        <v>234.25115414518211</v>
+        <v>234.25115966796875</v>
       </c>
       <c r="E408" t="s">
         <v>1553</v>
@@ -61220,7 +61220,7 @@
         <v>1543</v>
       </c>
       <c r="D409" s="1">
-        <v>167.63949393770486</v>
+        <v>167.63949584960938</v>
       </c>
       <c r="E409" t="s">
         <v>1553</v>
@@ -61237,7 +61237,7 @@
         <v>1543</v>
       </c>
       <c r="D410" s="1">
-        <v>167.14527259892787</v>
+        <v>167.14527893066406</v>
       </c>
       <c r="E410" t="s">
         <v>1553</v>
@@ -61254,7 +61254,7 @@
         <v>1543</v>
       </c>
       <c r="D411" s="1">
-        <v>231.4083664315431</v>
+        <v>231.40837097167969</v>
       </c>
       <c r="E411" t="s">
         <v>1553</v>
@@ -61271,7 +61271,7 @@
         <v>1543</v>
       </c>
       <c r="D412" s="1">
-        <v>299.94952751348671</v>
+        <v>299.94952392578125</v>
       </c>
       <c r="E412" t="s">
         <v>1553</v>
@@ -61288,7 +61288,7 @@
         <v>1543</v>
       </c>
       <c r="D413" s="1">
-        <v>206.49127456448358</v>
+        <v>206.49127197265625</v>
       </c>
       <c r="E413" t="s">
         <v>1553</v>
@@ -61305,7 +61305,7 @@
         <v>1543</v>
       </c>
       <c r="D414" s="1">
-        <v>198.477179369243</v>
+        <v>198.4771728515625</v>
       </c>
       <c r="E414" t="s">
         <v>1553</v>
@@ -61322,7 +61322,7 @@
         <v>1543</v>
       </c>
       <c r="D415" s="1">
-        <v>176.65612715160245</v>
+        <v>176.6561279296875</v>
       </c>
       <c r="E415" t="s">
         <v>1553</v>
@@ -61339,7 +61339,7 @@
         <v>1543</v>
       </c>
       <c r="D416" s="1">
-        <v>167.38937374305101</v>
+        <v>167.38937377929688</v>
       </c>
       <c r="E416" t="s">
         <v>1553</v>
@@ -61356,7 +61356,7 @@
         <v>1543</v>
       </c>
       <c r="D417" s="1">
-        <v>178.40538763894412</v>
+        <v>178.40538024902344</v>
       </c>
       <c r="E417" t="s">
         <v>1553</v>
@@ -61373,7 +61373,7 @@
         <v>1543</v>
       </c>
       <c r="D418" s="1">
-        <v>217.27495741200238</v>
+        <v>217.27496337890625</v>
       </c>
       <c r="E418" t="s">
         <v>1553</v>
@@ -61390,7 +61390,7 @@
         <v>1543</v>
       </c>
       <c r="D419" s="1">
-        <v>239.8979281274537</v>
+        <v>239.89793395996094</v>
       </c>
       <c r="E419" t="s">
         <v>1553</v>
@@ -61407,7 +61407,7 @@
         <v>1543</v>
       </c>
       <c r="D420" s="1">
-        <v>218.83670066910202</v>
+        <v>218.83670043945313</v>
       </c>
       <c r="E420" t="s">
         <v>1553</v>
@@ -61424,7 +61424,7 @@
         <v>1543</v>
       </c>
       <c r="D421" s="1">
-        <v>179.93136803175801</v>
+        <v>179.93136596679688</v>
       </c>
       <c r="E421" t="s">
         <v>1553</v>
@@ -61441,7 +61441,7 @@
         <v>1543</v>
       </c>
       <c r="D422" s="1">
-        <v>190.0785210323159</v>
+        <v>190.07852172851563</v>
       </c>
       <c r="E422" t="s">
         <v>1553</v>
@@ -61458,7 +61458,7 @@
         <v>1543</v>
       </c>
       <c r="D423" s="1">
-        <v>217.11910666404273</v>
+        <v>217.11911010742188</v>
       </c>
       <c r="E423" t="s">
         <v>1553</v>
@@ -61475,7 +61475,7 @@
         <v>1543</v>
       </c>
       <c r="D424" s="1">
-        <v>257.73142313914252</v>
+        <v>257.73141479492188</v>
       </c>
       <c r="E424" t="s">
         <v>1553</v>
@@ -61492,7 +61492,7 @@
         <v>1543</v>
       </c>
       <c r="D425" s="1">
-        <v>220.63958098905172</v>
+        <v>220.63958740234375</v>
       </c>
       <c r="E425" t="s">
         <v>1553</v>
@@ -61509,7 +61509,7 @@
         <v>1543</v>
       </c>
       <c r="D426" s="1">
-        <v>252.62091090996682</v>
+        <v>252.62091064453125</v>
       </c>
       <c r="E426" t="s">
         <v>1553</v>
@@ -61526,7 +61526,7 @@
         <v>1543</v>
       </c>
       <c r="D427" s="1">
-        <v>239.6959138614186</v>
+        <v>239.69590759277344</v>
       </c>
       <c r="E427" t="s">
         <v>1553</v>
@@ -61543,7 +61543,7 @@
         <v>1543</v>
       </c>
       <c r="D428" s="1">
-        <v>227.4346953757863</v>
+        <v>227.4346923828125</v>
       </c>
       <c r="E428" t="s">
         <v>1553</v>
@@ -61560,7 +61560,7 @@
         <v>1543</v>
       </c>
       <c r="D429" s="1">
-        <v>234.89805772861678</v>
+        <v>234.89805603027344</v>
       </c>
       <c r="E429" t="s">
         <v>1553</v>
@@ -61577,7 +61577,7 @@
         <v>1543</v>
       </c>
       <c r="D430" s="1">
-        <v>193.98953444552478</v>
+        <v>193.98953247070313</v>
       </c>
       <c r="E430" t="s">
         <v>1553</v>
@@ -61594,7 +61594,7 @@
         <v>1543</v>
       </c>
       <c r="D431" s="1">
-        <v>255.05288717645837</v>
+        <v>255.05288696289063</v>
       </c>
       <c r="E431" t="s">
         <v>1553</v>
@@ -61611,7 +61611,7 @@
         <v>1543</v>
       </c>
       <c r="D432" s="1">
-        <v>266.04440898016998</v>
+        <v>266.04440307617188</v>
       </c>
       <c r="E432" t="s">
         <v>1553</v>
@@ -61628,7 +61628,7 @@
         <v>1543</v>
       </c>
       <c r="D433" s="1">
-        <v>216.79048541312486</v>
+        <v>216.79048156738281</v>
       </c>
       <c r="E433" t="s">
         <v>1553</v>
@@ -61645,7 +61645,7 @@
         <v>1543</v>
       </c>
       <c r="D434" s="1">
-        <v>219.80468971313076</v>
+        <v>219.8046875</v>
       </c>
       <c r="E434" t="s">
         <v>1553</v>
@@ -61662,7 +61662,7 @@
         <v>1543</v>
       </c>
       <c r="D435" s="1">
-        <v>212.38689409702837</v>
+        <v>212.38688659667969</v>
       </c>
       <c r="E435" t="s">
         <v>1553</v>
@@ -61679,7 +61679,7 @@
         <v>1543</v>
       </c>
       <c r="D436" s="1">
-        <v>211.62131226751734</v>
+        <v>211.62130737304688</v>
       </c>
       <c r="E436" t="s">
         <v>1553</v>
@@ -61696,7 +61696,7 @@
         <v>1543</v>
       </c>
       <c r="D437" s="1">
-        <v>200.84649690698183</v>
+        <v>200.84649658203125</v>
       </c>
       <c r="E437" t="s">
         <v>1553</v>
@@ -61713,7 +61713,7 @@
         <v>1543</v>
       </c>
       <c r="D438" s="1">
-        <v>202.12556597729207</v>
+        <v>202.12556457519531</v>
       </c>
       <c r="E438" t="s">
         <v>1553</v>
@@ -61730,7 +61730,7 @@
         <v>1543</v>
       </c>
       <c r="D439" s="1">
-        <v>190.23339649822688</v>
+        <v>190.2333984375</v>
       </c>
       <c r="E439" t="s">
         <v>1553</v>
@@ -61747,7 +61747,7 @@
         <v>1543</v>
       </c>
       <c r="D440" s="1">
-        <v>175.13124084632327</v>
+        <v>175.13124084472656</v>
       </c>
       <c r="E440" t="s">
         <v>1553</v>
@@ -61764,7 +61764,7 @@
         <v>1543</v>
       </c>
       <c r="D441" s="1">
-        <v>168.28362843194751</v>
+        <v>168.28363037109375</v>
       </c>
       <c r="E441" t="s">
         <v>1553</v>
@@ -61781,7 +61781,7 @@
         <v>1543</v>
       </c>
       <c r="D442" s="1">
-        <v>161.9985502421344</v>
+        <v>161.99855041503906</v>
       </c>
       <c r="E442" t="s">
         <v>1553</v>
@@ -61798,7 +61798,7 @@
         <v>1543</v>
       </c>
       <c r="D443" s="1">
-        <v>171.16302570874404</v>
+        <v>171.16302490234375</v>
       </c>
       <c r="E443" t="s">
         <v>1553</v>
@@ -61815,7 +61815,7 @@
         <v>1543</v>
       </c>
       <c r="D444" s="1">
-        <v>179.31914893617022</v>
+        <v>179.31915283203125</v>
       </c>
       <c r="E444" t="s">
         <v>1553</v>
@@ -61832,7 +61832,7 @@
         <v>1543</v>
       </c>
       <c r="D445" s="1">
-        <v>156.8354065395165</v>
+        <v>156.83540344238281</v>
       </c>
       <c r="E445" t="s">
         <v>1553</v>
@@ -61849,7 +61849,7 @@
         <v>1543</v>
       </c>
       <c r="D446" s="1">
-        <v>177.64309369427636</v>
+        <v>177.64309692382813</v>
       </c>
       <c r="E446" t="s">
         <v>1553</v>
@@ -61866,7 +61866,7 @@
         <v>1543</v>
       </c>
       <c r="D447" s="1">
-        <v>184.62618873048652</v>
+        <v>184.62619018554688</v>
       </c>
       <c r="E447" t="s">
         <v>1553</v>
@@ -61883,7 +61883,7 @@
         <v>1543</v>
       </c>
       <c r="D448" s="1">
-        <v>164.52305218644602</v>
+        <v>164.52305603027344</v>
       </c>
       <c r="E448" t="s">
         <v>1553</v>
@@ -61900,7 +61900,7 @@
         <v>1543</v>
       </c>
       <c r="D449" s="1">
-        <v>200.40831902370451</v>
+        <v>200.4083251953125</v>
       </c>
       <c r="E449" t="s">
         <v>1553</v>
@@ -61917,7 +61917,7 @@
         <v>1543</v>
       </c>
       <c r="D450" s="1">
-        <v>155.4658877989275</v>
+        <v>155.46588134765625</v>
       </c>
       <c r="E450" t="s">
         <v>1553</v>
@@ -61934,7 +61934,7 @@
         <v>1543</v>
       </c>
       <c r="D451" s="1">
-        <v>165.22082178845318</v>
+        <v>165.2208251953125</v>
       </c>
       <c r="E451" t="s">
         <v>1553</v>
@@ -61951,7 +61951,7 @@
         <v>1543</v>
       </c>
       <c r="D452" s="1">
-        <v>159.30171959591505</v>
+        <v>159.30171203613281</v>
       </c>
       <c r="E452" t="s">
         <v>1553</v>
@@ -61968,7 +61968,7 @@
         <v>1543</v>
       </c>
       <c r="D453" s="1">
-        <v>269.67606634424112</v>
+        <v>269.67605590820313</v>
       </c>
       <c r="E453" t="s">
         <v>1553</v>
@@ -61985,7 +61985,7 @@
         <v>1543</v>
       </c>
       <c r="D454" s="1">
-        <v>159.77556853145876</v>
+        <v>159.77557373046875</v>
       </c>
       <c r="E454" t="s">
         <v>1553</v>
@@ -62002,7 +62002,7 @@
         <v>1543</v>
       </c>
       <c r="D455" s="1">
-        <v>131.79571761901721</v>
+        <v>131.79571533203125</v>
       </c>
       <c r="E455" t="s">
         <v>1553</v>
@@ -62019,7 +62019,7 @@
         <v>1543</v>
       </c>
       <c r="D456" s="1">
-        <v>170.93823705974427</v>
+        <v>170.938232421875</v>
       </c>
       <c r="E456" t="s">
         <v>1553</v>
@@ -62036,7 +62036,7 @@
         <v>1544</v>
       </c>
       <c r="D457" s="1">
-        <v>31.058952781036915</v>
+        <v>31.058952331542969</v>
       </c>
       <c r="E457" t="s">
         <v>1554</v>
@@ -62053,7 +62053,7 @@
         <v>1544</v>
       </c>
       <c r="D458" s="1">
-        <v>31.112641936361094</v>
+        <v>31.112642288208008</v>
       </c>
       <c r="E458" t="s">
         <v>1554</v>
@@ -62070,7 +62070,7 @@
         <v>1544</v>
       </c>
       <c r="D459" s="1">
-        <v>30.451589329341488</v>
+        <v>30.451589584350586</v>
       </c>
       <c r="E459" t="s">
         <v>1554</v>
@@ -62087,7 +62087,7 @@
         <v>1544</v>
       </c>
       <c r="D460" s="1">
-        <v>30.297894423072879</v>
+        <v>30.297895431518555</v>
       </c>
       <c r="E460" t="s">
         <v>1554</v>
@@ -62104,7 +62104,7 @@
         <v>1544</v>
       </c>
       <c r="D461" s="1">
-        <v>35.946178145311528</v>
+        <v>35.946178436279297</v>
       </c>
       <c r="E461" t="s">
         <v>1554</v>
@@ -62121,7 +62121,7 @@
         <v>1544</v>
       </c>
       <c r="D462" s="1">
-        <v>31.64202597237475</v>
+        <v>31.642024993896484</v>
       </c>
       <c r="E462" t="s">
         <v>1554</v>
@@ -62138,7 +62138,7 @@
         <v>1544</v>
       </c>
       <c r="D463" s="1">
-        <v>34.731300486138146</v>
+        <v>34.731300354003906</v>
       </c>
       <c r="E463" t="s">
         <v>1554</v>
@@ -62155,7 +62155,7 @@
         <v>1544</v>
       </c>
       <c r="D464" s="1">
-        <v>30.486023454210777</v>
+        <v>30.48602294921875</v>
       </c>
       <c r="E464" t="s">
         <v>1554</v>
@@ -62172,7 +62172,7 @@
         <v>1544</v>
       </c>
       <c r="D465" s="1">
-        <v>35.830551089683489</v>
+        <v>35.830551147460938</v>
       </c>
       <c r="E465" t="s">
         <v>1554</v>
@@ -62189,7 +62189,7 @@
         <v>1544</v>
       </c>
       <c r="D466" s="1">
-        <v>33.127765644504976</v>
+        <v>33.127765655517578</v>
       </c>
       <c r="E466" t="s">
         <v>1554</v>
@@ -62206,7 +62206,7 @@
         <v>1544</v>
       </c>
       <c r="D467" s="1">
-        <v>37.215795363064778</v>
+        <v>37.215797424316406</v>
       </c>
       <c r="E467" t="s">
         <v>1554</v>
@@ -62223,7 +62223,7 @@
         <v>1544</v>
       </c>
       <c r="D468" s="1">
-        <v>37.956981468268729</v>
+        <v>37.956981658935547</v>
       </c>
       <c r="E468" t="s">
         <v>1554</v>
@@ -62240,7 +62240,7 @@
         <v>1544</v>
       </c>
       <c r="D469" s="1">
-        <v>44.106402811448248</v>
+        <v>44.106403350830078</v>
       </c>
       <c r="E469" t="s">
         <v>1554</v>
@@ -62257,7 +62257,7 @@
         <v>1544</v>
       </c>
       <c r="D470" s="1">
-        <v>46.69586084776958</v>
+        <v>46.695858001708984</v>
       </c>
       <c r="E470" t="s">
         <v>1554</v>
@@ -62274,7 +62274,7 @@
         <v>1544</v>
       </c>
       <c r="D471" s="1">
-        <v>36.967559779650117</v>
+        <v>36.967559814453125</v>
       </c>
       <c r="E471" t="s">
         <v>1554</v>
@@ -62291,7 +62291,7 @@
         <v>1544</v>
       </c>
       <c r="D472" s="1">
-        <v>49.534636617405496</v>
+        <v>49.534637451171875</v>
       </c>
       <c r="E472" t="s">
         <v>1554</v>
@@ -62308,7 +62308,7 @@
         <v>1544</v>
       </c>
       <c r="D473" s="1">
-        <v>36.964185731628639</v>
+        <v>36.964187622070313</v>
       </c>
       <c r="E473" t="s">
         <v>1554</v>
@@ -62325,7 +62325,7 @@
         <v>1544</v>
       </c>
       <c r="D474" s="1">
-        <v>37.079212927913495</v>
+        <v>37.079216003417969</v>
       </c>
       <c r="E474" t="s">
         <v>1554</v>
@@ -62342,7 +62342,7 @@
         <v>1544</v>
       </c>
       <c r="D475" s="1">
-        <v>36.425603690672702</v>
+        <v>36.425605773925781</v>
       </c>
       <c r="E475" t="s">
         <v>1554</v>
@@ -62359,7 +62359,7 @@
         <v>1544</v>
       </c>
       <c r="D476" s="1">
-        <v>38.938862250613326</v>
+        <v>38.938861846923828</v>
       </c>
       <c r="E476" t="s">
         <v>1554</v>
@@ -62376,7 +62376,7 @@
         <v>1544</v>
       </c>
       <c r="D477" s="1">
-        <v>36.899819555257999</v>
+        <v>36.899818420410156</v>
       </c>
       <c r="E477" t="s">
         <v>1554</v>
@@ -62393,7 +62393,7 @@
         <v>1544</v>
       </c>
       <c r="D478" s="1">
-        <v>42.541838940405064</v>
+        <v>42.541839599609375</v>
       </c>
       <c r="E478" t="s">
         <v>1554</v>
@@ -62410,7 +62410,7 @@
         <v>1544</v>
       </c>
       <c r="D479" s="1">
-        <v>41.623924502699012</v>
+        <v>41.623924255371094</v>
       </c>
       <c r="E479" t="s">
         <v>1554</v>
@@ -62427,7 +62427,7 @@
         <v>1544</v>
       </c>
       <c r="D480" s="1">
-        <v>42.320634439297585</v>
+        <v>42.320632934570313</v>
       </c>
       <c r="E480" t="s">
         <v>1554</v>
@@ -62444,7 +62444,7 @@
         <v>1544</v>
       </c>
       <c r="D481" s="1">
-        <v>44.94827163128187</v>
+        <v>44.948272705078125</v>
       </c>
       <c r="E481" t="s">
         <v>1554</v>
@@ -62461,7 +62461,7 @@
         <v>1544</v>
       </c>
       <c r="D482" s="1">
-        <v>42.056365663826263</v>
+        <v>42.056365966796875</v>
       </c>
       <c r="E482" t="s">
         <v>1554</v>
@@ -62478,7 +62478,7 @@
         <v>1544</v>
       </c>
       <c r="D483" s="1">
-        <v>41.217463798591623</v>
+        <v>41.217464447021484</v>
       </c>
       <c r="E483" t="s">
         <v>1554</v>
@@ -62495,7 +62495,7 @@
         <v>1544</v>
       </c>
       <c r="D484" s="1">
-        <v>42.221728851972458</v>
+        <v>42.221729278564453</v>
       </c>
       <c r="E484" t="s">
         <v>1554</v>
@@ -62512,7 +62512,7 @@
         <v>1544</v>
       </c>
       <c r="D485" s="1">
-        <v>40.152082322219101</v>
+        <v>40.152080535888672</v>
       </c>
       <c r="E485" t="s">
         <v>1554</v>
@@ -62529,7 +62529,7 @@
         <v>1544</v>
       </c>
       <c r="D486" s="1">
-        <v>39.722672937928735</v>
+        <v>39.722671508789063</v>
       </c>
       <c r="E486" t="s">
         <v>1554</v>
@@ -62546,7 +62546,7 @@
         <v>1544</v>
       </c>
       <c r="D487" s="1">
-        <v>36.569611487913974</v>
+        <v>36.569614410400391</v>
       </c>
       <c r="E487" t="s">
         <v>1554</v>
@@ -62563,7 +62563,7 @@
         <v>1544</v>
       </c>
       <c r="D488" s="1">
-        <v>45.100273011241043</v>
+        <v>45.100273132324219</v>
       </c>
       <c r="E488" t="s">
         <v>1554</v>
@@ -62580,7 +62580,7 @@
         <v>1544</v>
       </c>
       <c r="D489" s="1">
-        <v>40.595404587316708</v>
+        <v>40.595405578613281</v>
       </c>
       <c r="E489" t="s">
         <v>1554</v>
@@ -62597,7 +62597,7 @@
         <v>1544</v>
       </c>
       <c r="D490" s="1">
-        <v>43.844074883558456</v>
+        <v>43.844074249267578</v>
       </c>
       <c r="E490" t="s">
         <v>1554</v>
@@ -62614,7 +62614,7 @@
         <v>1544</v>
       </c>
       <c r="D491" s="1">
-        <v>37.397435439607804</v>
+        <v>37.397434234619141</v>
       </c>
       <c r="E491" t="s">
         <v>1554</v>
@@ -62631,7 +62631,7 @@
         <v>1544</v>
       </c>
       <c r="D492" s="1">
-        <v>38.364130998720427</v>
+        <v>38.364131927490234</v>
       </c>
       <c r="E492" t="s">
         <v>1554</v>
@@ -62648,7 +62648,7 @@
         <v>1544</v>
       </c>
       <c r="D493" s="1">
-        <v>36.58464203865973</v>
+        <v>36.584640502929688</v>
       </c>
       <c r="E493" t="s">
         <v>1554</v>
@@ -62665,7 +62665,7 @@
         <v>1544</v>
       </c>
       <c r="D494" s="1">
-        <v>45.305536094111112</v>
+        <v>45.305534362792969</v>
       </c>
       <c r="E494" t="s">
         <v>1554</v>
@@ -62682,7 +62682,7 @@
         <v>1544</v>
       </c>
       <c r="D495" s="1">
-        <v>40.237172218097527</v>
+        <v>40.237171173095703</v>
       </c>
       <c r="E495" t="s">
         <v>1554</v>
@@ -62699,7 +62699,7 @@
         <v>1544</v>
       </c>
       <c r="D496" s="1">
-        <v>39.547975517335466</v>
+        <v>39.547977447509766</v>
       </c>
       <c r="E496" t="s">
         <v>1554</v>
@@ -62716,7 +62716,7 @@
         <v>1544</v>
       </c>
       <c r="D497" s="1">
-        <v>39.327146178183035</v>
+        <v>39.327144622802734</v>
       </c>
       <c r="E497" t="s">
         <v>1554</v>
@@ -62733,7 +62733,7 @@
         <v>1544</v>
       </c>
       <c r="D498" s="1">
-        <v>42.901253753994339</v>
+        <v>42.901252746582031</v>
       </c>
       <c r="E498" t="s">
         <v>1554</v>
@@ -62750,7 +62750,7 @@
         <v>1544</v>
       </c>
       <c r="D499" s="1">
-        <v>46.313444278104214</v>
+        <v>46.313446044921875</v>
       </c>
       <c r="E499" t="s">
         <v>1554</v>
@@ -62767,7 +62767,7 @@
         <v>1544</v>
       </c>
       <c r="D500" s="1">
-        <v>35.142940198458575</v>
+        <v>35.142940521240234</v>
       </c>
       <c r="E500" t="s">
         <v>1554</v>
@@ -62784,7 +62784,7 @@
         <v>1544</v>
       </c>
       <c r="D501" s="1">
-        <v>33.437865551551461</v>
+        <v>33.4378662109375</v>
       </c>
       <c r="E501" t="s">
         <v>1554</v>
@@ -62801,7 +62801,7 @@
         <v>1544</v>
       </c>
       <c r="D502" s="1">
-        <v>46.183280146183591</v>
+        <v>46.183280944824219</v>
       </c>
       <c r="E502" t="s">
         <v>1554</v>
@@ -62818,7 +62818,7 @@
         <v>1544</v>
       </c>
       <c r="D503" s="1">
-        <v>59.924769883259025</v>
+        <v>59.924770355224609</v>
       </c>
       <c r="E503" t="s">
         <v>1554</v>
@@ -62835,7 +62835,7 @@
         <v>1544</v>
       </c>
       <c r="D504" s="1">
-        <v>38.894476130577743</v>
+        <v>38.894477844238281</v>
       </c>
       <c r="E504" t="s">
         <v>1554</v>
@@ -62852,7 +62852,7 @@
         <v>1544</v>
       </c>
       <c r="D505" s="1">
-        <v>39.456633689209646</v>
+        <v>39.456634521484375</v>
       </c>
       <c r="E505" t="s">
         <v>1554</v>
@@ -62869,7 +62869,7 @@
         <v>1544</v>
       </c>
       <c r="D506" s="1">
-        <v>32.671264104960848</v>
+        <v>32.6712646484375</v>
       </c>
       <c r="E506" t="s">
         <v>1554</v>
@@ -62886,7 +62886,7 @@
         <v>1544</v>
       </c>
       <c r="D507" s="1">
-        <v>33.250752124806873</v>
+        <v>33.250755310058594</v>
       </c>
       <c r="E507" t="s">
         <v>1554</v>
@@ -62903,7 +62903,7 @@
         <v>1544</v>
       </c>
       <c r="D508" s="1">
-        <v>33.472577564753536</v>
+        <v>33.472579956054688</v>
       </c>
       <c r="E508" t="s">
         <v>1554</v>
@@ -62920,7 +62920,7 @@
         <v>1544</v>
       </c>
       <c r="D509" s="1">
-        <v>43.80301544069642</v>
+        <v>43.803016662597656</v>
       </c>
       <c r="E509" t="s">
         <v>1554</v>
@@ -62937,7 +62937,7 @@
         <v>1544</v>
       </c>
       <c r="D510" s="1">
-        <v>48.7860763180107</v>
+        <v>48.786079406738281</v>
       </c>
       <c r="E510" t="s">
         <v>1554</v>
@@ -62954,7 +62954,7 @@
         <v>1544</v>
       </c>
       <c r="D511" s="1">
-        <v>43.563882441100972</v>
+        <v>43.563880920410156</v>
       </c>
       <c r="E511" t="s">
         <v>1554</v>
@@ -62971,7 +62971,7 @@
         <v>1544</v>
       </c>
       <c r="D512" s="1">
-        <v>37.604832101439321</v>
+        <v>37.604831695556641</v>
       </c>
       <c r="E512" t="s">
         <v>1554</v>
@@ -62988,7 +62988,7 @@
         <v>1544</v>
       </c>
       <c r="D513" s="1">
-        <v>38.519700284957956</v>
+        <v>38.519699096679688</v>
       </c>
       <c r="E513" t="s">
         <v>1554</v>
@@ -63005,7 +63005,7 @@
         <v>1544</v>
       </c>
       <c r="D514" s="1">
-        <v>44.935911713394979</v>
+        <v>44.935909271240234</v>
       </c>
       <c r="E514" t="s">
         <v>1554</v>
@@ -63022,7 +63022,7 @@
         <v>1544</v>
       </c>
       <c r="D515" s="1">
-        <v>51.546284627828506</v>
+        <v>51.546283721923828</v>
       </c>
       <c r="E515" t="s">
         <v>1554</v>
@@ -63039,7 +63039,7 @@
         <v>1544</v>
       </c>
       <c r="D516" s="1">
-        <v>39.782273000609962</v>
+        <v>39.782272338867188</v>
       </c>
       <c r="E516" t="s">
         <v>1554</v>
@@ -63056,7 +63056,7 @@
         <v>1544</v>
       </c>
       <c r="D517" s="1">
-        <v>50.928615303521326</v>
+        <v>50.928615570068359</v>
       </c>
       <c r="E517" t="s">
         <v>1554</v>
@@ -63073,7 +63073,7 @@
         <v>1544</v>
       </c>
       <c r="D518" s="1">
-        <v>45.097609272658524</v>
+        <v>45.097610473632813</v>
       </c>
       <c r="E518" t="s">
         <v>1554</v>
@@ -63090,7 +63090,7 @@
         <v>1544</v>
       </c>
       <c r="D519" s="1">
-        <v>44.924525172237644</v>
+        <v>44.924522399902344</v>
       </c>
       <c r="E519" t="s">
         <v>1554</v>
@@ -63107,7 +63107,7 @@
         <v>1544</v>
       </c>
       <c r="D520" s="1">
-        <v>46.937452157557885</v>
+        <v>46.937454223632813</v>
       </c>
       <c r="E520" t="s">
         <v>1554</v>
@@ -63124,7 +63124,7 @@
         <v>1544</v>
       </c>
       <c r="D521" s="1">
-        <v>40.617475896007001</v>
+        <v>40.617477416992188</v>
       </c>
       <c r="E521" t="s">
         <v>1554</v>
@@ -63141,7 +63141,7 @@
         <v>1544</v>
       </c>
       <c r="D522" s="1">
-        <v>51.456017587542036</v>
+        <v>51.456020355224609</v>
       </c>
       <c r="E522" t="s">
         <v>1554</v>
@@ -63158,7 +63158,7 @@
         <v>1544</v>
       </c>
       <c r="D523" s="1">
-        <v>53.63798568148588</v>
+        <v>53.637985229492188</v>
       </c>
       <c r="E523" t="s">
         <v>1554</v>
@@ -63175,7 +63175,7 @@
         <v>1544</v>
       </c>
       <c r="D524" s="1">
-        <v>45.151435800328144</v>
+        <v>45.151435852050781</v>
       </c>
       <c r="E524" t="s">
         <v>1554</v>
@@ -63192,7 +63192,7 @@
         <v>1544</v>
       </c>
       <c r="D525" s="1">
-        <v>42.559433925151382</v>
+        <v>42.559432983398438</v>
       </c>
       <c r="E525" t="s">
         <v>1554</v>
@@ -63209,7 +63209,7 @@
         <v>1544</v>
       </c>
       <c r="D526" s="1">
-        <v>43.744809299822471</v>
+        <v>43.744808197021484</v>
       </c>
       <c r="E526" t="s">
         <v>1554</v>
@@ -63226,7 +63226,7 @@
         <v>1544</v>
       </c>
       <c r="D527" s="1">
-        <v>42.078548302830008</v>
+        <v>42.078548431396484</v>
       </c>
       <c r="E527" t="s">
         <v>1554</v>
@@ -63243,7 +63243,7 @@
         <v>1544</v>
       </c>
       <c r="D528" s="1">
-        <v>38.95628917940298</v>
+        <v>38.956287384033203</v>
       </c>
       <c r="E528" t="s">
         <v>1554</v>
@@ -63260,7 +63260,7 @@
         <v>1544</v>
       </c>
       <c r="D529" s="1">
-        <v>40.624714393344796</v>
+        <v>40.624713897705078</v>
       </c>
       <c r="E529" t="s">
         <v>1554</v>
@@ -63277,7 +63277,7 @@
         <v>1544</v>
       </c>
       <c r="D530" s="1">
-        <v>36.088076070624957</v>
+        <v>36.08807373046875</v>
       </c>
       <c r="E530" t="s">
         <v>1554</v>
@@ -63294,7 +63294,7 @@
         <v>1544</v>
       </c>
       <c r="D531" s="1">
-        <v>36.277912470490556</v>
+        <v>36.277915954589844</v>
       </c>
       <c r="E531" t="s">
         <v>1554</v>
@@ -63311,7 +63311,7 @@
         <v>1544</v>
       </c>
       <c r="D532" s="1">
-        <v>33.249587875667046</v>
+        <v>33.249584197998047</v>
       </c>
       <c r="E532" t="s">
         <v>1554</v>
@@ -63328,7 +63328,7 @@
         <v>1544</v>
       </c>
       <c r="D533" s="1">
-        <v>33.334408778113612</v>
+        <v>33.33441162109375</v>
       </c>
       <c r="E533" t="s">
         <v>1554</v>
@@ -63345,7 +63345,7 @@
         <v>1544</v>
       </c>
       <c r="D534" s="1">
-        <v>33.887129162283252</v>
+        <v>33.887130737304688</v>
       </c>
       <c r="E534" t="s">
         <v>1554</v>
@@ -63362,7 +63362,7 @@
         <v>1544</v>
       </c>
       <c r="D535" s="1">
-        <v>35.401140114011405</v>
+        <v>35.401142120361328</v>
       </c>
       <c r="E535" t="s">
         <v>1554</v>
@@ -63379,7 +63379,7 @@
         <v>1544</v>
       </c>
       <c r="D536" s="1">
-        <v>33.521003954195109</v>
+        <v>33.521003723144531</v>
       </c>
       <c r="E536" t="s">
         <v>1554</v>
@@ -63396,7 +63396,7 @@
         <v>1544</v>
       </c>
       <c r="D537" s="1">
-        <v>34.477476172616953</v>
+        <v>34.47747802734375</v>
       </c>
       <c r="E537" t="s">
         <v>1554</v>
@@ -63413,7 +63413,7 @@
         <v>1544</v>
       </c>
       <c r="D538" s="1">
-        <v>37.820262722502854</v>
+        <v>37.820262908935547</v>
       </c>
       <c r="E538" t="s">
         <v>1554</v>
@@ -63430,7 +63430,7 @@
         <v>1544</v>
       </c>
       <c r="D539" s="1">
-        <v>33.02064197571044</v>
+        <v>33.020641326904297</v>
       </c>
       <c r="E539" t="s">
         <v>1554</v>
@@ -63447,7 +63447,7 @@
         <v>1544</v>
       </c>
       <c r="D540" s="1">
-        <v>36.033130819724121</v>
+        <v>36.033130645751953</v>
       </c>
       <c r="E540" t="s">
         <v>1554</v>
@@ -63464,7 +63464,7 @@
         <v>1544</v>
       </c>
       <c r="D541" s="1">
-        <v>31.761342089671928</v>
+        <v>31.761341094970703</v>
       </c>
       <c r="E541" t="s">
         <v>1554</v>
@@ -63481,7 +63481,7 @@
         <v>1544</v>
       </c>
       <c r="D542" s="1">
-        <v>31.549452612306325</v>
+        <v>31.549453735351563</v>
       </c>
       <c r="E542" t="s">
         <v>1554</v>
@@ -63498,7 +63498,7 @@
         <v>1544</v>
       </c>
       <c r="D543" s="1">
-        <v>30.104652489016328</v>
+        <v>30.104652404785156</v>
       </c>
       <c r="E543" t="s">
         <v>1554</v>
@@ -63515,7 +63515,7 @@
         <v>1544</v>
       </c>
       <c r="D544" s="1">
-        <v>17.574395334793245</v>
+        <v>17.574394226074219</v>
       </c>
       <c r="E544" t="s">
         <v>1554</v>
@@ -63532,7 +63532,7 @@
         <v>1544</v>
       </c>
       <c r="D545" s="1">
-        <v>19.349443851374716</v>
+        <v>19.349443435668945</v>
       </c>
       <c r="E545" t="s">
         <v>1554</v>
@@ -63549,7 +63549,7 @@
         <v>1544</v>
       </c>
       <c r="D546" s="1">
-        <v>23.28591875633191</v>
+        <v>23.285917282104492</v>
       </c>
       <c r="E546" t="s">
         <v>1554</v>
@@ -63566,7 +63566,7 @@
         <v>1544</v>
       </c>
       <c r="D547" s="1">
-        <v>31.355534608592144</v>
+        <v>31.355535507202148</v>
       </c>
       <c r="E547" t="s">
         <v>1554</v>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9719" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9723" uniqueCount="235">
   <si>
     <t>Sección</t>
   </si>
@@ -63794,7 +63794,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:D184"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -65090,13 +65090,13 @@
         <v>214</v>
       </c>
       <c r="B93" s="2">
-        <v>36161</v>
+        <v>44013</v>
       </c>
       <c r="C93" s="1">
-        <v>1.8647880000000001</v>
+        <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94">
@@ -65104,10 +65104,10 @@
         <v>214</v>
       </c>
       <c r="B94" s="2">
-        <v>36251</v>
+        <v>36161</v>
       </c>
       <c r="C94" s="1">
-        <v>6.3323</v>
+        <v>1.8647880000000001</v>
       </c>
       <c r="D94" t="s">
         <v>234</v>
@@ -65118,10 +65118,10 @@
         <v>214</v>
       </c>
       <c r="B95" s="2">
-        <v>36342</v>
+        <v>36251</v>
       </c>
       <c r="C95" s="1">
-        <v>0.88144599999999995</v>
+        <v>6.3323</v>
       </c>
       <c r="D95" t="s">
         <v>234</v>
@@ -65132,10 +65132,10 @@
         <v>214</v>
       </c>
       <c r="B96" s="2">
-        <v>36434</v>
+        <v>36342</v>
       </c>
       <c r="C96" s="1">
-        <v>7.9705779999999997</v>
+        <v>0.88144599999999995</v>
       </c>
       <c r="D96" t="s">
         <v>234</v>
@@ -65146,10 +65146,10 @@
         <v>214</v>
       </c>
       <c r="B97" s="2">
-        <v>36526</v>
+        <v>36434</v>
       </c>
       <c r="C97" s="1">
-        <v>9.9512909999999994</v>
+        <v>7.9705779999999997</v>
       </c>
       <c r="D97" t="s">
         <v>234</v>
@@ -65160,10 +65160,10 @@
         <v>214</v>
       </c>
       <c r="B98" s="2">
-        <v>36617</v>
+        <v>36526</v>
       </c>
       <c r="C98" s="1">
-        <v>4.0929969999999996</v>
+        <v>9.9512909999999994</v>
       </c>
       <c r="D98" t="s">
         <v>234</v>
@@ -65174,10 +65174,10 @@
         <v>214</v>
       </c>
       <c r="B99" s="2">
-        <v>36708</v>
+        <v>36617</v>
       </c>
       <c r="C99" s="1">
-        <v>5.0257550000000002</v>
+        <v>4.0929969999999996</v>
       </c>
       <c r="D99" t="s">
         <v>234</v>
@@ -65188,10 +65188,10 @@
         <v>214</v>
       </c>
       <c r="B100" s="2">
-        <v>36800</v>
+        <v>36708</v>
       </c>
       <c r="C100" s="1">
-        <v>36.499832000000005</v>
+        <v>5.0257550000000002</v>
       </c>
       <c r="D100" t="s">
         <v>234</v>
@@ -65202,10 +65202,10 @@
         <v>214</v>
       </c>
       <c r="B101" s="2">
-        <v>36892</v>
+        <v>36800</v>
       </c>
       <c r="C101" s="1">
-        <v>3.2223809999999999</v>
+        <v>36.499832000000005</v>
       </c>
       <c r="D101" t="s">
         <v>234</v>
@@ -65216,10 +65216,10 @@
         <v>214</v>
       </c>
       <c r="B102" s="2">
-        <v>36982</v>
+        <v>36892</v>
       </c>
       <c r="C102" s="1">
-        <v>3.1597689999999998</v>
+        <v>3.2223809999999999</v>
       </c>
       <c r="D102" t="s">
         <v>234</v>
@@ -65230,10 +65230,10 @@
         <v>214</v>
       </c>
       <c r="B103" s="2">
-        <v>37073</v>
+        <v>36982</v>
       </c>
       <c r="C103" s="1">
-        <v>10.741318</v>
+        <v>3.1597689999999998</v>
       </c>
       <c r="D103" t="s">
         <v>234</v>
@@ -65244,10 +65244,10 @@
         <v>214</v>
       </c>
       <c r="B104" s="2">
-        <v>37165</v>
+        <v>37073</v>
       </c>
       <c r="C104" s="1">
-        <v>10.570994000000001</v>
+        <v>10.741318</v>
       </c>
       <c r="D104" t="s">
         <v>234</v>
@@ -65258,10 +65258,10 @@
         <v>214</v>
       </c>
       <c r="B105" s="2">
-        <v>37257</v>
+        <v>37165</v>
       </c>
       <c r="C105" s="1">
-        <v>20.958390999999999</v>
+        <v>10.570994000000001</v>
       </c>
       <c r="D105" t="s">
         <v>234</v>
@@ -65272,10 +65272,10 @@
         <v>214</v>
       </c>
       <c r="B106" s="2">
-        <v>37347</v>
+        <v>37257</v>
       </c>
       <c r="C106" s="1">
-        <v>14.212596000000001</v>
+        <v>20.958390999999999</v>
       </c>
       <c r="D106" t="s">
         <v>234</v>
@@ -65286,10 +65286,10 @@
         <v>214</v>
       </c>
       <c r="B107" s="2">
-        <v>37438</v>
+        <v>37347</v>
       </c>
       <c r="C107" s="1">
-        <v>8.3149080000000009</v>
+        <v>14.212596000000001</v>
       </c>
       <c r="D107" t="s">
         <v>234</v>
@@ -65300,10 +65300,10 @@
         <v>214</v>
       </c>
       <c r="B108" s="2">
-        <v>37530</v>
+        <v>37438</v>
       </c>
       <c r="C108" s="1">
-        <v>10.442649000000001</v>
+        <v>8.3149080000000009</v>
       </c>
       <c r="D108" t="s">
         <v>234</v>
@@ -65314,10 +65314,10 @@
         <v>214</v>
       </c>
       <c r="B109" s="2">
-        <v>37622</v>
+        <v>37530</v>
       </c>
       <c r="C109" s="1">
-        <v>-0.28429100000000002</v>
+        <v>10.442649000000001</v>
       </c>
       <c r="D109" t="s">
         <v>234</v>
@@ -65331,7 +65331,7 @@
         <v>37622</v>
       </c>
       <c r="C110" s="1">
-        <v>13.099116</v>
+        <v>-0.28429100000000002</v>
       </c>
       <c r="D110" t="s">
         <v>234</v>
@@ -65342,10 +65342,10 @@
         <v>214</v>
       </c>
       <c r="B111" s="2">
-        <v>37712</v>
+        <v>37622</v>
       </c>
       <c r="C111" s="1">
-        <v>0</v>
+        <v>13.099116</v>
       </c>
       <c r="D111" t="s">
         <v>234</v>
@@ -65356,10 +65356,10 @@
         <v>214</v>
       </c>
       <c r="B112" s="2">
-        <v>37803</v>
+        <v>37712</v>
       </c>
       <c r="C112" s="1">
-        <v>13.039013000000001</v>
+        <v>0</v>
       </c>
       <c r="D112" t="s">
         <v>234</v>
@@ -65370,10 +65370,10 @@
         <v>214</v>
       </c>
       <c r="B113" s="2">
-        <v>37895</v>
+        <v>37803</v>
       </c>
       <c r="C113" s="1">
-        <v>1.955627</v>
+        <v>13.039013000000001</v>
       </c>
       <c r="D113" t="s">
         <v>234</v>
@@ -65384,10 +65384,10 @@
         <v>214</v>
       </c>
       <c r="B114" s="2">
-        <v>37987</v>
+        <v>37895</v>
       </c>
       <c r="C114" s="1">
-        <v>0</v>
+        <v>1.955627</v>
       </c>
       <c r="D114" t="s">
         <v>234</v>
@@ -65398,7 +65398,7 @@
         <v>214</v>
       </c>
       <c r="B115" s="2">
-        <v>38078</v>
+        <v>37987</v>
       </c>
       <c r="C115" s="1">
         <v>0</v>
@@ -65412,10 +65412,10 @@
         <v>214</v>
       </c>
       <c r="B116" s="2">
-        <v>38169</v>
+        <v>38078</v>
       </c>
       <c r="C116" s="1">
-        <v>0.63998299999999997</v>
+        <v>0</v>
       </c>
       <c r="D116" t="s">
         <v>234</v>
@@ -65426,10 +65426,10 @@
         <v>214</v>
       </c>
       <c r="B117" s="2">
-        <v>38261</v>
+        <v>38169</v>
       </c>
       <c r="C117" s="1">
-        <v>-9.9165720000000004</v>
+        <v>0.63998299999999997</v>
       </c>
       <c r="D117" t="s">
         <v>234</v>
@@ -65443,7 +65443,7 @@
         <v>38261</v>
       </c>
       <c r="C118" s="1">
-        <v>0</v>
+        <v>-9.9165720000000004</v>
       </c>
       <c r="D118" t="s">
         <v>234</v>
@@ -65454,7 +65454,7 @@
         <v>214</v>
       </c>
       <c r="B119" s="2">
-        <v>38353</v>
+        <v>38261</v>
       </c>
       <c r="C119" s="1">
         <v>0</v>
@@ -65468,10 +65468,10 @@
         <v>214</v>
       </c>
       <c r="B120" s="2">
-        <v>38443</v>
+        <v>38353</v>
       </c>
       <c r="C120" s="1">
-        <v>0.38894899999999999</v>
+        <v>0</v>
       </c>
       <c r="D120" t="s">
         <v>234</v>
@@ -65482,10 +65482,10 @@
         <v>214</v>
       </c>
       <c r="B121" s="2">
-        <v>38534</v>
+        <v>38443</v>
       </c>
       <c r="C121" s="1">
-        <v>0</v>
+        <v>0.38894899999999999</v>
       </c>
       <c r="D121" t="s">
         <v>234</v>
@@ -65496,7 +65496,7 @@
         <v>214</v>
       </c>
       <c r="B122" s="2">
-        <v>38626</v>
+        <v>38534</v>
       </c>
       <c r="C122" s="1">
         <v>0</v>
@@ -65510,7 +65510,7 @@
         <v>214</v>
       </c>
       <c r="B123" s="2">
-        <v>38718</v>
+        <v>38626</v>
       </c>
       <c r="C123" s="1">
         <v>0</v>
@@ -65524,10 +65524,10 @@
         <v>214</v>
       </c>
       <c r="B124" s="2">
-        <v>38808</v>
+        <v>38718</v>
       </c>
       <c r="C124" s="1">
-        <v>-0.62884499999999999</v>
+        <v>0</v>
       </c>
       <c r="D124" t="s">
         <v>234</v>
@@ -65541,7 +65541,7 @@
         <v>38808</v>
       </c>
       <c r="C125" s="1">
-        <v>2.367626</v>
+        <v>-0.62884499999999999</v>
       </c>
       <c r="D125" t="s">
         <v>234</v>
@@ -65552,10 +65552,10 @@
         <v>214</v>
       </c>
       <c r="B126" s="2">
-        <v>38899</v>
+        <v>38808</v>
       </c>
       <c r="C126" s="1">
-        <v>0</v>
+        <v>2.367626</v>
       </c>
       <c r="D126" t="s">
         <v>234</v>
@@ -65566,7 +65566,7 @@
         <v>214</v>
       </c>
       <c r="B127" s="2">
-        <v>38991</v>
+        <v>38899</v>
       </c>
       <c r="C127" s="1">
         <v>0</v>
@@ -65580,10 +65580,10 @@
         <v>214</v>
       </c>
       <c r="B128" s="2">
-        <v>39083</v>
+        <v>38991</v>
       </c>
       <c r="C128" s="1">
-        <v>0.69270100000000001</v>
+        <v>0</v>
       </c>
       <c r="D128" t="s">
         <v>234</v>
@@ -65594,10 +65594,10 @@
         <v>214</v>
       </c>
       <c r="B129" s="2">
-        <v>39173</v>
+        <v>39083</v>
       </c>
       <c r="C129" s="1">
-        <v>-0.90290000000000004</v>
+        <v>0.69270100000000001</v>
       </c>
       <c r="D129" t="s">
         <v>234</v>
@@ -65611,7 +65611,7 @@
         <v>39173</v>
       </c>
       <c r="C130" s="1">
-        <v>0</v>
+        <v>-0.90290000000000004</v>
       </c>
       <c r="D130" t="s">
         <v>234</v>
@@ -65622,7 +65622,7 @@
         <v>214</v>
       </c>
       <c r="B131" s="2">
-        <v>39264</v>
+        <v>39173</v>
       </c>
       <c r="C131" s="1">
         <v>0</v>
@@ -65636,7 +65636,7 @@
         <v>214</v>
       </c>
       <c r="B132" s="2">
-        <v>39356</v>
+        <v>39264</v>
       </c>
       <c r="C132" s="1">
         <v>0</v>
@@ -65650,7 +65650,7 @@
         <v>214</v>
       </c>
       <c r="B133" s="2">
-        <v>39448</v>
+        <v>39356</v>
       </c>
       <c r="C133" s="1">
         <v>0</v>
@@ -65664,7 +65664,7 @@
         <v>214</v>
       </c>
       <c r="B134" s="2">
-        <v>39539</v>
+        <v>39448</v>
       </c>
       <c r="C134" s="1">
         <v>0</v>
@@ -65678,7 +65678,7 @@
         <v>214</v>
       </c>
       <c r="B135" s="2">
-        <v>39630</v>
+        <v>39539</v>
       </c>
       <c r="C135" s="1">
         <v>0</v>
@@ -65692,7 +65692,7 @@
         <v>214</v>
       </c>
       <c r="B136" s="2">
-        <v>39722</v>
+        <v>39630</v>
       </c>
       <c r="C136" s="1">
         <v>0</v>
@@ -65706,7 +65706,7 @@
         <v>214</v>
       </c>
       <c r="B137" s="2">
-        <v>39814</v>
+        <v>39722</v>
       </c>
       <c r="C137" s="1">
         <v>0</v>
@@ -65720,7 +65720,7 @@
         <v>214</v>
       </c>
       <c r="B138" s="2">
-        <v>39904</v>
+        <v>39814</v>
       </c>
       <c r="C138" s="1">
         <v>0</v>
@@ -65734,7 +65734,7 @@
         <v>214</v>
       </c>
       <c r="B139" s="2">
-        <v>39995</v>
+        <v>39904</v>
       </c>
       <c r="C139" s="1">
         <v>0</v>
@@ -65748,7 +65748,7 @@
         <v>214</v>
       </c>
       <c r="B140" s="2">
-        <v>40087</v>
+        <v>39995</v>
       </c>
       <c r="C140" s="1">
         <v>0</v>
@@ -65762,7 +65762,7 @@
         <v>214</v>
       </c>
       <c r="B141" s="2">
-        <v>40179</v>
+        <v>40087</v>
       </c>
       <c r="C141" s="1">
         <v>0</v>
@@ -65776,7 +65776,7 @@
         <v>214</v>
       </c>
       <c r="B142" s="2">
-        <v>40269</v>
+        <v>40179</v>
       </c>
       <c r="C142" s="1">
         <v>0</v>
@@ -65790,7 +65790,7 @@
         <v>214</v>
       </c>
       <c r="B143" s="2">
-        <v>40360</v>
+        <v>40269</v>
       </c>
       <c r="C143" s="1">
         <v>0</v>
@@ -65804,7 +65804,7 @@
         <v>214</v>
       </c>
       <c r="B144" s="2">
-        <v>40452</v>
+        <v>40360</v>
       </c>
       <c r="C144" s="1">
         <v>0</v>
@@ -65818,7 +65818,7 @@
         <v>214</v>
       </c>
       <c r="B145" s="2">
-        <v>40544</v>
+        <v>40452</v>
       </c>
       <c r="C145" s="1">
         <v>0</v>
@@ -65832,7 +65832,7 @@
         <v>214</v>
       </c>
       <c r="B146" s="2">
-        <v>40634</v>
+        <v>40544</v>
       </c>
       <c r="C146" s="1">
         <v>0</v>
@@ -65846,7 +65846,7 @@
         <v>214</v>
       </c>
       <c r="B147" s="2">
-        <v>40725</v>
+        <v>40634</v>
       </c>
       <c r="C147" s="1">
         <v>0</v>
@@ -65860,7 +65860,7 @@
         <v>214</v>
       </c>
       <c r="B148" s="2">
-        <v>40817</v>
+        <v>40725</v>
       </c>
       <c r="C148" s="1">
         <v>0</v>
@@ -65874,7 +65874,7 @@
         <v>214</v>
       </c>
       <c r="B149" s="2">
-        <v>40909</v>
+        <v>40817</v>
       </c>
       <c r="C149" s="1">
         <v>0</v>
@@ -65888,7 +65888,7 @@
         <v>214</v>
       </c>
       <c r="B150" s="2">
-        <v>41000</v>
+        <v>40909</v>
       </c>
       <c r="C150" s="1">
         <v>0</v>
@@ -65902,7 +65902,7 @@
         <v>214</v>
       </c>
       <c r="B151" s="2">
-        <v>41091</v>
+        <v>41000</v>
       </c>
       <c r="C151" s="1">
         <v>0</v>
@@ -65916,7 +65916,7 @@
         <v>214</v>
       </c>
       <c r="B152" s="2">
-        <v>41183</v>
+        <v>41091</v>
       </c>
       <c r="C152" s="1">
         <v>0</v>
@@ -65930,7 +65930,7 @@
         <v>214</v>
       </c>
       <c r="B153" s="2">
-        <v>41275</v>
+        <v>41183</v>
       </c>
       <c r="C153" s="1">
         <v>0</v>
@@ -65944,7 +65944,7 @@
         <v>214</v>
       </c>
       <c r="B154" s="2">
-        <v>41365</v>
+        <v>41275</v>
       </c>
       <c r="C154" s="1">
         <v>0</v>
@@ -65958,7 +65958,7 @@
         <v>214</v>
       </c>
       <c r="B155" s="2">
-        <v>41456</v>
+        <v>41365</v>
       </c>
       <c r="C155" s="1">
         <v>0</v>
@@ -65972,7 +65972,7 @@
         <v>214</v>
       </c>
       <c r="B156" s="2">
-        <v>41548</v>
+        <v>41456</v>
       </c>
       <c r="C156" s="1">
         <v>0</v>
@@ -65986,7 +65986,7 @@
         <v>214</v>
       </c>
       <c r="B157" s="2">
-        <v>41640</v>
+        <v>41548</v>
       </c>
       <c r="C157" s="1">
         <v>0</v>
@@ -66000,7 +66000,7 @@
         <v>214</v>
       </c>
       <c r="B158" s="2">
-        <v>41730</v>
+        <v>41640</v>
       </c>
       <c r="C158" s="1">
         <v>0</v>
@@ -66014,7 +66014,7 @@
         <v>214</v>
       </c>
       <c r="B159" s="2">
-        <v>41821</v>
+        <v>41730</v>
       </c>
       <c r="C159" s="1">
         <v>0</v>
@@ -66028,7 +66028,7 @@
         <v>214</v>
       </c>
       <c r="B160" s="2">
-        <v>41913</v>
+        <v>41821</v>
       </c>
       <c r="C160" s="1">
         <v>0</v>
@@ -66042,7 +66042,7 @@
         <v>214</v>
       </c>
       <c r="B161" s="2">
-        <v>42005</v>
+        <v>41913</v>
       </c>
       <c r="C161" s="1">
         <v>0</v>
@@ -66056,7 +66056,7 @@
         <v>214</v>
       </c>
       <c r="B162" s="2">
-        <v>42095</v>
+        <v>42005</v>
       </c>
       <c r="C162" s="1">
         <v>0</v>
@@ -66070,7 +66070,7 @@
         <v>214</v>
       </c>
       <c r="B163" s="2">
-        <v>42186</v>
+        <v>42095</v>
       </c>
       <c r="C163" s="1">
         <v>0</v>
@@ -66084,7 +66084,7 @@
         <v>214</v>
       </c>
       <c r="B164" s="2">
-        <v>42278</v>
+        <v>42186</v>
       </c>
       <c r="C164" s="1">
         <v>0</v>
@@ -66098,10 +66098,10 @@
         <v>214</v>
       </c>
       <c r="B165" s="2">
-        <v>42370</v>
+        <v>42278</v>
       </c>
       <c r="C165" s="1">
-        <v>0.61121135999999998</v>
+        <v>0</v>
       </c>
       <c r="D165" t="s">
         <v>234</v>
@@ -66112,10 +66112,10 @@
         <v>214</v>
       </c>
       <c r="B166" s="2">
-        <v>42461</v>
+        <v>42370</v>
       </c>
       <c r="C166" s="1">
-        <v>0</v>
+        <v>0.61121135999999998</v>
       </c>
       <c r="D166" t="s">
         <v>234</v>
@@ -66126,7 +66126,7 @@
         <v>214</v>
       </c>
       <c r="B167" s="2">
-        <v>42552</v>
+        <v>42461</v>
       </c>
       <c r="C167" s="1">
         <v>0</v>
@@ -66140,7 +66140,7 @@
         <v>214</v>
       </c>
       <c r="B168" s="2">
-        <v>42644</v>
+        <v>42552</v>
       </c>
       <c r="C168" s="1">
         <v>0</v>
@@ -66154,7 +66154,7 @@
         <v>214</v>
       </c>
       <c r="B169" s="2">
-        <v>42736</v>
+        <v>42644</v>
       </c>
       <c r="C169" s="1">
         <v>0</v>
@@ -66168,7 +66168,7 @@
         <v>214</v>
       </c>
       <c r="B170" s="2">
-        <v>42826</v>
+        <v>42736</v>
       </c>
       <c r="C170" s="1">
         <v>0</v>
@@ -66182,7 +66182,7 @@
         <v>214</v>
       </c>
       <c r="B171" s="2">
-        <v>42917</v>
+        <v>42826</v>
       </c>
       <c r="C171" s="1">
         <v>0</v>
@@ -66196,7 +66196,7 @@
         <v>214</v>
       </c>
       <c r="B172" s="2">
-        <v>43009</v>
+        <v>42917</v>
       </c>
       <c r="C172" s="1">
         <v>0</v>
@@ -66210,7 +66210,7 @@
         <v>214</v>
       </c>
       <c r="B173" s="2">
-        <v>43101</v>
+        <v>43009</v>
       </c>
       <c r="C173" s="1">
         <v>0</v>
@@ -66224,7 +66224,7 @@
         <v>214</v>
       </c>
       <c r="B174" s="2">
-        <v>43191</v>
+        <v>43101</v>
       </c>
       <c r="C174" s="1">
         <v>0</v>
@@ -66238,7 +66238,7 @@
         <v>214</v>
       </c>
       <c r="B175" s="2">
-        <v>43282</v>
+        <v>43191</v>
       </c>
       <c r="C175" s="1">
         <v>0</v>
@@ -66252,7 +66252,7 @@
         <v>214</v>
       </c>
       <c r="B176" s="2">
-        <v>43374</v>
+        <v>43282</v>
       </c>
       <c r="C176" s="1">
         <v>0</v>
@@ -66266,7 +66266,7 @@
         <v>214</v>
       </c>
       <c r="B177" s="2">
-        <v>43466</v>
+        <v>43374</v>
       </c>
       <c r="C177" s="1">
         <v>0</v>
@@ -66280,7 +66280,7 @@
         <v>214</v>
       </c>
       <c r="B178" s="2">
-        <v>43556</v>
+        <v>43466</v>
       </c>
       <c r="C178" s="1">
         <v>0</v>
@@ -66294,7 +66294,7 @@
         <v>214</v>
       </c>
       <c r="B179" s="2">
-        <v>43647</v>
+        <v>43556</v>
       </c>
       <c r="C179" s="1">
         <v>0</v>
@@ -66308,7 +66308,7 @@
         <v>214</v>
       </c>
       <c r="B180" s="2">
-        <v>43739</v>
+        <v>43647</v>
       </c>
       <c r="C180" s="1">
         <v>0</v>
@@ -66322,7 +66322,7 @@
         <v>214</v>
       </c>
       <c r="B181" s="2">
-        <v>43831</v>
+        <v>43739</v>
       </c>
       <c r="C181" s="1">
         <v>0</v>
@@ -66336,12 +66336,40 @@
         <v>214</v>
       </c>
       <c r="B182" s="2">
-        <v>43922</v>
+        <v>43831</v>
       </c>
       <c r="C182" s="1">
         <v>0</v>
       </c>
       <c r="D182" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>214</v>
+      </c>
+      <c r="B183" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C183" s="1">
+        <v>0</v>
+      </c>
+      <c r="D183" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>214</v>
+      </c>
+      <c r="B184" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C184" s="1">
+        <v>0</v>
+      </c>
+      <c r="D184" t="s">
         <v>234</v>
       </c>
     </row>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9757" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9758" uniqueCount="236">
   <si>
     <t>Sección</t>
   </si>
@@ -63405,7 +63405,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -64011,6 +64011,17 @@
       </c>
       <c r="C55" s="1">
         <v>10071</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B56" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" s="1">
+        <v>6015</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9601" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9688" uniqueCount="246">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/12/2021</t>
+    <t xml:space="preserve"> 02/14/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -763,6 +763,12 @@
   <si>
     <t>(sum) c</t>
   </si>
+  <si>
+    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
 </sst>
 </file>
 
@@ -66951,8 +66957,8 @@
       <c r="D2" s="4">
         <v>1.8647880000000001</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="3">
@@ -66968,8 +66974,8 @@
       <c r="D3" s="4">
         <v>6.3323</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="4">
@@ -66985,8 +66991,8 @@
       <c r="D4" s="4">
         <v>0.88144599999999995</v>
       </c>
-      <c r="E4" s="4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="5">
@@ -67002,8 +67008,8 @@
       <c r="D5" s="4">
         <v>7.9705779999999997</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="6">
@@ -67019,8 +67025,8 @@
       <c r="D6" s="4">
         <v>9.9512909999999994</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
+      <c r="E6" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="7">
@@ -67036,8 +67042,8 @@
       <c r="D7" s="4">
         <v>4.0929969999999996</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
+      <c r="E7" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="8">
@@ -67053,8 +67059,8 @@
       <c r="D8" s="4">
         <v>5.0257550000000002</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
+      <c r="E8" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="9">
@@ -67070,8 +67076,8 @@
       <c r="D9" s="4">
         <v>36.499832000000005</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
+      <c r="E9" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="10">
@@ -67087,8 +67093,8 @@
       <c r="D10" s="4">
         <v>3.2223809999999999</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
+      <c r="E10" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="11">
@@ -67104,8 +67110,8 @@
       <c r="D11" s="4">
         <v>3.1597689999999998</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
+      <c r="E11" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="12">
@@ -67121,8 +67127,8 @@
       <c r="D12" s="4">
         <v>10.741318</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
+      <c r="E12" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="13">
@@ -67138,8 +67144,8 @@
       <c r="D13" s="4">
         <v>10.570994000000001</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
+      <c r="E13" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="14">
@@ -67155,8 +67161,8 @@
       <c r="D14" s="4">
         <v>20.958390999999999</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
+      <c r="E14" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="15">
@@ -67172,8 +67178,8 @@
       <c r="D15" s="4">
         <v>14.212596000000001</v>
       </c>
-      <c r="E15" s="4">
-        <v>0</v>
+      <c r="E15" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="16">
@@ -67189,8 +67195,8 @@
       <c r="D16" s="4">
         <v>8.3149080000000009</v>
       </c>
-      <c r="E16" s="4">
-        <v>0</v>
+      <c r="E16" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="17">
@@ -67206,8 +67212,8 @@
       <c r="D17" s="4">
         <v>10.442649000000001</v>
       </c>
-      <c r="E17" s="4">
-        <v>0</v>
+      <c r="E17" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="18">
@@ -67223,8 +67229,8 @@
       <c r="D18" s="4">
         <v>12.814825000000001</v>
       </c>
-      <c r="E18" s="4">
-        <v>0</v>
+      <c r="E18" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="19">
@@ -67240,8 +67246,8 @@
       <c r="D19" s="4">
         <v>0</v>
       </c>
-      <c r="E19" s="4">
-        <v>2</v>
+      <c r="E19" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="20">
@@ -67257,8 +67263,8 @@
       <c r="D20" s="4">
         <v>13.039013000000001</v>
       </c>
-      <c r="E20" s="4">
-        <v>1</v>
+      <c r="E20" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="21">
@@ -67274,8 +67280,8 @@
       <c r="D21" s="4">
         <v>1.955627</v>
       </c>
-      <c r="E21" s="4">
-        <v>0</v>
+      <c r="E21" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="22">
@@ -67291,8 +67297,8 @@
       <c r="D22" s="4">
         <v>0</v>
       </c>
-      <c r="E22" s="4">
-        <v>1</v>
+      <c r="E22" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="23">
@@ -67308,8 +67314,8 @@
       <c r="D23" s="4">
         <v>0</v>
       </c>
-      <c r="E23" s="4">
-        <v>2</v>
+      <c r="E23" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="24">
@@ -67325,8 +67331,8 @@
       <c r="D24" s="4">
         <v>0.63998299999999997</v>
       </c>
-      <c r="E24" s="4">
-        <v>1</v>
+      <c r="E24" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="25">
@@ -67342,8 +67348,8 @@
       <c r="D25" s="4">
         <v>-9.9165720000000004</v>
       </c>
-      <c r="E25" s="4">
-        <v>1</v>
+      <c r="E25" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="26">
@@ -67359,8 +67365,8 @@
       <c r="D26" s="4">
         <v>0</v>
       </c>
-      <c r="E26" s="4">
-        <v>2</v>
+      <c r="E26" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="27">
@@ -67376,8 +67382,8 @@
       <c r="D27" s="4">
         <v>0.38894899999999999</v>
       </c>
-      <c r="E27" s="4">
-        <v>1</v>
+      <c r="E27" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="28">
@@ -67393,8 +67399,8 @@
       <c r="D28" s="4">
         <v>0</v>
       </c>
-      <c r="E28" s="4">
-        <v>2</v>
+      <c r="E28" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="29">
@@ -67410,8 +67416,8 @@
       <c r="D29" s="4">
         <v>0</v>
       </c>
-      <c r="E29" s="4">
-        <v>2</v>
+      <c r="E29" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="30">
@@ -67427,8 +67433,8 @@
       <c r="D30" s="4">
         <v>0</v>
       </c>
-      <c r="E30" s="4">
-        <v>2</v>
+      <c r="E30" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="31">
@@ -67444,8 +67450,8 @@
       <c r="D31" s="4">
         <v>1.7387809999999999</v>
       </c>
-      <c r="E31" s="4">
-        <v>0</v>
+      <c r="E31" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="32">
@@ -67461,8 +67467,8 @@
       <c r="D32" s="4">
         <v>0</v>
       </c>
-      <c r="E32" s="4">
-        <v>2</v>
+      <c r="E32" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="33">
@@ -67478,8 +67484,8 @@
       <c r="D33" s="4">
         <v>0</v>
       </c>
-      <c r="E33" s="4">
-        <v>2</v>
+      <c r="E33" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="34">
@@ -67495,8 +67501,8 @@
       <c r="D34" s="4">
         <v>0.69270100000000001</v>
       </c>
-      <c r="E34" s="4">
-        <v>1</v>
+      <c r="E34" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="35">
@@ -67512,8 +67518,8 @@
       <c r="D35" s="4">
         <v>-0.90290000000000004</v>
       </c>
-      <c r="E35" s="4">
-        <v>1</v>
+      <c r="E35" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="36">
@@ -67529,8 +67535,8 @@
       <c r="D36" s="4">
         <v>0</v>
       </c>
-      <c r="E36" s="4">
-        <v>2</v>
+      <c r="E36" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="37">
@@ -67546,8 +67552,8 @@
       <c r="D37" s="4">
         <v>0</v>
       </c>
-      <c r="E37" s="4">
-        <v>1</v>
+      <c r="E37" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="38">
@@ -67563,8 +67569,8 @@
       <c r="D38" s="4">
         <v>0</v>
       </c>
-      <c r="E38" s="4">
-        <v>1</v>
+      <c r="E38" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="39">
@@ -67580,8 +67586,8 @@
       <c r="D39" s="4">
         <v>0</v>
       </c>
-      <c r="E39" s="4">
-        <v>1</v>
+      <c r="E39" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="40">
@@ -67597,8 +67603,8 @@
       <c r="D40" s="4">
         <v>0</v>
       </c>
-      <c r="E40" s="4">
-        <v>1</v>
+      <c r="E40" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="41">
@@ -67614,8 +67620,8 @@
       <c r="D41" s="4">
         <v>0</v>
       </c>
-      <c r="E41" s="4">
-        <v>1</v>
+      <c r="E41" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="42">
@@ -67631,8 +67637,8 @@
       <c r="D42" s="4">
         <v>0</v>
       </c>
-      <c r="E42" s="4">
-        <v>1</v>
+      <c r="E42" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="43">
@@ -67648,8 +67654,8 @@
       <c r="D43" s="4">
         <v>0</v>
       </c>
-      <c r="E43" s="4">
-        <v>1</v>
+      <c r="E43" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="44">
@@ -67665,8 +67671,8 @@
       <c r="D44" s="4">
         <v>0</v>
       </c>
-      <c r="E44" s="4">
-        <v>1</v>
+      <c r="E44" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="45">
@@ -67682,8 +67688,8 @@
       <c r="D45" s="4">
         <v>0</v>
       </c>
-      <c r="E45" s="4">
-        <v>2</v>
+      <c r="E45" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="46">
@@ -67699,8 +67705,8 @@
       <c r="D46" s="4">
         <v>0</v>
       </c>
-      <c r="E46" s="4">
-        <v>1</v>
+      <c r="E46" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="47">
@@ -67716,8 +67722,8 @@
       <c r="D47" s="4">
         <v>0</v>
       </c>
-      <c r="E47" s="4">
-        <v>2</v>
+      <c r="E47" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="48">
@@ -67733,8 +67739,8 @@
       <c r="D48" s="4">
         <v>0</v>
       </c>
-      <c r="E48" s="4">
-        <v>1</v>
+      <c r="E48" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="49">
@@ -67750,8 +67756,8 @@
       <c r="D49" s="4">
         <v>0</v>
       </c>
-      <c r="E49" s="4">
-        <v>1</v>
+      <c r="E49" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="50">
@@ -67767,8 +67773,8 @@
       <c r="D50" s="4">
         <v>0</v>
       </c>
-      <c r="E50" s="4">
-        <v>1</v>
+      <c r="E50" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="51">
@@ -67784,8 +67790,8 @@
       <c r="D51" s="4">
         <v>0</v>
       </c>
-      <c r="E51" s="4">
-        <v>1</v>
+      <c r="E51" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="52">
@@ -67801,8 +67807,8 @@
       <c r="D52" s="4">
         <v>0</v>
       </c>
-      <c r="E52" s="4">
-        <v>0</v>
+      <c r="E52" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="53">
@@ -67818,8 +67824,8 @@
       <c r="D53" s="4">
         <v>0</v>
       </c>
-      <c r="E53" s="4">
-        <v>1</v>
+      <c r="E53" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="54">
@@ -67835,8 +67841,8 @@
       <c r="D54" s="4">
         <v>0</v>
       </c>
-      <c r="E54" s="4">
-        <v>0</v>
+      <c r="E54" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="55">
@@ -67852,8 +67858,8 @@
       <c r="D55" s="4">
         <v>0</v>
       </c>
-      <c r="E55" s="4">
-        <v>0</v>
+      <c r="E55" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="56">
@@ -67869,8 +67875,8 @@
       <c r="D56" s="4">
         <v>0</v>
       </c>
-      <c r="E56" s="4">
-        <v>1</v>
+      <c r="E56" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="57">
@@ -67886,8 +67892,8 @@
       <c r="D57" s="4">
         <v>0</v>
       </c>
-      <c r="E57" s="4">
-        <v>0</v>
+      <c r="E57" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="58">
@@ -67903,8 +67909,8 @@
       <c r="D58" s="4">
         <v>0</v>
       </c>
-      <c r="E58" s="4">
-        <v>1</v>
+      <c r="E58" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="59">
@@ -67920,8 +67926,8 @@
       <c r="D59" s="4">
         <v>0</v>
       </c>
-      <c r="E59" s="4">
-        <v>1</v>
+      <c r="E59" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="60">
@@ -67937,8 +67943,8 @@
       <c r="D60" s="4">
         <v>0</v>
       </c>
-      <c r="E60" s="4">
-        <v>0</v>
+      <c r="E60" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="61">
@@ -67954,8 +67960,8 @@
       <c r="D61" s="4">
         <v>0</v>
       </c>
-      <c r="E61" s="4">
-        <v>0</v>
+      <c r="E61" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="62">
@@ -67971,8 +67977,8 @@
       <c r="D62" s="4">
         <v>0</v>
       </c>
-      <c r="E62" s="4">
-        <v>1</v>
+      <c r="E62" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="63">
@@ -67988,8 +67994,8 @@
       <c r="D63" s="4">
         <v>0</v>
       </c>
-      <c r="E63" s="4">
-        <v>0</v>
+      <c r="E63" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="64">
@@ -68005,8 +68011,8 @@
       <c r="D64" s="4">
         <v>0</v>
       </c>
-      <c r="E64" s="4">
-        <v>0</v>
+      <c r="E64" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="65">
@@ -68022,8 +68028,8 @@
       <c r="D65" s="4">
         <v>0</v>
       </c>
-      <c r="E65" s="4">
-        <v>0</v>
+      <c r="E65" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="66">
@@ -68039,8 +68045,8 @@
       <c r="D66" s="4">
         <v>0</v>
       </c>
-      <c r="E66" s="4">
-        <v>1</v>
+      <c r="E66" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="67">
@@ -68056,8 +68062,8 @@
       <c r="D67" s="4">
         <v>0</v>
       </c>
-      <c r="E67" s="4">
-        <v>0</v>
+      <c r="E67" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="68">
@@ -68073,8 +68079,8 @@
       <c r="D68" s="4">
         <v>0</v>
       </c>
-      <c r="E68" s="4">
-        <v>0</v>
+      <c r="E68" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="69">
@@ -68090,8 +68096,8 @@
       <c r="D69" s="4">
         <v>0</v>
       </c>
-      <c r="E69" s="4">
-        <v>0</v>
+      <c r="E69" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="70">
@@ -68107,8 +68113,8 @@
       <c r="D70" s="4">
         <v>0.61121135999999998</v>
       </c>
-      <c r="E70" s="4">
-        <v>0</v>
+      <c r="E70" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="71">
@@ -68124,8 +68130,8 @@
       <c r="D71" s="4">
         <v>0</v>
       </c>
-      <c r="E71" s="4">
-        <v>1</v>
+      <c r="E71" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="72">
@@ -68141,8 +68147,8 @@
       <c r="D72" s="4">
         <v>0</v>
       </c>
-      <c r="E72" s="4">
-        <v>1</v>
+      <c r="E72" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="73">
@@ -68158,8 +68164,8 @@
       <c r="D73" s="4">
         <v>0</v>
       </c>
-      <c r="E73" s="4">
-        <v>1</v>
+      <c r="E73" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="74">
@@ -68175,8 +68181,8 @@
       <c r="D74" s="4">
         <v>0</v>
       </c>
-      <c r="E74" s="4">
-        <v>1</v>
+      <c r="E74" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="75">
@@ -68192,8 +68198,8 @@
       <c r="D75" s="4">
         <v>0</v>
       </c>
-      <c r="E75" s="4">
-        <v>0</v>
+      <c r="E75" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="76">
@@ -68209,8 +68215,8 @@
       <c r="D76" s="4">
         <v>0</v>
       </c>
-      <c r="E76" s="4">
-        <v>0</v>
+      <c r="E76" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="77">
@@ -68226,8 +68232,8 @@
       <c r="D77" s="4">
         <v>0</v>
       </c>
-      <c r="E77" s="4">
-        <v>1</v>
+      <c r="E77" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="78">
@@ -68243,8 +68249,8 @@
       <c r="D78" s="4">
         <v>0</v>
       </c>
-      <c r="E78" s="4">
-        <v>0</v>
+      <c r="E78" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="79">
@@ -68260,8 +68266,8 @@
       <c r="D79" s="4">
         <v>0</v>
       </c>
-      <c r="E79" s="4">
-        <v>0</v>
+      <c r="E79" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="80">
@@ -68277,8 +68283,8 @@
       <c r="D80" s="4">
         <v>0</v>
       </c>
-      <c r="E80" s="4">
-        <v>0</v>
+      <c r="E80" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="81">
@@ -68294,8 +68300,8 @@
       <c r="D81" s="4">
         <v>0</v>
       </c>
-      <c r="E81" s="4">
-        <v>0</v>
+      <c r="E81" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="82">
@@ -68311,8 +68317,8 @@
       <c r="D82" s="4">
         <v>0</v>
       </c>
-      <c r="E82" s="4">
-        <v>1</v>
+      <c r="E82" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="83">
@@ -68328,8 +68334,8 @@
       <c r="D83" s="4">
         <v>0</v>
       </c>
-      <c r="E83" s="4">
-        <v>1</v>
+      <c r="E83" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="84">
@@ -68345,8 +68351,8 @@
       <c r="D84" s="4">
         <v>0</v>
       </c>
-      <c r="E84" s="4">
-        <v>1</v>
+      <c r="E84" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="85">
@@ -68362,8 +68368,8 @@
       <c r="D85" s="4">
         <v>0</v>
       </c>
-      <c r="E85" s="4">
-        <v>1</v>
+      <c r="E85" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="86">
@@ -68379,8 +68385,8 @@
       <c r="D86" s="4">
         <v>0</v>
       </c>
-      <c r="E86" s="4">
-        <v>1</v>
+      <c r="E86" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="87">
@@ -68396,8 +68402,8 @@
       <c r="D87" s="4">
         <v>0</v>
       </c>
-      <c r="E87" s="4">
-        <v>0</v>
+      <c r="E87" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="88">
@@ -68413,8 +68419,8 @@
       <c r="D88" s="4">
         <v>0</v>
       </c>
-      <c r="E88" s="4">
-        <v>0</v>
+      <c r="E88" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/14/2021</t>
+    <t xml:space="preserve"> 02/15/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9712" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9714" uniqueCount="245">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/18/2021</t>
+    <t xml:space="preserve"> 02/19/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -746,13 +746,13 @@
     <t>Miles de pesos</t>
   </si>
   <si>
-    <t>parcial</t>
+    <t>Nota</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>C</t>
+    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
   </si>
   <si>
     <t>Inversión extranjera directa, cifras preliminares</t>
@@ -762,9 +762,6 @@
   </si>
   <si>
     <t>(sum) c</t>
-  </si>
-  <si>
-    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
   </si>
   <si>
     <t>2</t>
@@ -67060,7 +67057,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E89"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -67162,7 +67159,7 @@
         <v>9.9512909999999994</v>
       </c>
       <c r="E6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7">
@@ -67247,7 +67244,7 @@
         <v>3.1597689999999998</v>
       </c>
       <c r="E11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12">
@@ -67281,7 +67278,7 @@
         <v>10.570994000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
@@ -67298,7 +67295,7 @@
         <v>20.958390999999999</v>
       </c>
       <c r="E14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15">
@@ -67383,7 +67380,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20">
@@ -67400,7 +67397,7 @@
         <v>13.039013000000001</v>
       </c>
       <c r="E20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21">
@@ -67434,7 +67431,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
@@ -67451,7 +67448,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24">
@@ -67468,7 +67465,7 @@
         <v>0.63998299999999997</v>
       </c>
       <c r="E24" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
@@ -67485,7 +67482,7 @@
         <v>-9.9165720000000004</v>
       </c>
       <c r="E25" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26">
@@ -67502,7 +67499,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27">
@@ -67519,7 +67516,7 @@
         <v>0.38894899999999999</v>
       </c>
       <c r="E27" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
@@ -67536,7 +67533,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29">
@@ -67553,7 +67550,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30">
@@ -67570,7 +67567,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31">
@@ -67604,7 +67601,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33">
@@ -67621,7 +67618,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34">
@@ -67638,7 +67635,7 @@
         <v>0.69270100000000001</v>
       </c>
       <c r="E34" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35">
@@ -67655,7 +67652,7 @@
         <v>-0.90290000000000004</v>
       </c>
       <c r="E35" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36">
@@ -67672,7 +67669,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37">
@@ -67689,7 +67686,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38">
@@ -67706,7 +67703,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39">
@@ -67723,7 +67720,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40">
@@ -67740,7 +67737,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41">
@@ -67757,7 +67754,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42">
@@ -67774,7 +67771,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43">
@@ -67791,7 +67788,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44">
@@ -67808,7 +67805,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45">
@@ -67825,7 +67822,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46">
@@ -67842,7 +67839,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47">
@@ -67859,7 +67856,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48">
@@ -67876,7 +67873,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49">
@@ -67893,7 +67890,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50">
@@ -67910,7 +67907,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51">
@@ -67927,7 +67924,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52">
@@ -67961,7 +67958,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54">
@@ -68012,7 +68009,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57">
@@ -68046,7 +68043,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59">
@@ -68063,7 +68060,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60">
@@ -68114,7 +68111,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63">
@@ -68182,7 +68179,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67">
@@ -68267,7 +68264,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72">
@@ -68284,7 +68281,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73">
@@ -68301,7 +68298,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74">
@@ -68318,7 +68315,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75">
@@ -68369,7 +68366,7 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78">
@@ -68454,7 +68451,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83">
@@ -68471,7 +68468,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84">
@@ -68488,7 +68485,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85">
@@ -68505,7 +68502,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86">
@@ -68522,7 +68519,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87">
@@ -68556,6 +68553,23 @@
         <v>0</v>
       </c>
       <c r="E88" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>220</v>
+      </c>
+      <c r="B89" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C89" s="4">
+        <v>0</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
         <v>239</v>
       </c>
     </row>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9714" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9714" uniqueCount="243">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/19/2021</t>
+    <t xml:space="preserve"> 03/08/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -760,12 +760,6 @@
   <si>
     <t>Inversión extranjera directa, cifras revisadas</t>
   </si>
-  <si>
-    <t>(sum) c</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
 </sst>
 </file>
 
@@ -67074,7 +67068,7 @@
         <v>242</v>
       </c>
       <c r="E1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2">
@@ -67380,7 +67374,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20">
@@ -67448,7 +67442,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24">
@@ -67499,7 +67493,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27">
@@ -67533,7 +67527,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29">
@@ -67550,7 +67544,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30">
@@ -67567,7 +67561,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31">
@@ -67601,7 +67595,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33">
@@ -67618,7 +67612,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34">
@@ -67669,7 +67663,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37">
@@ -67822,7 +67816,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46">
@@ -67856,7 +67850,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48">

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/16/2021</t>
+    <t xml:space="preserve"> 03/22/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9747" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9749" uniqueCount="243">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/22/2021</t>
+    <t xml:space="preserve"> 04/08/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -66463,7 +66463,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D57"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -67248,6 +67248,20 @@
       </c>
       <c r="D56" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5">
+        <v>44105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>220</v>
+      </c>
+      <c r="C57" s="4">
+        <v>5436</v>
+      </c>
+      <c r="D57" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 04/08/2021</t>
+    <t xml:space="preserve"> 04/12/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/13/2021</t>
+    <t xml:space="preserve"> 05/17/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9815" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9817" uniqueCount="243">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/18/2021</t>
+    <t xml:space="preserve"> 05/21/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -67680,7 +67680,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E90"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -69196,6 +69196,23 @@
         <v>239</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>220</v>
+      </c>
+      <c r="B90" s="5">
+        <v>44197</v>
+      </c>
+      <c r="C90" s="4">
+        <v>0</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>239</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9843" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9845" uniqueCount="243">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 06/21/2021</t>
+    <t xml:space="preserve"> 06/30/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -67028,7 +67028,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -67827,6 +67827,20 @@
       </c>
       <c r="D57" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5">
+        <v>44197</v>
+      </c>
+      <c r="B58" t="s">
+        <v>220</v>
+      </c>
+      <c r="C58" s="4">
+        <v>5031</v>
+      </c>
+      <c r="D58" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 06/30/2021</t>
+    <t xml:space="preserve"> 07/08/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -1687,13 +1687,13 @@
         <v>2018</v>
       </c>
       <c r="D17" s="4">
-        <v>1208080.7709999999</v>
+        <v>1208076.0220000001</v>
       </c>
       <c r="E17" s="4">
         <v>5820.2920000000004</v>
       </c>
       <c r="F17" s="4">
-        <v>0.0048178003819911814</v>
+        <v>0.0048178193209764738</v>
       </c>
     </row>
     <row r="18">
@@ -1707,13 +1707,13 @@
         <v>2019</v>
       </c>
       <c r="D18" s="4">
-        <v>1216771.2960000001</v>
+        <v>1217549.8500000001</v>
       </c>
       <c r="E18" s="4">
-        <v>5331.25</v>
+        <v>5284.1460000000006</v>
       </c>
       <c r="F18" s="4">
-        <v>0.0043814725228363697</v>
+        <v>0.0043399832869266096</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9887" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9889" uniqueCount="243">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08/12/2021</t>
+    <t xml:space="preserve"> 08/17/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -68123,7 +68123,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E91"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -69636,7 +69636,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90">
@@ -69654,6 +69654,23 @@
       </c>
       <c r="E90" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>220</v>
+      </c>
+      <c r="B91" s="5">
+        <v>44287</v>
+      </c>
+      <c r="C91" s="4">
+        <v>0</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08/18/2021</t>
+    <t xml:space="preserve"> 08/24/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9946" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9948" uniqueCount="243">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 09/17/2021</t>
+    <t xml:space="preserve"> 09/30/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -67643,7 +67643,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -68455,6 +68455,20 @@
         <v>5031</v>
       </c>
       <c r="D58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5">
+        <v>44287</v>
+      </c>
+      <c r="B59" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" s="4">
+        <v>10523</v>
+      </c>
+      <c r="D59" t="s">
         <v>239</v>
       </c>
     </row>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 09/30/2021</t>
+    <t xml:space="preserve"> 10/06/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10014" uniqueCount="1687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10016" uniqueCount="1688">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 11/19/2021</t>
+    <t xml:space="preserve"> 11/22/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -5091,6 +5091,9 @@
   </si>
   <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -73220,7 +73223,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E92"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -74770,6 +74773,23 @@
         <v>1686</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B92" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C92" s="4">
+        <v>0</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1687</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10051" uniqueCount="1687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10053" uniqueCount="1688">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 12/17/2021</t>
+    <t xml:space="preserve"> 01/04/2022</t>
   </si>
   <si>
     <t>Sección</t>
@@ -4905,6 +4905,9 @@
   </si>
   <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -60001,7 +60004,7 @@
         <v>1552</v>
       </c>
       <c r="D108" s="4">
-        <v>199.49066162109375</v>
+        <v>199.49066213921901</v>
       </c>
       <c r="E108" t="s">
         <v>1562</v>
@@ -60018,7 +60021,7 @@
         <v>1552</v>
       </c>
       <c r="D109" s="4">
-        <v>189.19482421875</v>
+        <v>189.19482686691697</v>
       </c>
       <c r="E109" t="s">
         <v>1562</v>
@@ -60035,7 +60038,7 @@
         <v>1552</v>
       </c>
       <c r="D110" s="4">
-        <v>182.93717956542969</v>
+        <v>182.93718166383701</v>
       </c>
       <c r="E110" t="s">
         <v>1562</v>
@@ -60052,7 +60055,7 @@
         <v>1552</v>
       </c>
       <c r="D111" s="4">
-        <v>201.6680908203125</v>
+        <v>201.66809238665527</v>
       </c>
       <c r="E111" t="s">
         <v>1562</v>
@@ -60069,7 +60072,7 @@
         <v>1552</v>
       </c>
       <c r="D112" s="4">
-        <v>197.47166442871094</v>
+        <v>197.47166521360069</v>
       </c>
       <c r="E112" t="s">
         <v>1562</v>
@@ -60086,7 +60089,7 @@
         <v>1552</v>
       </c>
       <c r="D113" s="4">
-        <v>195.270263671875</v>
+        <v>195.27027027027026</v>
       </c>
       <c r="E113" t="s">
         <v>1562</v>
@@ -60103,7 +60106,7 @@
         <v>1552</v>
       </c>
       <c r="D114" s="4">
-        <v>203.86604309082031</v>
+        <v>203.86603731175546</v>
       </c>
       <c r="E114" t="s">
         <v>1562</v>
@@ -60120,7 +60123,7 @@
         <v>1552</v>
       </c>
       <c r="D115" s="4">
-        <v>203.48448181152344</v>
+        <v>203.48447621174893</v>
       </c>
       <c r="E115" t="s">
         <v>1562</v>
@@ -60137,7 +60140,7 @@
         <v>1552</v>
       </c>
       <c r="D116" s="4">
-        <v>196.15773010253906</v>
+        <v>196.1577350859454</v>
       </c>
       <c r="E116" t="s">
         <v>1562</v>
@@ -60154,7 +60157,7 @@
         <v>1552</v>
       </c>
       <c r="D117" s="4">
-        <v>207.70677185058594</v>
+        <v>207.70676691729324</v>
       </c>
       <c r="E117" t="s">
         <v>1562</v>
@@ -60171,7 +60174,7 @@
         <v>1552</v>
       </c>
       <c r="D118" s="4">
-        <v>188.38710021972656</v>
+        <v>188.38709677419354</v>
       </c>
       <c r="E118" t="s">
         <v>1562</v>
@@ -60188,7 +60191,7 @@
         <v>1552</v>
       </c>
       <c r="D119" s="4">
-        <v>162.4195556640625</v>
+        <v>162.41956241956242</v>
       </c>
       <c r="E119" t="s">
         <v>1562</v>
@@ -60205,7 +60208,7 @@
         <v>1552</v>
       </c>
       <c r="D120" s="4">
-        <v>198.81838989257813</v>
+        <v>198.81839198561519</v>
       </c>
       <c r="E120" t="s">
         <v>1562</v>
@@ -60222,7 +60225,7 @@
         <v>1552</v>
       </c>
       <c r="D121" s="4">
-        <v>190.42608642578125</v>
+        <v>190.42609153077328</v>
       </c>
       <c r="E121" t="s">
         <v>1562</v>
@@ -60239,7 +60242,7 @@
         <v>1552</v>
       </c>
       <c r="D122" s="4">
-        <v>196.23234558105469</v>
+        <v>196.23233908948194</v>
       </c>
       <c r="E122" t="s">
         <v>1562</v>
@@ -60256,7 +60259,7 @@
         <v>1552</v>
       </c>
       <c r="D123" s="4">
-        <v>197.36495971679688</v>
+        <v>197.36495388669303</v>
       </c>
       <c r="E123" t="s">
         <v>1562</v>
@@ -60273,7 +60276,7 @@
         <v>1552</v>
       </c>
       <c r="D124" s="4">
-        <v>201.23519897460938</v>
+        <v>201.23520329387546</v>
       </c>
       <c r="E124" t="s">
         <v>1562</v>
@@ -60290,7 +60293,7 @@
         <v>1552</v>
       </c>
       <c r="D125" s="4">
-        <v>201.0076904296875</v>
+        <v>201.00769026783345</v>
       </c>
       <c r="E125" t="s">
         <v>1562</v>
@@ -60307,7 +60310,7 @@
         <v>1552</v>
       </c>
       <c r="D126" s="4">
-        <v>206.82522583007813</v>
+        <v>206.82523267838675</v>
       </c>
       <c r="E126" t="s">
         <v>1562</v>
@@ -60324,7 +60327,7 @@
         <v>1552</v>
       </c>
       <c r="D127" s="4">
-        <v>197.71665954589844</v>
+        <v>197.71665801764399</v>
       </c>
       <c r="E127" t="s">
         <v>1562</v>
@@ -60341,7 +60344,7 @@
         <v>1552</v>
       </c>
       <c r="D128" s="4">
-        <v>196.55172729492188</v>
+        <v>196.55172413793105</v>
       </c>
       <c r="E128" t="s">
         <v>1562</v>
@@ -60358,7 +60361,7 @@
         <v>1552</v>
       </c>
       <c r="D129" s="4">
-        <v>206.87004089355469</v>
+        <v>206.87003332478852</v>
       </c>
       <c r="E129" t="s">
         <v>1562</v>
@@ -60375,7 +60378,7 @@
         <v>1552</v>
       </c>
       <c r="D130" s="4">
-        <v>190.64747619628906</v>
+        <v>190.64748201438849</v>
       </c>
       <c r="E130" t="s">
         <v>1562</v>
@@ -60392,7 +60395,7 @@
         <v>1552</v>
       </c>
       <c r="D131" s="4">
-        <v>171.75083923339844</v>
+        <v>171.75083311971289</v>
       </c>
       <c r="E131" t="s">
         <v>1562</v>
@@ -60409,7 +60412,7 @@
         <v>1552</v>
       </c>
       <c r="D132" s="4">
-        <v>197.27716064453125</v>
+        <v>197.27716414076548</v>
       </c>
       <c r="E132" t="s">
         <v>1562</v>
@@ -60426,7 +60429,7 @@
         <v>1552</v>
       </c>
       <c r="D133" s="4">
-        <v>186.440673828125</v>
+        <v>186.4406779661017</v>
       </c>
       <c r="E133" t="s">
         <v>1562</v>
@@ -60443,7 +60446,7 @@
         <v>1552</v>
       </c>
       <c r="D134" s="4">
-        <v>195.41709899902344</v>
+        <v>195.41709577754892</v>
       </c>
       <c r="E134" t="s">
         <v>1562</v>
@@ -60460,7 +60463,7 @@
         <v>1552</v>
       </c>
       <c r="D135" s="4">
-        <v>188.840087890625</v>
+        <v>188.84009299922499</v>
       </c>
       <c r="E135" t="s">
         <v>1562</v>
@@ -60477,7 +60480,7 @@
         <v>1552</v>
       </c>
       <c r="D136" s="4">
-        <v>198.64794921875</v>
+        <v>198.64794591783672</v>
       </c>
       <c r="E136" t="s">
         <v>1562</v>
@@ -60494,7 +60497,7 @@
         <v>1552</v>
       </c>
       <c r="D137" s="4">
-        <v>206.79585266113281</v>
+        <v>206.79585877355987</v>
       </c>
       <c r="E137" t="s">
         <v>1562</v>
@@ -60511,7 +60514,7 @@
         <v>1552</v>
       </c>
       <c r="D138" s="4">
-        <v>208.23245239257813</v>
+        <v>208.23244552058111</v>
       </c>
       <c r="E138" t="s">
         <v>1562</v>
@@ -60528,7 +60531,7 @@
         <v>1552</v>
       </c>
       <c r="D139" s="4">
-        <v>200.96592712402344</v>
+        <v>200.96592433592701</v>
       </c>
       <c r="E139" t="s">
         <v>1562</v>
@@ -60545,7 +60548,7 @@
         <v>1552</v>
       </c>
       <c r="D140" s="4">
-        <v>200.27360534667969</v>
+        <v>200.27359781121751</v>
       </c>
       <c r="E140" t="s">
         <v>1562</v>
@@ -60562,7 +60565,7 @@
         <v>1552</v>
       </c>
       <c r="D141" s="4">
-        <v>204.45893859863281</v>
+        <v>204.45894507884719</v>
       </c>
       <c r="E141" t="s">
         <v>1562</v>
@@ -60579,7 +60582,7 @@
         <v>1552</v>
       </c>
       <c r="D142" s="4">
-        <v>191.97630310058594</v>
+        <v>191.97630586968228</v>
       </c>
       <c r="E142" t="s">
         <v>1562</v>
@@ -60596,7 +60599,7 @@
         <v>1552</v>
       </c>
       <c r="D143" s="4">
-        <v>179.41096496582031</v>
+        <v>179.41097000810592</v>
       </c>
       <c r="E143" t="s">
         <v>1562</v>
@@ -60613,7 +60616,7 @@
         <v>1552</v>
       </c>
       <c r="D144" s="4">
-        <v>186.60929870605469</v>
+        <v>186.60930357623016</v>
       </c>
       <c r="E144" t="s">
         <v>1562</v>
@@ -60630,7 +60633,7 @@
         <v>1552</v>
       </c>
       <c r="D145" s="4">
-        <v>194.39251708984375</v>
+        <v>194.39252336448598</v>
       </c>
       <c r="E145" t="s">
         <v>1562</v>
@@ -60647,7 +60650,7 @@
         <v>1552</v>
       </c>
       <c r="D146" s="4">
-        <v>191.61515808105469</v>
+        <v>191.61515721580221</v>
       </c>
       <c r="E146" t="s">
         <v>1562</v>
@@ -60664,7 +60667,7 @@
         <v>1552</v>
       </c>
       <c r="D147" s="4">
-        <v>196.96147155761719</v>
+        <v>196.9614758545849</v>
       </c>
       <c r="E147" t="s">
         <v>1562</v>
@@ -60681,7 +60684,7 @@
         <v>1552</v>
       </c>
       <c r="D148" s="4">
-        <v>200.54273986816406</v>
+        <v>200.5427408412483</v>
       </c>
       <c r="E148" t="s">
         <v>1562</v>
@@ -60698,7 +60701,7 @@
         <v>1552</v>
       </c>
       <c r="D149" s="4">
-        <v>201.03233337402344</v>
+        <v>201.03232817169248</v>
       </c>
       <c r="E149" t="s">
         <v>1562</v>
@@ -60715,7 +60718,7 @@
         <v>1552</v>
       </c>
       <c r="D150" s="4">
-        <v>197.70849609375</v>
+        <v>197.70849986677325</v>
       </c>
       <c r="E150" t="s">
         <v>1562</v>
@@ -60732,7 +60735,7 @@
         <v>1552</v>
       </c>
       <c r="D151" s="4">
-        <v>209.63401794433594</v>
+        <v>209.63401506996772</v>
       </c>
       <c r="E151" t="s">
         <v>1562</v>
@@ -60749,7 +60752,7 @@
         <v>1552</v>
       </c>
       <c r="D152" s="4">
-        <v>200.05271911621094</v>
+        <v>200.0527148128624</v>
       </c>
       <c r="E152" t="s">
         <v>1562</v>
@@ -60766,7 +60769,7 @@
         <v>1552</v>
       </c>
       <c r="D153" s="4">
-        <v>199.57481384277344</v>
+        <v>199.57480733457348</v>
       </c>
       <c r="E153" t="s">
         <v>1562</v>
@@ -60783,7 +60786,7 @@
         <v>1552</v>
       </c>
       <c r="D154" s="4">
-        <v>199.78285217285156</v>
+        <v>199.7828447339848</v>
       </c>
       <c r="E154" t="s">
         <v>1562</v>
@@ -60800,7 +60803,7 @@
         <v>1552</v>
       </c>
       <c r="D155" s="4">
-        <v>188.35893249511719</v>
+        <v>188.35893290218269</v>
       </c>
       <c r="E155" t="s">
         <v>1562</v>
@@ -60817,7 +60820,7 @@
         <v>1552</v>
       </c>
       <c r="D156" s="4">
-        <v>198.79682922363281</v>
+        <v>198.79682800109379</v>
       </c>
       <c r="E156" t="s">
         <v>1562</v>
@@ -60834,7 +60837,7 @@
         <v>1552</v>
       </c>
       <c r="D157" s="4">
-        <v>184.94271850585938</v>
+        <v>184.94271685761046</v>
       </c>
       <c r="E157" t="s">
         <v>1562</v>
@@ -60851,7 +60854,7 @@
         <v>1552</v>
       </c>
       <c r="D158" s="4">
-        <v>198.64314270019531</v>
+        <v>198.64314789687924</v>
       </c>
       <c r="E158" t="s">
         <v>1562</v>
@@ -60868,7 +60871,7 @@
         <v>1552</v>
       </c>
       <c r="D159" s="4">
-        <v>187.62089538574219</v>
+        <v>187.62088974854933</v>
       </c>
       <c r="E159" t="s">
         <v>1562</v>
@@ -60885,7 +60888,7 @@
         <v>1552</v>
       </c>
       <c r="D160" s="4">
-        <v>201.60176086425781</v>
+        <v>201.60176746755039</v>
       </c>
       <c r="E160" t="s">
         <v>1562</v>
@@ -60902,7 +60905,7 @@
         <v>1552</v>
       </c>
       <c r="D161" s="4">
-        <v>203.36180114746094</v>
+        <v>203.36180766051254</v>
       </c>
       <c r="E161" t="s">
         <v>1562</v>
@@ -60919,7 +60922,7 @@
         <v>1552</v>
       </c>
       <c r="D162" s="4">
-        <v>199.07028198242188</v>
+        <v>199.07027618266338</v>
       </c>
       <c r="E162" t="s">
         <v>1562</v>
@@ -60936,7 +60939,7 @@
         <v>1552</v>
       </c>
       <c r="D163" s="4">
-        <v>208.99542236328125</v>
+        <v>208.99542149205493</v>
       </c>
       <c r="E163" t="s">
         <v>1562</v>
@@ -60953,7 +60956,7 @@
         <v>1552</v>
       </c>
       <c r="D164" s="4">
-        <v>202.65151977539063</v>
+        <v>202.65151515151516</v>
       </c>
       <c r="E164" t="s">
         <v>1562</v>
@@ -60970,7 +60973,7 @@
         <v>1552</v>
       </c>
       <c r="D165" s="4">
-        <v>206.96434020996094</v>
+        <v>206.96433586071328</v>
       </c>
       <c r="E165" t="s">
         <v>1562</v>
@@ -61004,7 +61007,7 @@
         <v>1552</v>
       </c>
       <c r="D167" s="4">
-        <v>180.30433654785156</v>
+        <v>180.30433534309503</v>
       </c>
       <c r="E167" t="s">
         <v>1562</v>
@@ -61021,7 +61024,7 @@
         <v>1552</v>
       </c>
       <c r="D168" s="4">
-        <v>201.6009521484375</v>
+        <v>201.60094871034687</v>
       </c>
       <c r="E168" t="s">
         <v>1562</v>
@@ -61038,7 +61041,7 @@
         <v>1552</v>
       </c>
       <c r="D169" s="4">
-        <v>188.14509582519531</v>
+        <v>188.14508994396934</v>
       </c>
       <c r="E169" t="s">
         <v>1562</v>
@@ -61055,7 +61058,7 @@
         <v>1552</v>
       </c>
       <c r="D170" s="4">
-        <v>197.52714538574219</v>
+        <v>197.52714113389627</v>
       </c>
       <c r="E170" t="s">
         <v>1562</v>
@@ -61072,7 +61075,7 @@
         <v>1552</v>
       </c>
       <c r="D171" s="4">
-        <v>199.82052612304688</v>
+        <v>199.82052049057734</v>
       </c>
       <c r="E171" t="s">
         <v>1562</v>
@@ -61089,7 +61092,7 @@
         <v>1552</v>
       </c>
       <c r="D172" s="4">
-        <v>209.37973022460938</v>
+        <v>209.37972768532526</v>
       </c>
       <c r="E172" t="s">
         <v>1562</v>
@@ -61106,7 +61109,7 @@
         <v>1552</v>
       </c>
       <c r="D173" s="4">
-        <v>201.7464599609375</v>
+        <v>201.74646190906353</v>
       </c>
       <c r="E173" t="s">
         <v>1562</v>
@@ -61123,7 +61126,7 @@
         <v>1552</v>
       </c>
       <c r="D174" s="4">
-        <v>201.61289978027344</v>
+        <v>201.61290322580646</v>
       </c>
       <c r="E174" t="s">
         <v>1562</v>
@@ -61140,7 +61143,7 @@
         <v>1552</v>
       </c>
       <c r="D175" s="4">
-        <v>208.272216796875</v>
+        <v>208.27222059254913</v>
       </c>
       <c r="E175" t="s">
         <v>1562</v>
@@ -61157,7 +61160,7 @@
         <v>1552</v>
       </c>
       <c r="D176" s="4">
-        <v>193.62387084960938</v>
+        <v>193.62386662766892</v>
       </c>
       <c r="E176" t="s">
         <v>1562</v>
@@ -61174,7 +61177,7 @@
         <v>1552</v>
       </c>
       <c r="D177" s="4">
-        <v>205.96755981445313</v>
+        <v>205.96755504055619</v>
       </c>
       <c r="E177" t="s">
         <v>1562</v>
@@ -61191,7 +61194,7 @@
         <v>1552</v>
       </c>
       <c r="D178" s="4">
-        <v>198.83889770507813</v>
+        <v>198.83889695210451</v>
       </c>
       <c r="E178" t="s">
         <v>1562</v>
@@ -61208,7 +61211,7 @@
         <v>1552</v>
       </c>
       <c r="D179" s="4">
-        <v>193.96051025390625</v>
+        <v>193.96051103368177</v>
       </c>
       <c r="E179" t="s">
         <v>1562</v>
@@ -61225,7 +61228,7 @@
         <v>1552</v>
       </c>
       <c r="D180" s="4">
-        <v>201.45138549804688</v>
+        <v>201.45137880986937</v>
       </c>
       <c r="E180" t="s">
         <v>1562</v>
@@ -61242,7 +61245,7 @@
         <v>1552</v>
       </c>
       <c r="D181" s="4">
-        <v>189.70420837402344</v>
+        <v>189.7042093287827</v>
       </c>
       <c r="E181" t="s">
         <v>1562</v>
@@ -61259,7 +61262,7 @@
         <v>1552</v>
       </c>
       <c r="D182" s="4">
-        <v>207.14700317382813</v>
+        <v>207.14700755374781</v>
       </c>
       <c r="E182" t="s">
         <v>1562</v>
@@ -61276,7 +61279,7 @@
         <v>1552</v>
       </c>
       <c r="D183" s="4">
-        <v>197.919677734375</v>
+        <v>197.91967639410575</v>
       </c>
       <c r="E183" t="s">
         <v>1562</v>
@@ -61293,7 +61296,7 @@
         <v>1552</v>
       </c>
       <c r="D184" s="4">
-        <v>206.25553894042969</v>
+        <v>206.25553260548836</v>
       </c>
       <c r="E184" t="s">
         <v>1562</v>
@@ -61310,7 +61313,7 @@
         <v>1552</v>
       </c>
       <c r="D185" s="4">
-        <v>198.15805053710938</v>
+        <v>198.15805109922758</v>
       </c>
       <c r="E185" t="s">
         <v>1562</v>
@@ -61327,7 +61330,7 @@
         <v>1552</v>
       </c>
       <c r="D186" s="4">
-        <v>198.67947387695313</v>
+        <v>198.67947178871549</v>
       </c>
       <c r="E186" t="s">
         <v>1562</v>
@@ -61344,7 +61347,7 @@
         <v>1552</v>
       </c>
       <c r="D187" s="4">
-        <v>213.86079406738281</v>
+        <v>213.86079714455681</v>
       </c>
       <c r="E187" t="s">
         <v>1562</v>
@@ -61361,7 +61364,7 @@
         <v>1552</v>
       </c>
       <c r="D188" s="4">
-        <v>194.43621826171875</v>
+        <v>194.43622373483279</v>
       </c>
       <c r="E188" t="s">
         <v>1562</v>
@@ -61378,7 +61381,7 @@
         <v>1552</v>
       </c>
       <c r="D189" s="4">
-        <v>205.37031555175781</v>
+        <v>205.37031572735322</v>
       </c>
       <c r="E189" t="s">
         <v>1562</v>
@@ -61395,7 +61398,7 @@
         <v>1552</v>
       </c>
       <c r="D190" s="4">
-        <v>200.11772155761719</v>
+        <v>200.11771630370805</v>
       </c>
       <c r="E190" t="s">
         <v>1562</v>
@@ -61412,7 +61415,7 @@
         <v>1552</v>
       </c>
       <c r="D191" s="4">
-        <v>178.849609375</v>
+        <v>178.84961054523666</v>
       </c>
       <c r="E191" t="s">
         <v>1562</v>
@@ -61429,7 +61432,7 @@
         <v>1552</v>
       </c>
       <c r="D192" s="4">
-        <v>204.16792297363281</v>
+        <v>204.16792509815767</v>
       </c>
       <c r="E192" t="s">
         <v>1562</v>
@@ -61446,7 +61449,7 @@
         <v>1552</v>
       </c>
       <c r="D193" s="4">
-        <v>191.39915466308594</v>
+        <v>191.39915202907329</v>
       </c>
       <c r="E193" t="s">
         <v>1562</v>
@@ -61463,7 +61466,7 @@
         <v>1552</v>
       </c>
       <c r="D194" s="4">
-        <v>188.8544921875</v>
+        <v>188.85448916408669</v>
       </c>
       <c r="E194" t="s">
         <v>1562</v>
@@ -61480,7 +61483,7 @@
         <v>1552</v>
       </c>
       <c r="D195" s="4">
-        <v>69.715385437011719</v>
+        <v>69.715382155420528</v>
       </c>
       <c r="E195" t="s">
         <v>1562</v>
@@ -61497,7 +61500,7 @@
         <v>1552</v>
       </c>
       <c r="D196" s="4">
-        <v>122.41602325439453</v>
+        <v>122.41602067183463</v>
       </c>
       <c r="E196" t="s">
         <v>1562</v>
@@ -61514,7 +61517,7 @@
         <v>1552</v>
       </c>
       <c r="D197" s="4">
-        <v>176.96537780761719</v>
+        <v>176.96538337107731</v>
       </c>
       <c r="E197" t="s">
         <v>1562</v>
@@ -61531,7 +61534,7 @@
         <v>1552</v>
       </c>
       <c r="D198" s="4">
-        <v>200.52253723144531</v>
+        <v>200.52253429131287</v>
       </c>
       <c r="E198" t="s">
         <v>1562</v>
@@ -61548,7 +61551,7 @@
         <v>1552</v>
       </c>
       <c r="D199" s="4">
-        <v>188.56767272949219</v>
+        <v>188.56767411300919</v>
       </c>
       <c r="E199" t="s">
         <v>1562</v>
@@ -61565,7 +61568,7 @@
         <v>1552</v>
       </c>
       <c r="D200" s="4">
-        <v>188.85552978515625</v>
+        <v>188.85552218885553</v>
       </c>
       <c r="E200" t="s">
         <v>1562</v>
@@ -61582,7 +61585,7 @@
         <v>1552</v>
       </c>
       <c r="D201" s="4">
-        <v>207.70243835449219</v>
+        <v>207.7024358130349</v>
       </c>
       <c r="E201" t="s">
         <v>1562</v>
@@ -61599,7 +61602,7 @@
         <v>1552</v>
       </c>
       <c r="D202" s="4">
-        <v>188.92939758300781</v>
+        <v>188.92940006629101</v>
       </c>
       <c r="E202" t="s">
         <v>1562</v>
@@ -61616,7 +61619,7 @@
         <v>1552</v>
       </c>
       <c r="D203" s="4">
-        <v>164.50216674804688</v>
+        <v>164.5021645021645</v>
       </c>
       <c r="E203" t="s">
         <v>1562</v>
@@ -61633,7 +61636,7 @@
         <v>1552</v>
       </c>
       <c r="D204" s="4">
-        <v>167.6646728515625</v>
+        <v>167.66467065868264</v>
       </c>
       <c r="E204" t="s">
         <v>1562</v>
@@ -61650,7 +61653,7 @@
         <v>1552</v>
       </c>
       <c r="D205" s="4">
-        <v>180.72691345214844</v>
+        <v>180.72690896965656</v>
       </c>
       <c r="E205" t="s">
         <v>1562</v>
@@ -61667,7 +61670,7 @@
         <v>1552</v>
       </c>
       <c r="D206" s="4">
-        <v>188.76177978515625</v>
+        <v>188.76177658142666</v>
       </c>
       <c r="E206" t="s">
         <v>1562</v>
@@ -61684,7 +61687,7 @@
         <v>1552</v>
       </c>
       <c r="D207" s="4">
-        <v>189.32875061035156</v>
+        <v>189.32874354561102</v>
       </c>
       <c r="E207" t="s">
         <v>1562</v>
@@ -61701,7 +61704,7 @@
         <v>1552</v>
       </c>
       <c r="D208" s="4">
-        <v>201.763671875</v>
+        <v>201.76366843033509</v>
       </c>
       <c r="E208" t="s">
         <v>1562</v>
@@ -61718,7 +61721,7 @@
         <v>1552</v>
       </c>
       <c r="D209" s="4">
-        <v>191.88713073730469</v>
+        <v>191.88712522045856</v>
       </c>
       <c r="E209" t="s">
         <v>1562</v>
@@ -61735,7 +61738,7 @@
         <v>1552</v>
       </c>
       <c r="D210" s="4">
-        <v>199.71672058105469</v>
+        <v>199.71671388101984</v>
       </c>
       <c r="E210" t="s">
         <v>1562</v>
@@ -61752,7 +61755,7 @@
         <v>1552</v>
       </c>
       <c r="D211" s="4">
-        <v>199.06910705566406</v>
+        <v>199.06910132474042</v>
       </c>
       <c r="E211" t="s">
         <v>1562</v>
@@ -61769,7 +61772,7 @@
         <v>1552</v>
       </c>
       <c r="D212" s="4">
-        <v>195.19094848632813</v>
+        <v>195.1909476661952</v>
       </c>
       <c r="E212" t="s">
         <v>1562</v>
@@ -61786,7 +61789,7 @@
         <v>1552</v>
       </c>
       <c r="D213" s="4">
-        <v>204.51339721679688</v>
+        <v>204.51339915373765</v>
       </c>
       <c r="E213" t="s">
         <v>1562</v>
@@ -65407,7 +65410,7 @@
         <v>1555</v>
       </c>
       <c r="D426" s="4">
-        <v>155.69125366210938</v>
+        <v>155.69126117472973</v>
       </c>
       <c r="E426" t="s">
         <v>1565</v>
@@ -65424,7 +65427,7 @@
         <v>1555</v>
       </c>
       <c r="D427" s="4">
-        <v>164.4476318359375</v>
+        <v>164.44763554896923</v>
       </c>
       <c r="E427" t="s">
         <v>1565</v>
@@ -65441,7 +65444,7 @@
         <v>1555</v>
       </c>
       <c r="D428" s="4">
-        <v>166.45927429199219</v>
+        <v>166.45926788846529</v>
       </c>
       <c r="E428" t="s">
         <v>1565</v>
@@ -65458,7 +65461,7 @@
         <v>1555</v>
       </c>
       <c r="D429" s="4">
-        <v>150.23643493652344</v>
+        <v>150.23643088259681</v>
       </c>
       <c r="E429" t="s">
         <v>1565</v>
@@ -65475,7 +65478,7 @@
         <v>1555</v>
       </c>
       <c r="D430" s="4">
-        <v>182.03207397460938</v>
+        <v>182.03208093895063</v>
       </c>
       <c r="E430" t="s">
         <v>1565</v>
@@ -65492,7 +65495,7 @@
         <v>1555</v>
       </c>
       <c r="D431" s="4">
-        <v>162.04220581054688</v>
+        <v>162.04220913188453</v>
       </c>
       <c r="E431" t="s">
         <v>1565</v>
@@ -65509,7 +65512,7 @@
         <v>1555</v>
       </c>
       <c r="D432" s="4">
-        <v>170.36334228515625</v>
+        <v>170.36334714755085</v>
       </c>
       <c r="E432" t="s">
         <v>1565</v>
@@ -65526,7 +65529,7 @@
         <v>1555</v>
       </c>
       <c r="D433" s="4">
-        <v>149.81990051269531</v>
+        <v>149.81989791932122</v>
       </c>
       <c r="E433" t="s">
         <v>1565</v>
@@ -65543,7 +65546,7 @@
         <v>1555</v>
       </c>
       <c r="D434" s="4">
-        <v>182.66192626953125</v>
+        <v>182.66193313245864</v>
       </c>
       <c r="E434" t="s">
         <v>1565</v>
@@ -65560,7 +65563,7 @@
         <v>1555</v>
       </c>
       <c r="D435" s="4">
-        <v>159.49295043945313</v>
+        <v>159.49295314820495</v>
       </c>
       <c r="E435" t="s">
         <v>1565</v>
@@ -65577,7 +65580,7 @@
         <v>1555</v>
       </c>
       <c r="D436" s="4">
-        <v>197.54959106445313</v>
+        <v>197.54959867380273</v>
       </c>
       <c r="E436" t="s">
         <v>1565</v>
@@ -65594,7 +65597,7 @@
         <v>1555</v>
       </c>
       <c r="D437" s="4">
-        <v>233.69709777832031</v>
+        <v>233.69710460257369</v>
       </c>
       <c r="E437" t="s">
         <v>1565</v>
@@ -65611,7 +65614,7 @@
         <v>1555</v>
       </c>
       <c r="D438" s="4">
-        <v>221.84266662597656</v>
+        <v>221.84266943794319</v>
       </c>
       <c r="E438" t="s">
         <v>1565</v>
@@ -65628,7 +65631,7 @@
         <v>1555</v>
       </c>
       <c r="D439" s="4">
-        <v>245.2177734375</v>
+        <v>245.21776649616015</v>
       </c>
       <c r="E439" t="s">
         <v>1565</v>
@@ -65645,7 +65648,7 @@
         <v>1555</v>
       </c>
       <c r="D440" s="4">
-        <v>188.38668823242188</v>
+        <v>188.38668463709701</v>
       </c>
       <c r="E440" t="s">
         <v>1565</v>
@@ -65662,7 +65665,7 @@
         <v>1555</v>
       </c>
       <c r="D441" s="4">
-        <v>250.97990417480469</v>
+        <v>250.97990115227483</v>
       </c>
       <c r="E441" t="s">
         <v>1565</v>
@@ -65679,7 +65682,7 @@
         <v>1555</v>
       </c>
       <c r="D442" s="4">
-        <v>183.68647766113281</v>
+        <v>183.68647794515203</v>
       </c>
       <c r="E442" t="s">
         <v>1565</v>
@@ -65696,7 +65699,7 @@
         <v>1555</v>
       </c>
       <c r="D443" s="4">
-        <v>184.46664428710938</v>
+        <v>184.46663845799711</v>
       </c>
       <c r="E443" t="s">
         <v>1565</v>
@@ -65713,7 +65716,7 @@
         <v>1555</v>
       </c>
       <c r="D444" s="4">
-        <v>176.1177978515625</v>
+        <v>176.11779384440251</v>
       </c>
       <c r="E444" t="s">
         <v>1565</v>
@@ -65730,7 +65733,7 @@
         <v>1555</v>
       </c>
       <c r="D445" s="4">
-        <v>196.9427490234375</v>
+        <v>196.94274949325953</v>
       </c>
       <c r="E445" t="s">
         <v>1565</v>
@@ -65747,7 +65750,7 @@
         <v>1555</v>
       </c>
       <c r="D446" s="4">
-        <v>187.73593139648438</v>
+        <v>187.73592405306701</v>
       </c>
       <c r="E446" t="s">
         <v>1565</v>
@@ -65764,7 +65767,7 @@
         <v>1555</v>
       </c>
       <c r="D447" s="4">
-        <v>205.64524841308594</v>
+        <v>205.64524622864948</v>
       </c>
       <c r="E447" t="s">
         <v>1565</v>
@@ -65781,7 +65784,7 @@
         <v>1555</v>
       </c>
       <c r="D448" s="4">
-        <v>218.32926940917969</v>
+        <v>218.32926437264766</v>
       </c>
       <c r="E448" t="s">
         <v>1565</v>
@@ -65798,7 +65801,7 @@
         <v>1555</v>
       </c>
       <c r="D449" s="4">
-        <v>246.40715026855469</v>
+        <v>246.40715663835806</v>
       </c>
       <c r="E449" t="s">
         <v>1565</v>
@@ -65815,7 +65818,7 @@
         <v>1555</v>
       </c>
       <c r="D450" s="4">
-        <v>227.84326171875</v>
+        <v>227.84325711013062</v>
       </c>
       <c r="E450" t="s">
         <v>1565</v>
@@ -65832,7 +65835,7 @@
         <v>1555</v>
       </c>
       <c r="D451" s="4">
-        <v>225.57505798339844</v>
+        <v>225.5750521968863</v>
       </c>
       <c r="E451" t="s">
         <v>1565</v>
@@ -65849,7 +65852,7 @@
         <v>1555</v>
       </c>
       <c r="D452" s="4">
-        <v>210.92045593261719</v>
+        <v>210.92046033429494</v>
       </c>
       <c r="E452" t="s">
         <v>1565</v>
@@ -65866,7 +65869,7 @@
         <v>1555</v>
       </c>
       <c r="D453" s="4">
-        <v>223.58456420898438</v>
+        <v>223.5845586675587</v>
       </c>
       <c r="E453" t="s">
         <v>1565</v>
@@ -65883,7 +65886,7 @@
         <v>1555</v>
       </c>
       <c r="D454" s="4">
-        <v>202.12684631347656</v>
+        <v>202.12684373200872</v>
       </c>
       <c r="E454" t="s">
         <v>1565</v>
@@ -65900,7 +65903,7 @@
         <v>1555</v>
       </c>
       <c r="D455" s="4">
-        <v>192.08641052246094</v>
+        <v>192.08640430959892</v>
       </c>
       <c r="E455" t="s">
         <v>1565</v>
@@ -65917,7 +65920,7 @@
         <v>1555</v>
       </c>
       <c r="D456" s="4">
-        <v>175.61918640136719</v>
+        <v>175.61918075009848</v>
       </c>
       <c r="E456" t="s">
         <v>1565</v>
@@ -65934,7 +65937,7 @@
         <v>1555</v>
       </c>
       <c r="D457" s="4">
-        <v>224.41751098632813</v>
+        <v>224.41751336835165</v>
       </c>
       <c r="E457" t="s">
         <v>1565</v>
@@ -65951,7 +65954,7 @@
         <v>1555</v>
       </c>
       <c r="D458" s="4">
-        <v>202.69973754882813</v>
+        <v>202.69973192164287</v>
       </c>
       <c r="E458" t="s">
         <v>1565</v>
@@ -65968,7 +65971,7 @@
         <v>1555</v>
       </c>
       <c r="D459" s="4">
-        <v>214.43949890136719</v>
+        <v>214.4395045501702</v>
       </c>
       <c r="E459" t="s">
         <v>1565</v>
@@ -65985,7 +65988,7 @@
         <v>1555</v>
       </c>
       <c r="D460" s="4">
-        <v>194.80235290527344</v>
+        <v>194.80234954095849</v>
       </c>
       <c r="E460" t="s">
         <v>1565</v>
@@ -66002,7 +66005,7 @@
         <v>1555</v>
       </c>
       <c r="D461" s="4">
-        <v>213.83380126953125</v>
+        <v>213.83380847328965</v>
       </c>
       <c r="E461" t="s">
         <v>1565</v>
@@ -66019,7 +66022,7 @@
         <v>1555</v>
       </c>
       <c r="D462" s="4">
-        <v>196.04939270019531</v>
+        <v>196.04940020428754</v>
       </c>
       <c r="E462" t="s">
         <v>1565</v>
@@ -66036,7 +66039,7 @@
         <v>1555</v>
       </c>
       <c r="D463" s="4">
-        <v>233.0621337890625</v>
+        <v>233.0621327918216</v>
       </c>
       <c r="E463" t="s">
         <v>1565</v>
@@ -66053,7 +66056,7 @@
         <v>1555</v>
       </c>
       <c r="D464" s="4">
-        <v>209.989501953125</v>
+        <v>209.98950606387223</v>
       </c>
       <c r="E464" t="s">
         <v>1565</v>
@@ -66070,7 +66073,7 @@
         <v>1555</v>
       </c>
       <c r="D465" s="4">
-        <v>200.7904052734375</v>
+        <v>200.79041013346904</v>
       </c>
       <c r="E465" t="s">
         <v>1565</v>
@@ -66087,7 +66090,7 @@
         <v>1555</v>
       </c>
       <c r="D466" s="4">
-        <v>196.10356140136719</v>
+        <v>196.1035638249046</v>
       </c>
       <c r="E466" t="s">
         <v>1565</v>
@@ -66104,7 +66107,7 @@
         <v>1555</v>
       </c>
       <c r="D467" s="4">
-        <v>213.40475463867188</v>
+        <v>213.40475009250429</v>
       </c>
       <c r="E467" t="s">
         <v>1565</v>
@@ -66121,7 +66124,7 @@
         <v>1555</v>
       </c>
       <c r="D468" s="4">
-        <v>234.25115966796875</v>
+        <v>234.25115414518211</v>
       </c>
       <c r="E468" t="s">
         <v>1565</v>
@@ -66138,7 +66141,7 @@
         <v>1555</v>
       </c>
       <c r="D469" s="4">
-        <v>167.63949584960938</v>
+        <v>167.63949393770486</v>
       </c>
       <c r="E469" t="s">
         <v>1565</v>
@@ -66155,7 +66158,7 @@
         <v>1555</v>
       </c>
       <c r="D470" s="4">
-        <v>167.14527893066406</v>
+        <v>167.14527259892787</v>
       </c>
       <c r="E470" t="s">
         <v>1565</v>
@@ -66172,7 +66175,7 @@
         <v>1555</v>
       </c>
       <c r="D471" s="4">
-        <v>231.40837097167969</v>
+        <v>231.4083664315431</v>
       </c>
       <c r="E471" t="s">
         <v>1565</v>
@@ -66189,7 +66192,7 @@
         <v>1555</v>
       </c>
       <c r="D472" s="4">
-        <v>299.94952392578125</v>
+        <v>299.94952751348671</v>
       </c>
       <c r="E472" t="s">
         <v>1565</v>
@@ -66206,7 +66209,7 @@
         <v>1555</v>
       </c>
       <c r="D473" s="4">
-        <v>206.49127197265625</v>
+        <v>206.49127456448358</v>
       </c>
       <c r="E473" t="s">
         <v>1565</v>
@@ -66223,7 +66226,7 @@
         <v>1555</v>
       </c>
       <c r="D474" s="4">
-        <v>198.4771728515625</v>
+        <v>198.477179369243</v>
       </c>
       <c r="E474" t="s">
         <v>1565</v>
@@ -66240,7 +66243,7 @@
         <v>1555</v>
       </c>
       <c r="D475" s="4">
-        <v>176.6561279296875</v>
+        <v>176.65612715160245</v>
       </c>
       <c r="E475" t="s">
         <v>1565</v>
@@ -66257,7 +66260,7 @@
         <v>1555</v>
       </c>
       <c r="D476" s="4">
-        <v>167.38937377929688</v>
+        <v>167.38937374305101</v>
       </c>
       <c r="E476" t="s">
         <v>1565</v>
@@ -66274,7 +66277,7 @@
         <v>1555</v>
       </c>
       <c r="D477" s="4">
-        <v>178.40538024902344</v>
+        <v>178.40538763894412</v>
       </c>
       <c r="E477" t="s">
         <v>1565</v>
@@ -66291,7 +66294,7 @@
         <v>1555</v>
       </c>
       <c r="D478" s="4">
-        <v>217.27496337890625</v>
+        <v>217.27495741200238</v>
       </c>
       <c r="E478" t="s">
         <v>1565</v>
@@ -66308,7 +66311,7 @@
         <v>1555</v>
       </c>
       <c r="D479" s="4">
-        <v>239.89793395996094</v>
+        <v>239.8979281274537</v>
       </c>
       <c r="E479" t="s">
         <v>1565</v>
@@ -66325,7 +66328,7 @@
         <v>1555</v>
       </c>
       <c r="D480" s="4">
-        <v>218.83670043945313</v>
+        <v>218.83670066910202</v>
       </c>
       <c r="E480" t="s">
         <v>1565</v>
@@ -66342,7 +66345,7 @@
         <v>1555</v>
       </c>
       <c r="D481" s="4">
-        <v>179.93136596679688</v>
+        <v>179.93136803175801</v>
       </c>
       <c r="E481" t="s">
         <v>1565</v>
@@ -66359,7 +66362,7 @@
         <v>1555</v>
       </c>
       <c r="D482" s="4">
-        <v>190.07852172851563</v>
+        <v>190.0785210323159</v>
       </c>
       <c r="E482" t="s">
         <v>1565</v>
@@ -66376,7 +66379,7 @@
         <v>1555</v>
       </c>
       <c r="D483" s="4">
-        <v>217.11911010742188</v>
+        <v>217.11910666404273</v>
       </c>
       <c r="E483" t="s">
         <v>1565</v>
@@ -66393,7 +66396,7 @@
         <v>1555</v>
       </c>
       <c r="D484" s="4">
-        <v>257.73141479492188</v>
+        <v>257.73142313914252</v>
       </c>
       <c r="E484" t="s">
         <v>1565</v>
@@ -66410,7 +66413,7 @@
         <v>1555</v>
       </c>
       <c r="D485" s="4">
-        <v>220.63958740234375</v>
+        <v>220.63958098905172</v>
       </c>
       <c r="E485" t="s">
         <v>1565</v>
@@ -66427,7 +66430,7 @@
         <v>1555</v>
       </c>
       <c r="D486" s="4">
-        <v>252.62091064453125</v>
+        <v>252.62091090996682</v>
       </c>
       <c r="E486" t="s">
         <v>1565</v>
@@ -66444,7 +66447,7 @@
         <v>1555</v>
       </c>
       <c r="D487" s="4">
-        <v>239.69590759277344</v>
+        <v>239.6959138614186</v>
       </c>
       <c r="E487" t="s">
         <v>1565</v>
@@ -66461,7 +66464,7 @@
         <v>1555</v>
       </c>
       <c r="D488" s="4">
-        <v>227.4346923828125</v>
+        <v>227.4346953757863</v>
       </c>
       <c r="E488" t="s">
         <v>1565</v>
@@ -66478,7 +66481,7 @@
         <v>1555</v>
       </c>
       <c r="D489" s="4">
-        <v>234.89805603027344</v>
+        <v>234.89805772861678</v>
       </c>
       <c r="E489" t="s">
         <v>1565</v>
@@ -66495,7 +66498,7 @@
         <v>1555</v>
       </c>
       <c r="D490" s="4">
-        <v>193.98953247070313</v>
+        <v>193.98953444552478</v>
       </c>
       <c r="E490" t="s">
         <v>1565</v>
@@ -66512,7 +66515,7 @@
         <v>1555</v>
       </c>
       <c r="D491" s="4">
-        <v>255.05288696289063</v>
+        <v>255.05288717645837</v>
       </c>
       <c r="E491" t="s">
         <v>1565</v>
@@ -66529,7 +66532,7 @@
         <v>1555</v>
       </c>
       <c r="D492" s="4">
-        <v>266.04440307617188</v>
+        <v>266.04440898016998</v>
       </c>
       <c r="E492" t="s">
         <v>1565</v>
@@ -66546,7 +66549,7 @@
         <v>1555</v>
       </c>
       <c r="D493" s="4">
-        <v>216.79048156738281</v>
+        <v>216.79048541312486</v>
       </c>
       <c r="E493" t="s">
         <v>1565</v>
@@ -66563,7 +66566,7 @@
         <v>1555</v>
       </c>
       <c r="D494" s="4">
-        <v>219.8046875</v>
+        <v>219.80468971313076</v>
       </c>
       <c r="E494" t="s">
         <v>1565</v>
@@ -66580,7 +66583,7 @@
         <v>1555</v>
       </c>
       <c r="D495" s="4">
-        <v>212.38688659667969</v>
+        <v>212.38689409702837</v>
       </c>
       <c r="E495" t="s">
         <v>1565</v>
@@ -66597,7 +66600,7 @@
         <v>1555</v>
       </c>
       <c r="D496" s="4">
-        <v>211.62130737304688</v>
+        <v>211.62131226751734</v>
       </c>
       <c r="E496" t="s">
         <v>1565</v>
@@ -66614,7 +66617,7 @@
         <v>1555</v>
       </c>
       <c r="D497" s="4">
-        <v>200.84649658203125</v>
+        <v>200.84649690698183</v>
       </c>
       <c r="E497" t="s">
         <v>1565</v>
@@ -66631,7 +66634,7 @@
         <v>1555</v>
       </c>
       <c r="D498" s="4">
-        <v>211.7379150390625</v>
+        <v>211.7379080561831</v>
       </c>
       <c r="E498" t="s">
         <v>1565</v>
@@ -66648,7 +66651,7 @@
         <v>1555</v>
       </c>
       <c r="D499" s="4">
-        <v>190.2333984375</v>
+        <v>190.23339649822688</v>
       </c>
       <c r="E499" t="s">
         <v>1565</v>
@@ -66665,7 +66668,7 @@
         <v>1555</v>
       </c>
       <c r="D500" s="4">
-        <v>175.13124084472656</v>
+        <v>175.13124084632327</v>
       </c>
       <c r="E500" t="s">
         <v>1565</v>
@@ -66682,7 +66685,7 @@
         <v>1555</v>
       </c>
       <c r="D501" s="4">
-        <v>164.69004821777344</v>
+        <v>164.69005100473399</v>
       </c>
       <c r="E501" t="s">
         <v>1565</v>
@@ -66699,7 +66702,7 @@
         <v>1555</v>
       </c>
       <c r="D502" s="4">
-        <v>161.80461120605469</v>
+        <v>161.80460538182837</v>
       </c>
       <c r="E502" t="s">
         <v>1565</v>
@@ -66716,7 +66719,7 @@
         <v>1555</v>
       </c>
       <c r="D503" s="4">
-        <v>169.63362121582031</v>
+        <v>169.63361853766338</v>
       </c>
       <c r="E503" t="s">
         <v>1565</v>
@@ -66733,7 +66736,7 @@
         <v>1555</v>
       </c>
       <c r="D504" s="4">
-        <v>185.72206115722656</v>
+        <v>185.72205438066464</v>
       </c>
       <c r="E504" t="s">
         <v>1565</v>
@@ -66750,7 +66753,7 @@
         <v>1555</v>
       </c>
       <c r="D505" s="4">
-        <v>156.21678161621094</v>
+        <v>156.21678115089674</v>
       </c>
       <c r="E505" t="s">
         <v>1565</v>
@@ -66767,7 +66770,7 @@
         <v>1555</v>
       </c>
       <c r="D506" s="4">
-        <v>177.02452087402344</v>
+        <v>177.0245240564071</v>
       </c>
       <c r="E506" t="s">
         <v>1565</v>
@@ -66784,7 +66787,7 @@
         <v>1555</v>
       </c>
       <c r="D507" s="4">
-        <v>184.25788879394531</v>
+        <v>184.25788203807318</v>
       </c>
       <c r="E507" t="s">
         <v>1565</v>
@@ -66801,7 +66804,7 @@
         <v>1555</v>
       </c>
       <c r="D508" s="4">
-        <v>163.6376953125</v>
+        <v>163.63769450353306</v>
       </c>
       <c r="E508" t="s">
         <v>1565</v>
@@ -66818,7 +66821,7 @@
         <v>1555</v>
       </c>
       <c r="D509" s="4">
-        <v>200.74655151367188</v>
+        <v>200.74654754047478</v>
       </c>
       <c r="E509" t="s">
         <v>1565</v>
@@ -66835,7 +66838,7 @@
         <v>1555</v>
       </c>
       <c r="D510" s="4">
-        <v>154.78123474121094</v>
+        <v>154.78124035498888</v>
       </c>
       <c r="E510" t="s">
         <v>1565</v>
@@ -66852,7 +66855,7 @@
         <v>1555</v>
       </c>
       <c r="D511" s="4">
-        <v>159.853515625</v>
+        <v>159.85352210442741</v>
       </c>
       <c r="E511" t="s">
         <v>1565</v>
@@ -66869,7 +66872,7 @@
         <v>1555</v>
       </c>
       <c r="D512" s="4">
-        <v>159.15571594238281</v>
+        <v>159.15571161335683</v>
       </c>
       <c r="E512" t="s">
         <v>1565</v>
@@ -66886,7 +66889,7 @@
         <v>1555</v>
       </c>
       <c r="D513" s="4">
-        <v>264.057861328125</v>
+        <v>264.05787165009878</v>
       </c>
       <c r="E513" t="s">
         <v>1565</v>
@@ -66903,7 +66906,7 @@
         <v>1555</v>
       </c>
       <c r="D514" s="4">
-        <v>165.83430480957031</v>
+        <v>165.83430041189945</v>
       </c>
       <c r="E514" t="s">
         <v>1565</v>
@@ -66920,7 +66923,7 @@
         <v>1555</v>
       </c>
       <c r="D515" s="4">
-        <v>143.49446105957031</v>
+        <v>143.49445761442502</v>
       </c>
       <c r="E515" t="s">
         <v>1565</v>
@@ -66937,7 +66940,7 @@
         <v>1555</v>
       </c>
       <c r="D516" s="4">
-        <v>170.68096923828125</v>
+        <v>170.68096213997106</v>
       </c>
       <c r="E516" t="s">
         <v>1565</v>
@@ -66954,7 +66957,7 @@
         <v>1555</v>
       </c>
       <c r="D517" s="4">
-        <v>159.62989807128906</v>
+        <v>159.62989128232394</v>
       </c>
       <c r="E517" t="s">
         <v>1565</v>
@@ -66971,7 +66974,7 @@
         <v>1555</v>
       </c>
       <c r="D518" s="4">
-        <v>171.59893798828125</v>
+        <v>171.59893716670743</v>
       </c>
       <c r="E518" t="s">
         <v>1565</v>
@@ -66988,7 +66991,7 @@
         <v>1555</v>
       </c>
       <c r="D519" s="4">
-        <v>166.50686645507813</v>
+        <v>166.5068590934037</v>
       </c>
       <c r="E519" t="s">
         <v>1565</v>
@@ -67005,7 +67008,7 @@
         <v>1555</v>
       </c>
       <c r="D520" s="4">
-        <v>178.29725646972656</v>
+        <v>178.29726261739262</v>
       </c>
       <c r="E520" t="s">
         <v>1565</v>
@@ -67022,7 +67025,7 @@
         <v>1555</v>
       </c>
       <c r="D521" s="4">
-        <v>185.86483764648438</v>
+        <v>185.86483974517449</v>
       </c>
       <c r="E521" t="s">
         <v>1565</v>
@@ -67039,7 +67042,7 @@
         <v>1555</v>
       </c>
       <c r="D522" s="4">
-        <v>165.592529296875</v>
+        <v>165.59253082401716</v>
       </c>
       <c r="E522" t="s">
         <v>1565</v>
@@ -67056,7 +67059,7 @@
         <v>1555</v>
       </c>
       <c r="D523" s="4">
-        <v>190.03684997558594</v>
+        <v>190.03685543220013</v>
       </c>
       <c r="E523" t="s">
         <v>1565</v>
@@ -67073,7 +67076,7 @@
         <v>1555</v>
       </c>
       <c r="D524" s="4">
-        <v>190.75376892089844</v>
+        <v>190.7537633093838</v>
       </c>
       <c r="E524" t="s">
         <v>1565</v>
@@ -67090,7 +67093,7 @@
         <v>1555</v>
       </c>
       <c r="D525" s="4">
-        <v>180.27272033691406</v>
+        <v>180.27272358661796</v>
       </c>
       <c r="E525" t="s">
         <v>1565</v>
@@ -67107,7 +67110,7 @@
         <v>1555</v>
       </c>
       <c r="D526" s="4">
-        <v>155.28643798828125</v>
+        <v>155.28644132431967</v>
       </c>
       <c r="E526" t="s">
         <v>1565</v>
@@ -67124,7 +67127,7 @@
         <v>1555</v>
       </c>
       <c r="D527" s="4">
-        <v>171.24368286132813</v>
+        <v>171.24367733902912</v>
       </c>
       <c r="E527" t="s">
         <v>1565</v>
@@ -67141,7 +67144,7 @@
         <v>1555</v>
       </c>
       <c r="D528" s="4">
-        <v>163.65682983398438</v>
+        <v>163.6568244028974</v>
       </c>
       <c r="E528" t="s">
         <v>1565</v>
@@ -67158,7 +67161,7 @@
         <v>1555</v>
       </c>
       <c r="D529" s="4">
-        <v>167.39039611816406</v>
+        <v>167.3903940606543</v>
       </c>
       <c r="E529" t="s">
         <v>1565</v>
@@ -67175,7 +67178,7 @@
         <v>1555</v>
       </c>
       <c r="D530" s="4">
-        <v>158.44459533691406</v>
+        <v>158.44458883963944</v>
       </c>
       <c r="E530" t="s">
         <v>1565</v>
@@ -67192,7 +67195,7 @@
         <v>1555</v>
       </c>
       <c r="D531" s="4">
-        <v>145.16343688964844</v>
+        <v>145.16343105457557</v>
       </c>
       <c r="E531" t="s">
         <v>1565</v>
@@ -67209,7 +67212,7 @@
         <v>1556</v>
       </c>
       <c r="D532" s="4">
-        <v>31.058952331542969</v>
+        <v>31.058952781036915</v>
       </c>
       <c r="E532" t="s">
         <v>1566</v>
@@ -67226,7 +67229,7 @@
         <v>1556</v>
       </c>
       <c r="D533" s="4">
-        <v>31.112642288208008</v>
+        <v>31.112641936361094</v>
       </c>
       <c r="E533" t="s">
         <v>1566</v>
@@ -67243,7 +67246,7 @@
         <v>1556</v>
       </c>
       <c r="D534" s="4">
-        <v>30.451589584350586</v>
+        <v>30.451589329341488</v>
       </c>
       <c r="E534" t="s">
         <v>1566</v>
@@ -67260,7 +67263,7 @@
         <v>1556</v>
       </c>
       <c r="D535" s="4">
-        <v>30.297895431518555</v>
+        <v>30.297894423072879</v>
       </c>
       <c r="E535" t="s">
         <v>1566</v>
@@ -67277,7 +67280,7 @@
         <v>1556</v>
       </c>
       <c r="D536" s="4">
-        <v>35.946178436279297</v>
+        <v>35.946178145311528</v>
       </c>
       <c r="E536" t="s">
         <v>1566</v>
@@ -67294,7 +67297,7 @@
         <v>1556</v>
       </c>
       <c r="D537" s="4">
-        <v>31.642024993896484</v>
+        <v>31.64202597237475</v>
       </c>
       <c r="E537" t="s">
         <v>1566</v>
@@ -67311,7 +67314,7 @@
         <v>1556</v>
       </c>
       <c r="D538" s="4">
-        <v>34.731300354003906</v>
+        <v>34.731300486138146</v>
       </c>
       <c r="E538" t="s">
         <v>1566</v>
@@ -67328,7 +67331,7 @@
         <v>1556</v>
       </c>
       <c r="D539" s="4">
-        <v>30.48602294921875</v>
+        <v>30.486023454210777</v>
       </c>
       <c r="E539" t="s">
         <v>1566</v>
@@ -67345,7 +67348,7 @@
         <v>1556</v>
       </c>
       <c r="D540" s="4">
-        <v>35.830551147460938</v>
+        <v>35.830551089683489</v>
       </c>
       <c r="E540" t="s">
         <v>1566</v>
@@ -67362,7 +67365,7 @@
         <v>1556</v>
       </c>
       <c r="D541" s="4">
-        <v>33.127765655517578</v>
+        <v>33.127765644504976</v>
       </c>
       <c r="E541" t="s">
         <v>1566</v>
@@ -67379,7 +67382,7 @@
         <v>1556</v>
       </c>
       <c r="D542" s="4">
-        <v>37.215797424316406</v>
+        <v>37.215795363064778</v>
       </c>
       <c r="E542" t="s">
         <v>1566</v>
@@ -67396,7 +67399,7 @@
         <v>1556</v>
       </c>
       <c r="D543" s="4">
-        <v>37.956981658935547</v>
+        <v>37.956981468268729</v>
       </c>
       <c r="E543" t="s">
         <v>1566</v>
@@ -67413,7 +67416,7 @@
         <v>1556</v>
       </c>
       <c r="D544" s="4">
-        <v>44.106403350830078</v>
+        <v>44.106402811448248</v>
       </c>
       <c r="E544" t="s">
         <v>1566</v>
@@ -67430,7 +67433,7 @@
         <v>1556</v>
       </c>
       <c r="D545" s="4">
-        <v>46.695858001708984</v>
+        <v>46.69586084776958</v>
       </c>
       <c r="E545" t="s">
         <v>1566</v>
@@ -67447,7 +67450,7 @@
         <v>1556</v>
       </c>
       <c r="D546" s="4">
-        <v>36.967559814453125</v>
+        <v>36.967559779650117</v>
       </c>
       <c r="E546" t="s">
         <v>1566</v>
@@ -67464,7 +67467,7 @@
         <v>1556</v>
       </c>
       <c r="D547" s="4">
-        <v>49.534637451171875</v>
+        <v>49.534636617405496</v>
       </c>
       <c r="E547" t="s">
         <v>1566</v>
@@ -67481,7 +67484,7 @@
         <v>1556</v>
       </c>
       <c r="D548" s="4">
-        <v>36.964187622070313</v>
+        <v>36.964185731628639</v>
       </c>
       <c r="E548" t="s">
         <v>1566</v>
@@ -67498,7 +67501,7 @@
         <v>1556</v>
       </c>
       <c r="D549" s="4">
-        <v>37.079216003417969</v>
+        <v>37.079212927913495</v>
       </c>
       <c r="E549" t="s">
         <v>1566</v>
@@ -67515,7 +67518,7 @@
         <v>1556</v>
       </c>
       <c r="D550" s="4">
-        <v>36.425605773925781</v>
+        <v>36.425603690672702</v>
       </c>
       <c r="E550" t="s">
         <v>1566</v>
@@ -67532,7 +67535,7 @@
         <v>1556</v>
       </c>
       <c r="D551" s="4">
-        <v>38.938861846923828</v>
+        <v>38.938862250613326</v>
       </c>
       <c r="E551" t="s">
         <v>1566</v>
@@ -67549,7 +67552,7 @@
         <v>1556</v>
       </c>
       <c r="D552" s="4">
-        <v>36.899818420410156</v>
+        <v>36.899819555257999</v>
       </c>
       <c r="E552" t="s">
         <v>1566</v>
@@ -67566,7 +67569,7 @@
         <v>1556</v>
       </c>
       <c r="D553" s="4">
-        <v>42.541839599609375</v>
+        <v>42.541838940405064</v>
       </c>
       <c r="E553" t="s">
         <v>1566</v>
@@ -67583,7 +67586,7 @@
         <v>1556</v>
       </c>
       <c r="D554" s="4">
-        <v>41.623924255371094</v>
+        <v>41.623924502699012</v>
       </c>
       <c r="E554" t="s">
         <v>1566</v>
@@ -67600,7 +67603,7 @@
         <v>1556</v>
       </c>
       <c r="D555" s="4">
-        <v>42.320632934570313</v>
+        <v>42.320634439297585</v>
       </c>
       <c r="E555" t="s">
         <v>1566</v>
@@ -67617,7 +67620,7 @@
         <v>1556</v>
       </c>
       <c r="D556" s="4">
-        <v>44.948272705078125</v>
+        <v>44.94827163128187</v>
       </c>
       <c r="E556" t="s">
         <v>1566</v>
@@ -67634,7 +67637,7 @@
         <v>1556</v>
       </c>
       <c r="D557" s="4">
-        <v>42.056365966796875</v>
+        <v>42.056365663826263</v>
       </c>
       <c r="E557" t="s">
         <v>1566</v>
@@ -67651,7 +67654,7 @@
         <v>1556</v>
       </c>
       <c r="D558" s="4">
-        <v>41.217464447021484</v>
+        <v>41.217463798591623</v>
       </c>
       <c r="E558" t="s">
         <v>1566</v>
@@ -67668,7 +67671,7 @@
         <v>1556</v>
       </c>
       <c r="D559" s="4">
-        <v>42.221729278564453</v>
+        <v>42.221728851972458</v>
       </c>
       <c r="E559" t="s">
         <v>1566</v>
@@ -67685,7 +67688,7 @@
         <v>1556</v>
       </c>
       <c r="D560" s="4">
-        <v>40.152080535888672</v>
+        <v>40.152082322219101</v>
       </c>
       <c r="E560" t="s">
         <v>1566</v>
@@ -67702,7 +67705,7 @@
         <v>1556</v>
       </c>
       <c r="D561" s="4">
-        <v>39.722671508789063</v>
+        <v>39.722672937928735</v>
       </c>
       <c r="E561" t="s">
         <v>1566</v>
@@ -67719,7 +67722,7 @@
         <v>1556</v>
       </c>
       <c r="D562" s="4">
-        <v>36.569614410400391</v>
+        <v>36.569611487913974</v>
       </c>
       <c r="E562" t="s">
         <v>1566</v>
@@ -67736,7 +67739,7 @@
         <v>1556</v>
       </c>
       <c r="D563" s="4">
-        <v>45.100273132324219</v>
+        <v>45.100273011241043</v>
       </c>
       <c r="E563" t="s">
         <v>1566</v>
@@ -67753,7 +67756,7 @@
         <v>1556</v>
       </c>
       <c r="D564" s="4">
-        <v>40.595405578613281</v>
+        <v>40.595404587316708</v>
       </c>
       <c r="E564" t="s">
         <v>1566</v>
@@ -67770,7 +67773,7 @@
         <v>1556</v>
       </c>
       <c r="D565" s="4">
-        <v>43.844074249267578</v>
+        <v>43.844074883558456</v>
       </c>
       <c r="E565" t="s">
         <v>1566</v>
@@ -67787,7 +67790,7 @@
         <v>1556</v>
       </c>
       <c r="D566" s="4">
-        <v>37.397434234619141</v>
+        <v>37.397435439607804</v>
       </c>
       <c r="E566" t="s">
         <v>1566</v>
@@ -67804,7 +67807,7 @@
         <v>1556</v>
       </c>
       <c r="D567" s="4">
-        <v>38.364131927490234</v>
+        <v>38.364130998720427</v>
       </c>
       <c r="E567" t="s">
         <v>1566</v>
@@ -67821,7 +67824,7 @@
         <v>1556</v>
       </c>
       <c r="D568" s="4">
-        <v>36.584640502929688</v>
+        <v>36.58464203865973</v>
       </c>
       <c r="E568" t="s">
         <v>1566</v>
@@ -67838,7 +67841,7 @@
         <v>1556</v>
       </c>
       <c r="D569" s="4">
-        <v>45.305534362792969</v>
+        <v>45.305536094111112</v>
       </c>
       <c r="E569" t="s">
         <v>1566</v>
@@ -67855,7 +67858,7 @@
         <v>1556</v>
       </c>
       <c r="D570" s="4">
-        <v>40.237171173095703</v>
+        <v>40.237172218097527</v>
       </c>
       <c r="E570" t="s">
         <v>1566</v>
@@ -67872,7 +67875,7 @@
         <v>1556</v>
       </c>
       <c r="D571" s="4">
-        <v>39.547977447509766</v>
+        <v>39.547975517335466</v>
       </c>
       <c r="E571" t="s">
         <v>1566</v>
@@ -67889,7 +67892,7 @@
         <v>1556</v>
       </c>
       <c r="D572" s="4">
-        <v>39.327144622802734</v>
+        <v>39.327146178183035</v>
       </c>
       <c r="E572" t="s">
         <v>1566</v>
@@ -67906,7 +67909,7 @@
         <v>1556</v>
       </c>
       <c r="D573" s="4">
-        <v>42.901252746582031</v>
+        <v>42.901253753994339</v>
       </c>
       <c r="E573" t="s">
         <v>1566</v>
@@ -67923,7 +67926,7 @@
         <v>1556</v>
       </c>
       <c r="D574" s="4">
-        <v>46.313446044921875</v>
+        <v>46.313444278104214</v>
       </c>
       <c r="E574" t="s">
         <v>1566</v>
@@ -67940,7 +67943,7 @@
         <v>1556</v>
       </c>
       <c r="D575" s="4">
-        <v>35.142940521240234</v>
+        <v>35.142940198458575</v>
       </c>
       <c r="E575" t="s">
         <v>1566</v>
@@ -67957,7 +67960,7 @@
         <v>1556</v>
       </c>
       <c r="D576" s="4">
-        <v>33.4378662109375</v>
+        <v>33.437865551551461</v>
       </c>
       <c r="E576" t="s">
         <v>1566</v>
@@ -67974,7 +67977,7 @@
         <v>1556</v>
       </c>
       <c r="D577" s="4">
-        <v>46.183280944824219</v>
+        <v>46.183280146183591</v>
       </c>
       <c r="E577" t="s">
         <v>1566</v>
@@ -67991,7 +67994,7 @@
         <v>1556</v>
       </c>
       <c r="D578" s="4">
-        <v>59.924770355224609</v>
+        <v>59.924769883259025</v>
       </c>
       <c r="E578" t="s">
         <v>1566</v>
@@ -68008,7 +68011,7 @@
         <v>1556</v>
       </c>
       <c r="D579" s="4">
-        <v>38.894477844238281</v>
+        <v>38.894476130577743</v>
       </c>
       <c r="E579" t="s">
         <v>1566</v>
@@ -68025,7 +68028,7 @@
         <v>1556</v>
       </c>
       <c r="D580" s="4">
-        <v>39.456634521484375</v>
+        <v>39.456633689209646</v>
       </c>
       <c r="E580" t="s">
         <v>1566</v>
@@ -68042,7 +68045,7 @@
         <v>1556</v>
       </c>
       <c r="D581" s="4">
-        <v>32.6712646484375</v>
+        <v>32.671264104960848</v>
       </c>
       <c r="E581" t="s">
         <v>1566</v>
@@ -68059,7 +68062,7 @@
         <v>1556</v>
       </c>
       <c r="D582" s="4">
-        <v>33.250755310058594</v>
+        <v>33.250752124806873</v>
       </c>
       <c r="E582" t="s">
         <v>1566</v>
@@ -68076,7 +68079,7 @@
         <v>1556</v>
       </c>
       <c r="D583" s="4">
-        <v>33.472579956054688</v>
+        <v>33.472577564753536</v>
       </c>
       <c r="E583" t="s">
         <v>1566</v>
@@ -68093,7 +68096,7 @@
         <v>1556</v>
       </c>
       <c r="D584" s="4">
-        <v>43.803016662597656</v>
+        <v>43.80301544069642</v>
       </c>
       <c r="E584" t="s">
         <v>1566</v>
@@ -68110,7 +68113,7 @@
         <v>1556</v>
       </c>
       <c r="D585" s="4">
-        <v>48.786079406738281</v>
+        <v>48.7860763180107</v>
       </c>
       <c r="E585" t="s">
         <v>1566</v>
@@ -68127,7 +68130,7 @@
         <v>1556</v>
       </c>
       <c r="D586" s="4">
-        <v>43.563880920410156</v>
+        <v>43.563882441100972</v>
       </c>
       <c r="E586" t="s">
         <v>1566</v>
@@ -68144,7 +68147,7 @@
         <v>1556</v>
       </c>
       <c r="D587" s="4">
-        <v>37.604831695556641</v>
+        <v>37.604832101439321</v>
       </c>
       <c r="E587" t="s">
         <v>1566</v>
@@ -68161,7 +68164,7 @@
         <v>1556</v>
       </c>
       <c r="D588" s="4">
-        <v>38.519699096679688</v>
+        <v>38.519700284957956</v>
       </c>
       <c r="E588" t="s">
         <v>1566</v>
@@ -68178,7 +68181,7 @@
         <v>1556</v>
       </c>
       <c r="D589" s="4">
-        <v>44.935909271240234</v>
+        <v>44.935911713394979</v>
       </c>
       <c r="E589" t="s">
         <v>1566</v>
@@ -68195,7 +68198,7 @@
         <v>1556</v>
       </c>
       <c r="D590" s="4">
-        <v>51.546283721923828</v>
+        <v>51.546284627828506</v>
       </c>
       <c r="E590" t="s">
         <v>1566</v>
@@ -68212,7 +68215,7 @@
         <v>1556</v>
       </c>
       <c r="D591" s="4">
-        <v>39.782272338867188</v>
+        <v>39.782273000609962</v>
       </c>
       <c r="E591" t="s">
         <v>1566</v>
@@ -68229,7 +68232,7 @@
         <v>1556</v>
       </c>
       <c r="D592" s="4">
-        <v>50.928615570068359</v>
+        <v>50.928615303521326</v>
       </c>
       <c r="E592" t="s">
         <v>1566</v>
@@ -68246,7 +68249,7 @@
         <v>1556</v>
       </c>
       <c r="D593" s="4">
-        <v>45.097610473632813</v>
+        <v>45.097609272658524</v>
       </c>
       <c r="E593" t="s">
         <v>1566</v>
@@ -68263,7 +68266,7 @@
         <v>1556</v>
       </c>
       <c r="D594" s="4">
-        <v>44.924522399902344</v>
+        <v>44.924525172237644</v>
       </c>
       <c r="E594" t="s">
         <v>1566</v>
@@ -68280,7 +68283,7 @@
         <v>1556</v>
       </c>
       <c r="D595" s="4">
-        <v>46.937454223632813</v>
+        <v>46.937452157557885</v>
       </c>
       <c r="E595" t="s">
         <v>1566</v>
@@ -68297,7 +68300,7 @@
         <v>1556</v>
       </c>
       <c r="D596" s="4">
-        <v>40.617477416992188</v>
+        <v>40.617475896007001</v>
       </c>
       <c r="E596" t="s">
         <v>1566</v>
@@ -68314,7 +68317,7 @@
         <v>1556</v>
       </c>
       <c r="D597" s="4">
-        <v>51.456020355224609</v>
+        <v>51.456017587542036</v>
       </c>
       <c r="E597" t="s">
         <v>1566</v>
@@ -68331,7 +68334,7 @@
         <v>1556</v>
       </c>
       <c r="D598" s="4">
-        <v>53.637985229492188</v>
+        <v>53.63798568148588</v>
       </c>
       <c r="E598" t="s">
         <v>1566</v>
@@ -68348,7 +68351,7 @@
         <v>1556</v>
       </c>
       <c r="D599" s="4">
-        <v>45.151435852050781</v>
+        <v>45.151435800328144</v>
       </c>
       <c r="E599" t="s">
         <v>1566</v>
@@ -68365,7 +68368,7 @@
         <v>1556</v>
       </c>
       <c r="D600" s="4">
-        <v>42.559432983398438</v>
+        <v>42.559433925151382</v>
       </c>
       <c r="E600" t="s">
         <v>1566</v>
@@ -68382,7 +68385,7 @@
         <v>1556</v>
       </c>
       <c r="D601" s="4">
-        <v>43.744808197021484</v>
+        <v>43.744809299822471</v>
       </c>
       <c r="E601" t="s">
         <v>1566</v>
@@ -68399,7 +68402,7 @@
         <v>1556</v>
       </c>
       <c r="D602" s="4">
-        <v>42.078548431396484</v>
+        <v>42.078548302830008</v>
       </c>
       <c r="E602" t="s">
         <v>1566</v>
@@ -68416,7 +68419,7 @@
         <v>1556</v>
       </c>
       <c r="D603" s="4">
-        <v>38.956287384033203</v>
+        <v>38.95628917940298</v>
       </c>
       <c r="E603" t="s">
         <v>1566</v>
@@ -68433,7 +68436,7 @@
         <v>1556</v>
       </c>
       <c r="D604" s="4">
-        <v>42.654895782470703</v>
+        <v>42.654893524235433</v>
       </c>
       <c r="E604" t="s">
         <v>1566</v>
@@ -68450,7 +68453,7 @@
         <v>1556</v>
       </c>
       <c r="D605" s="4">
-        <v>36.08807373046875</v>
+        <v>36.088076070624957</v>
       </c>
       <c r="E605" t="s">
         <v>1566</v>
@@ -68467,7 +68470,7 @@
         <v>1556</v>
       </c>
       <c r="D606" s="4">
-        <v>36.277915954589844</v>
+        <v>36.277912470490556</v>
       </c>
       <c r="E606" t="s">
         <v>1566</v>
@@ -68484,7 +68487,7 @@
         <v>1556</v>
       </c>
       <c r="D607" s="4">
-        <v>32.595401763916016</v>
+        <v>32.595401600185717</v>
       </c>
       <c r="E607" t="s">
         <v>1566</v>
@@ -68501,7 +68504,7 @@
         <v>1556</v>
       </c>
       <c r="D608" s="4">
-        <v>33.373092651367188</v>
+        <v>33.373095061049874</v>
       </c>
       <c r="E608" t="s">
         <v>1566</v>
@@ -68518,7 +68521,7 @@
         <v>1556</v>
       </c>
       <c r="D609" s="4">
-        <v>33.614265441894531</v>
+        <v>33.614267250333178</v>
       </c>
       <c r="E609" t="s">
         <v>1566</v>
@@ -68535,7 +68538,7 @@
         <v>1556</v>
       </c>
       <c r="D610" s="4">
-        <v>36.899158477783203</v>
+        <v>36.899159663865547</v>
       </c>
       <c r="E610" t="s">
         <v>1566</v>
@@ -68552,7 +68555,7 @@
         <v>1556</v>
       </c>
       <c r="D611" s="4">
-        <v>33.408645629882813</v>
+        <v>33.408645344287557</v>
       </c>
       <c r="E611" t="s">
         <v>1566</v>
@@ -68569,7 +68572,7 @@
         <v>1556</v>
       </c>
       <c r="D612" s="4">
-        <v>34.419979095458984</v>
+        <v>34.419979965983863</v>
       </c>
       <c r="E612" t="s">
         <v>1566</v>
@@ -68586,7 +68589,7 @@
         <v>1556</v>
       </c>
       <c r="D613" s="4">
-        <v>37.841098785400391</v>
+        <v>37.841099409412493</v>
       </c>
       <c r="E613" t="s">
         <v>1566</v>
@@ -68603,7 +68606,7 @@
         <v>1556</v>
       </c>
       <c r="D614" s="4">
-        <v>32.746799468994141</v>
+        <v>32.746801725250876</v>
       </c>
       <c r="E614" t="s">
         <v>1566</v>
@@ -68620,7 +68623,7 @@
         <v>1556</v>
       </c>
       <c r="D615" s="4">
-        <v>35.9034423828125</v>
+        <v>35.903441845914749</v>
       </c>
       <c r="E615" t="s">
         <v>1566</v>
@@ -68637,7 +68640,7 @@
         <v>1556</v>
       </c>
       <c r="D616" s="4">
-        <v>31.60136604309082</v>
+        <v>31.601364687397304</v>
       </c>
       <c r="E616" t="s">
         <v>1566</v>
@@ -68654,7 +68657,7 @@
         <v>1556</v>
       </c>
       <c r="D617" s="4">
-        <v>30.595829010009766</v>
+        <v>30.595828579648128</v>
       </c>
       <c r="E617" t="s">
         <v>1566</v>
@@ -68671,7 +68674,7 @@
         <v>1556</v>
       </c>
       <c r="D618" s="4">
-        <v>30.057271957397461</v>
+        <v>30.057270614287201</v>
       </c>
       <c r="E618" t="s">
         <v>1566</v>
@@ -68688,7 +68691,7 @@
         <v>1556</v>
       </c>
       <c r="D619" s="4">
-        <v>18.408893585205078</v>
+        <v>18.408895433233621</v>
       </c>
       <c r="E619" t="s">
         <v>1566</v>
@@ -68705,7 +68708,7 @@
         <v>1556</v>
       </c>
       <c r="D620" s="4">
-        <v>20.300775527954102</v>
+        <v>20.300775147322319</v>
       </c>
       <c r="E620" t="s">
         <v>1566</v>
@@ -68722,7 +68725,7 @@
         <v>1556</v>
       </c>
       <c r="D621" s="4">
-        <v>25.393550872802734</v>
+        <v>25.393551703361524</v>
       </c>
       <c r="E621" t="s">
         <v>1566</v>
@@ -68739,7 +68742,7 @@
         <v>1556</v>
       </c>
       <c r="D622" s="4">
-        <v>34.225379943847656</v>
+        <v>34.225379083586617</v>
       </c>
       <c r="E622" t="s">
         <v>1566</v>
@@ -68756,7 +68759,7 @@
         <v>1556</v>
       </c>
       <c r="D623" s="4">
-        <v>30.101037979125977</v>
+        <v>30.101037318020349</v>
       </c>
       <c r="E623" t="s">
         <v>1566</v>
@@ -68773,7 +68776,7 @@
         <v>1556</v>
       </c>
       <c r="D624" s="4">
-        <v>32.407405853271484</v>
+        <v>32.407406885671143</v>
       </c>
       <c r="E624" t="s">
         <v>1566</v>
@@ -68790,7 +68793,7 @@
         <v>1556</v>
       </c>
       <c r="D625" s="4">
-        <v>34.583877563476563</v>
+        <v>34.58388021327773</v>
       </c>
       <c r="E625" t="s">
         <v>1566</v>
@@ -68807,7 +68810,7 @@
         <v>1556</v>
       </c>
       <c r="D626" s="4">
-        <v>33.685592651367188</v>
+        <v>33.685594859765921</v>
       </c>
       <c r="E626" t="s">
         <v>1566</v>
@@ -68824,7 +68827,7 @@
         <v>1556</v>
       </c>
       <c r="D627" s="4">
-        <v>30.575168609619141</v>
+        <v>30.575168442929137</v>
       </c>
       <c r="E627" t="s">
         <v>1566</v>
@@ -68841,7 +68844,7 @@
         <v>1556</v>
       </c>
       <c r="D628" s="4">
-        <v>27.764017105102539</v>
+        <v>27.764017144146589</v>
       </c>
       <c r="E628" t="s">
         <v>1566</v>
@@ -68858,7 +68861,7 @@
         <v>1556</v>
       </c>
       <c r="D629" s="4">
-        <v>34.344772338867188</v>
+        <v>34.344773472575014</v>
       </c>
       <c r="E629" t="s">
         <v>1566</v>
@@ -68875,7 +68878,7 @@
         <v>1556</v>
       </c>
       <c r="D630" s="4">
-        <v>36.00701904296875</v>
+        <v>36.007019251872244</v>
       </c>
       <c r="E630" t="s">
         <v>1566</v>
@@ -68892,7 +68895,7 @@
         <v>1556</v>
       </c>
       <c r="D631" s="4">
-        <v>34.130809783935547</v>
+        <v>34.130808252199614</v>
       </c>
       <c r="E631" t="s">
         <v>1566</v>
@@ -68909,7 +68912,7 @@
         <v>1556</v>
       </c>
       <c r="D632" s="4">
-        <v>31.331161499023438</v>
+        <v>31.331162059086722</v>
       </c>
       <c r="E632" t="s">
         <v>1566</v>
@@ -68926,7 +68929,7 @@
         <v>1556</v>
       </c>
       <c r="D633" s="4">
-        <v>32.859458923339844</v>
+        <v>32.859456956766081</v>
       </c>
       <c r="E633" t="s">
         <v>1566</v>
@@ -68943,7 +68946,7 @@
         <v>1556</v>
       </c>
       <c r="D634" s="4">
-        <v>32.685005187988281</v>
+        <v>32.68500317394976</v>
       </c>
       <c r="E634" t="s">
         <v>1566</v>
@@ -68960,7 +68963,7 @@
         <v>1556</v>
       </c>
       <c r="D635" s="4">
-        <v>33.322254180908203</v>
+        <v>33.322255316048619</v>
       </c>
       <c r="E635" t="s">
         <v>1566</v>
@@ -68977,7 +68980,7 @@
         <v>1556</v>
       </c>
       <c r="D636" s="4">
-        <v>30.926948547363281</v>
+        <v>30.926949448189877</v>
       </c>
       <c r="E636" t="s">
         <v>1566</v>
@@ -68994,7 +68997,7 @@
         <v>1556</v>
       </c>
       <c r="D637" s="4">
-        <v>29.687868118286133</v>
+        <v>29.687866717790492</v>
       </c>
       <c r="E637" t="s">
         <v>1566</v>
@@ -72610,7 +72613,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -73437,6 +73440,20 @@
       </c>
       <c r="D59" t="s">
         <v>1626</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5">
+        <v>44378</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C60" s="4">
+        <v>12060</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1627</v>
       </c>
     </row>
   </sheetData>
@@ -73450,24 +73467,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B1" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="C1" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="D1" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="E1" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B2" s="5">
         <v>36161</v>
@@ -73479,12 +73496,12 @@
         <v>1.8647880000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B3" s="5">
         <v>36251</v>
@@ -73496,12 +73513,12 @@
         <v>6.3323</v>
       </c>
       <c r="E3" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B4" s="5">
         <v>36342</v>
@@ -73513,12 +73530,12 @@
         <v>0.88144599999999995</v>
       </c>
       <c r="E4" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B5" s="5">
         <v>36434</v>
@@ -73530,12 +73547,12 @@
         <v>7.9705779999999997</v>
       </c>
       <c r="E5" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B6" s="5">
         <v>36526</v>
@@ -73547,12 +73564,12 @@
         <v>9.9512909999999994</v>
       </c>
       <c r="E6" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B7" s="5">
         <v>36617</v>
@@ -73564,12 +73581,12 @@
         <v>4.0929969999999996</v>
       </c>
       <c r="E7" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B8" s="5">
         <v>36708</v>
@@ -73581,12 +73598,12 @@
         <v>5.0257550000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B9" s="5">
         <v>36800</v>
@@ -73598,12 +73615,12 @@
         <v>36.499832000000005</v>
       </c>
       <c r="E9" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B10" s="5">
         <v>36892</v>
@@ -73615,12 +73632,12 @@
         <v>3.2223809999999999</v>
       </c>
       <c r="E10" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B11" s="5">
         <v>36982</v>
@@ -73632,12 +73649,12 @@
         <v>3.1597689999999998</v>
       </c>
       <c r="E11" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B12" s="5">
         <v>37073</v>
@@ -73649,12 +73666,12 @@
         <v>10.741318</v>
       </c>
       <c r="E12" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B13" s="5">
         <v>37165</v>
@@ -73666,12 +73683,12 @@
         <v>10.570994000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B14" s="5">
         <v>37257</v>
@@ -73683,12 +73700,12 @@
         <v>20.958390999999999</v>
       </c>
       <c r="E14" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B15" s="5">
         <v>37347</v>
@@ -73700,12 +73717,12 @@
         <v>14.212596000000001</v>
       </c>
       <c r="E15" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B16" s="5">
         <v>37438</v>
@@ -73717,12 +73734,12 @@
         <v>8.3149080000000009</v>
       </c>
       <c r="E16" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B17" s="5">
         <v>37530</v>
@@ -73734,12 +73751,12 @@
         <v>10.442649000000001</v>
       </c>
       <c r="E17" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B18" s="5">
         <v>37622</v>
@@ -73751,12 +73768,12 @@
         <v>12.814825000000001</v>
       </c>
       <c r="E18" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B19" s="5">
         <v>37712</v>
@@ -73768,12 +73785,12 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B20" s="5">
         <v>37803</v>
@@ -73785,12 +73802,12 @@
         <v>13.039013000000001</v>
       </c>
       <c r="E20" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B21" s="5">
         <v>37895</v>
@@ -73802,12 +73819,12 @@
         <v>1.955627</v>
       </c>
       <c r="E21" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B22" s="5">
         <v>37987</v>
@@ -73819,12 +73836,12 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B23" s="5">
         <v>38078</v>
@@ -73836,12 +73853,12 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B24" s="5">
         <v>38169</v>
@@ -73853,12 +73870,12 @@
         <v>0.63998299999999997</v>
       </c>
       <c r="E24" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B25" s="5">
         <v>38261</v>
@@ -73870,12 +73887,12 @@
         <v>-9.9165720000000004</v>
       </c>
       <c r="E25" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B26" s="5">
         <v>38353</v>
@@ -73887,12 +73904,12 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B27" s="5">
         <v>38443</v>
@@ -73904,12 +73921,12 @@
         <v>0.38894899999999999</v>
       </c>
       <c r="E27" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B28" s="5">
         <v>38534</v>
@@ -73921,12 +73938,12 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B29" s="5">
         <v>38626</v>
@@ -73938,12 +73955,12 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B30" s="5">
         <v>38718</v>
@@ -73955,12 +73972,12 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B31" s="5">
         <v>38808</v>
@@ -73972,12 +73989,12 @@
         <v>1.7387809999999999</v>
       </c>
       <c r="E31" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B32" s="5">
         <v>38899</v>
@@ -73989,12 +74006,12 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B33" s="5">
         <v>38991</v>
@@ -74006,12 +74023,12 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B34" s="5">
         <v>39083</v>
@@ -74023,12 +74040,12 @@
         <v>0.69270100000000001</v>
       </c>
       <c r="E34" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B35" s="5">
         <v>39173</v>
@@ -74040,12 +74057,12 @@
         <v>-0.90290000000000004</v>
       </c>
       <c r="E35" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B36" s="5">
         <v>39264</v>
@@ -74057,12 +74074,12 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B37" s="5">
         <v>39356</v>
@@ -74074,12 +74091,12 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B38" s="5">
         <v>39448</v>
@@ -74091,12 +74108,12 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B39" s="5">
         <v>39539</v>
@@ -74108,12 +74125,12 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B40" s="5">
         <v>39630</v>
@@ -74125,12 +74142,12 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B41" s="5">
         <v>39722</v>
@@ -74142,12 +74159,12 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B42" s="5">
         <v>39814</v>
@@ -74159,12 +74176,12 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B43" s="5">
         <v>39904</v>
@@ -74176,12 +74193,12 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B44" s="5">
         <v>39995</v>
@@ -74193,12 +74210,12 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B45" s="5">
         <v>40087</v>
@@ -74210,12 +74227,12 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B46" s="5">
         <v>40179</v>
@@ -74227,12 +74244,12 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B47" s="5">
         <v>40269</v>
@@ -74244,12 +74261,12 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B48" s="5">
         <v>40360</v>
@@ -74261,12 +74278,12 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B49" s="5">
         <v>40452</v>
@@ -74278,12 +74295,12 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B50" s="5">
         <v>40544</v>
@@ -74295,12 +74312,12 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B51" s="5">
         <v>40634</v>
@@ -74312,12 +74329,12 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B52" s="5">
         <v>40725</v>
@@ -74329,12 +74346,12 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B53" s="5">
         <v>40817</v>
@@ -74346,12 +74363,12 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B54" s="5">
         <v>40909</v>
@@ -74363,12 +74380,12 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B55" s="5">
         <v>41000</v>
@@ -74380,12 +74397,12 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B56" s="5">
         <v>41091</v>
@@ -74397,12 +74414,12 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B57" s="5">
         <v>41183</v>
@@ -74414,12 +74431,12 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B58" s="5">
         <v>41275</v>
@@ -74431,12 +74448,12 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B59" s="5">
         <v>41365</v>
@@ -74448,12 +74465,12 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B60" s="5">
         <v>41456</v>
@@ -74465,12 +74482,12 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B61" s="5">
         <v>41548</v>
@@ -74482,12 +74499,12 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B62" s="5">
         <v>41640</v>
@@ -74499,12 +74516,12 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B63" s="5">
         <v>41730</v>
@@ -74516,12 +74533,12 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B64" s="5">
         <v>41821</v>
@@ -74533,12 +74550,12 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B65" s="5">
         <v>41913</v>
@@ -74550,12 +74567,12 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B66" s="5">
         <v>42005</v>
@@ -74567,12 +74584,12 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B67" s="5">
         <v>42095</v>
@@ -74584,12 +74601,12 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B68" s="5">
         <v>42186</v>
@@ -74601,12 +74618,12 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B69" s="5">
         <v>42278</v>
@@ -74618,12 +74635,12 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B70" s="5">
         <v>42370</v>
@@ -74635,12 +74652,12 @@
         <v>0.61121135999999998</v>
       </c>
       <c r="E70" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B71" s="5">
         <v>42461</v>
@@ -74652,12 +74669,12 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B72" s="5">
         <v>42552</v>
@@ -74669,12 +74686,12 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B73" s="5">
         <v>42644</v>
@@ -74686,12 +74703,12 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B74" s="5">
         <v>42736</v>
@@ -74703,12 +74720,12 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B75" s="5">
         <v>42826</v>
@@ -74720,12 +74737,12 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B76" s="5">
         <v>42917</v>
@@ -74737,12 +74754,12 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B77" s="5">
         <v>43009</v>
@@ -74754,12 +74771,12 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B78" s="5">
         <v>43101</v>
@@ -74771,12 +74788,12 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B79" s="5">
         <v>43191</v>
@@ -74788,12 +74805,12 @@
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B80" s="5">
         <v>43282</v>
@@ -74805,12 +74822,12 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B81" s="5">
         <v>43374</v>
@@ -74822,12 +74839,12 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B82" s="5">
         <v>43466</v>
@@ -74839,12 +74856,12 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B83" s="5">
         <v>43556</v>
@@ -74856,12 +74873,12 @@
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B84" s="5">
         <v>43647</v>
@@ -74873,12 +74890,12 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B85" s="5">
         <v>43739</v>
@@ -74890,12 +74907,12 @@
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B86" s="5">
         <v>43831</v>
@@ -74907,12 +74924,12 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B87" s="5">
         <v>43922</v>
@@ -74924,12 +74941,12 @@
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B88" s="5">
         <v>44013</v>
@@ -74941,12 +74958,12 @@
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B89" s="5">
         <v>44105</v>
@@ -74958,12 +74975,12 @@
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B90" s="5">
         <v>44197</v>
@@ -74975,12 +74992,12 @@
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B91" s="5">
         <v>44287</v>
@@ -74992,12 +75009,12 @@
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B92" s="5">
         <v>44378</v>
@@ -75009,7 +75026,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/08/2022</t>
+    <t xml:space="preserve"> 02/18/2022</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10119" uniqueCount="1688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10121" uniqueCount="1689">
   <si>
     <t>Base de datos</t>
   </si>
@@ -5091,6 +5091,9 @@
   </si>
   <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -73870,7 +73873,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E93"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -75437,6 +75440,23 @@
         <v>1687</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B93" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C93" s="4">
+        <v>0</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1688</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/21/2022</t>
+    <t xml:space="preserve"> 03/04/2022</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10154" uniqueCount="1689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10156" uniqueCount="1690">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/18/2022</t>
+    <t xml:space="preserve"> 03/31/2022</t>
   </si>
   <si>
     <t>Sección</t>
@@ -4905,6 +4905,9 @@
   </si>
   <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -73229,7 +73232,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D61"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -74070,6 +74073,20 @@
       </c>
       <c r="D60" t="s">
         <v>1627</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5">
+        <v>44470</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C61" s="4">
+        <v>13588</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1628</v>
       </c>
     </row>
   </sheetData>
@@ -74083,24 +74100,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B1" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="C1" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="D1" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="E1" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B2" s="5">
         <v>36161</v>
@@ -74112,12 +74129,12 @@
         <v>1.8647880000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B3" s="5">
         <v>36251</v>
@@ -74129,12 +74146,12 @@
         <v>6.3323</v>
       </c>
       <c r="E3" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B4" s="5">
         <v>36342</v>
@@ -74146,12 +74163,12 @@
         <v>0.88144599999999995</v>
       </c>
       <c r="E4" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B5" s="5">
         <v>36434</v>
@@ -74163,12 +74180,12 @@
         <v>7.9705779999999997</v>
       </c>
       <c r="E5" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B6" s="5">
         <v>36526</v>
@@ -74180,12 +74197,12 @@
         <v>9.9512909999999994</v>
       </c>
       <c r="E6" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B7" s="5">
         <v>36617</v>
@@ -74197,12 +74214,12 @@
         <v>4.0929969999999996</v>
       </c>
       <c r="E7" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B8" s="5">
         <v>36708</v>
@@ -74214,12 +74231,12 @@
         <v>5.0257550000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B9" s="5">
         <v>36800</v>
@@ -74231,12 +74248,12 @@
         <v>36.499832000000005</v>
       </c>
       <c r="E9" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B10" s="5">
         <v>36892</v>
@@ -74248,12 +74265,12 @@
         <v>3.2223809999999999</v>
       </c>
       <c r="E10" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B11" s="5">
         <v>36982</v>
@@ -74265,12 +74282,12 @@
         <v>3.1597689999999998</v>
       </c>
       <c r="E11" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B12" s="5">
         <v>37073</v>
@@ -74282,12 +74299,12 @@
         <v>10.741318</v>
       </c>
       <c r="E12" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B13" s="5">
         <v>37165</v>
@@ -74299,12 +74316,12 @@
         <v>10.570994000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B14" s="5">
         <v>37257</v>
@@ -74316,12 +74333,12 @@
         <v>20.958390999999999</v>
       </c>
       <c r="E14" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B15" s="5">
         <v>37347</v>
@@ -74333,12 +74350,12 @@
         <v>14.212596000000001</v>
       </c>
       <c r="E15" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B16" s="5">
         <v>37438</v>
@@ -74350,12 +74367,12 @@
         <v>8.3149080000000009</v>
       </c>
       <c r="E16" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B17" s="5">
         <v>37530</v>
@@ -74367,12 +74384,12 @@
         <v>10.442649000000001</v>
       </c>
       <c r="E17" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B18" s="5">
         <v>37622</v>
@@ -74384,12 +74401,12 @@
         <v>12.814825000000001</v>
       </c>
       <c r="E18" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B19" s="5">
         <v>37712</v>
@@ -74401,12 +74418,12 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B20" s="5">
         <v>37803</v>
@@ -74418,12 +74435,12 @@
         <v>13.039013000000001</v>
       </c>
       <c r="E20" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B21" s="5">
         <v>37895</v>
@@ -74435,12 +74452,12 @@
         <v>1.955627</v>
       </c>
       <c r="E21" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B22" s="5">
         <v>37987</v>
@@ -74452,12 +74469,12 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B23" s="5">
         <v>38078</v>
@@ -74469,12 +74486,12 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B24" s="5">
         <v>38169</v>
@@ -74486,12 +74503,12 @@
         <v>0.63998299999999997</v>
       </c>
       <c r="E24" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B25" s="5">
         <v>38261</v>
@@ -74503,12 +74520,12 @@
         <v>-9.9165720000000004</v>
       </c>
       <c r="E25" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B26" s="5">
         <v>38353</v>
@@ -74520,12 +74537,12 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B27" s="5">
         <v>38443</v>
@@ -74537,12 +74554,12 @@
         <v>0.38894899999999999</v>
       </c>
       <c r="E27" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B28" s="5">
         <v>38534</v>
@@ -74554,12 +74571,12 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B29" s="5">
         <v>38626</v>
@@ -74571,12 +74588,12 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B30" s="5">
         <v>38718</v>
@@ -74588,12 +74605,12 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B31" s="5">
         <v>38808</v>
@@ -74605,12 +74622,12 @@
         <v>1.7387809999999999</v>
       </c>
       <c r="E31" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B32" s="5">
         <v>38899</v>
@@ -74622,12 +74639,12 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B33" s="5">
         <v>38991</v>
@@ -74639,12 +74656,12 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B34" s="5">
         <v>39083</v>
@@ -74656,12 +74673,12 @@
         <v>0.69270100000000001</v>
       </c>
       <c r="E34" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B35" s="5">
         <v>39173</v>
@@ -74673,12 +74690,12 @@
         <v>-0.90290000000000004</v>
       </c>
       <c r="E35" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B36" s="5">
         <v>39264</v>
@@ -74690,12 +74707,12 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B37" s="5">
         <v>39356</v>
@@ -74707,12 +74724,12 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B38" s="5">
         <v>39448</v>
@@ -74724,12 +74741,12 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B39" s="5">
         <v>39539</v>
@@ -74741,12 +74758,12 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B40" s="5">
         <v>39630</v>
@@ -74758,12 +74775,12 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B41" s="5">
         <v>39722</v>
@@ -74775,12 +74792,12 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B42" s="5">
         <v>39814</v>
@@ -74792,12 +74809,12 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B43" s="5">
         <v>39904</v>
@@ -74809,12 +74826,12 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B44" s="5">
         <v>39995</v>
@@ -74826,12 +74843,12 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B45" s="5">
         <v>40087</v>
@@ -74843,12 +74860,12 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B46" s="5">
         <v>40179</v>
@@ -74860,12 +74877,12 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B47" s="5">
         <v>40269</v>
@@ -74877,12 +74894,12 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B48" s="5">
         <v>40360</v>
@@ -74894,12 +74911,12 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B49" s="5">
         <v>40452</v>
@@ -74911,12 +74928,12 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B50" s="5">
         <v>40544</v>
@@ -74928,12 +74945,12 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B51" s="5">
         <v>40634</v>
@@ -74945,12 +74962,12 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B52" s="5">
         <v>40725</v>
@@ -74962,12 +74979,12 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B53" s="5">
         <v>40817</v>
@@ -74979,12 +74996,12 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B54" s="5">
         <v>40909</v>
@@ -74996,12 +75013,12 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B55" s="5">
         <v>41000</v>
@@ -75013,12 +75030,12 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B56" s="5">
         <v>41091</v>
@@ -75030,12 +75047,12 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B57" s="5">
         <v>41183</v>
@@ -75047,12 +75064,12 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B58" s="5">
         <v>41275</v>
@@ -75064,12 +75081,12 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B59" s="5">
         <v>41365</v>
@@ -75081,12 +75098,12 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B60" s="5">
         <v>41456</v>
@@ -75098,12 +75115,12 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B61" s="5">
         <v>41548</v>
@@ -75115,12 +75132,12 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B62" s="5">
         <v>41640</v>
@@ -75132,12 +75149,12 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B63" s="5">
         <v>41730</v>
@@ -75149,12 +75166,12 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B64" s="5">
         <v>41821</v>
@@ -75166,12 +75183,12 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B65" s="5">
         <v>41913</v>
@@ -75183,12 +75200,12 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B66" s="5">
         <v>42005</v>
@@ -75200,12 +75217,12 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B67" s="5">
         <v>42095</v>
@@ -75217,12 +75234,12 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B68" s="5">
         <v>42186</v>
@@ -75234,12 +75251,12 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B69" s="5">
         <v>42278</v>
@@ -75251,12 +75268,12 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B70" s="5">
         <v>42370</v>
@@ -75268,12 +75285,12 @@
         <v>0.61121135999999998</v>
       </c>
       <c r="E70" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B71" s="5">
         <v>42461</v>
@@ -75285,12 +75302,12 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B72" s="5">
         <v>42552</v>
@@ -75302,12 +75319,12 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B73" s="5">
         <v>42644</v>
@@ -75319,12 +75336,12 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B74" s="5">
         <v>42736</v>
@@ -75336,12 +75353,12 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B75" s="5">
         <v>42826</v>
@@ -75353,12 +75370,12 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B76" s="5">
         <v>42917</v>
@@ -75370,12 +75387,12 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B77" s="5">
         <v>43009</v>
@@ -75387,12 +75404,12 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B78" s="5">
         <v>43101</v>
@@ -75404,12 +75421,12 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B79" s="5">
         <v>43191</v>
@@ -75421,12 +75438,12 @@
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B80" s="5">
         <v>43282</v>
@@ -75438,12 +75455,12 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B81" s="5">
         <v>43374</v>
@@ -75455,12 +75472,12 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B82" s="5">
         <v>43466</v>
@@ -75472,12 +75489,12 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B83" s="5">
         <v>43556</v>
@@ -75489,12 +75506,12 @@
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B84" s="5">
         <v>43647</v>
@@ -75506,12 +75523,12 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B85" s="5">
         <v>43739</v>
@@ -75523,12 +75540,12 @@
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B86" s="5">
         <v>43831</v>
@@ -75540,12 +75557,12 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B87" s="5">
         <v>43922</v>
@@ -75557,12 +75574,12 @@
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B88" s="5">
         <v>44013</v>
@@ -75574,12 +75591,12 @@
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B89" s="5">
         <v>44105</v>
@@ -75591,12 +75608,12 @@
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B90" s="5">
         <v>44197</v>
@@ -75608,12 +75625,12 @@
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B91" s="5">
         <v>44287</v>
@@ -75625,12 +75642,12 @@
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B92" s="5">
         <v>44378</v>
@@ -75642,12 +75659,12 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B93" s="5">
         <v>44470</v>
@@ -75659,7 +75676,7 @@
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/19/2022</t>
+    <t xml:space="preserve"> 05/24/2022</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/24/2022</t>
+    <t xml:space="preserve"> 05/26/2022</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10222" uniqueCount="1690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10224" uniqueCount="1691">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/26/2022</t>
+    <t xml:space="preserve"> 05/31/2022</t>
   </si>
   <si>
     <t>Sección</t>
@@ -5094,6 +5094,9 @@
   </si>
   <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -74505,7 +74508,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E94"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -76089,6 +76092,23 @@
         <v>1689</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B94" s="5">
+        <v>44562</v>
+      </c>
+      <c r="C94" s="4">
+        <v>0</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1690</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08/12/2022</t>
+    <t xml:space="preserve"> 08/18/2022</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10325" uniqueCount="1694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10327" uniqueCount="1695">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08/18/2022</t>
+    <t xml:space="preserve"> 08/23/2022</t>
   </si>
   <si>
     <t>Sección</t>
@@ -5112,6 +5112,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
   </si>
 </sst>
 </file>
@@ -75146,7 +75149,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E95"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -76747,6 +76750,23 @@
         <v>1693</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B95" s="5">
+        <v>44652</v>
+      </c>
+      <c r="C95" s="4">
+        <v>0</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1694</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11110" uniqueCount="1788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11112" uniqueCount="1789">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 12/14/2022</t>
+    <t xml:space="preserve"> 01/02/2023</t>
   </si>
   <si>
     <t>Sección</t>
@@ -5202,6 +5202,9 @@
   </si>
   <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Industria</t>
@@ -77326,7 +77329,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D64"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -78209,6 +78212,20 @@
       </c>
       <c r="D63" t="s">
         <v>1723</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C64" s="4">
+        <v>14684</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1724</v>
       </c>
     </row>
   </sheetData>
@@ -78222,24 +78239,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B1" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C1" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="D1" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="E1" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B2" s="5">
         <v>36161</v>
@@ -78251,12 +78268,12 @@
         <v>1.8647880000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B3" s="5">
         <v>36251</v>
@@ -78268,12 +78285,12 @@
         <v>6.3323</v>
       </c>
       <c r="E3" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B4" s="5">
         <v>36342</v>
@@ -78285,12 +78302,12 @@
         <v>0.88144599999999995</v>
       </c>
       <c r="E4" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B5" s="5">
         <v>36434</v>
@@ -78302,12 +78319,12 @@
         <v>7.9705779999999997</v>
       </c>
       <c r="E5" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B6" s="5">
         <v>36526</v>
@@ -78319,12 +78336,12 @@
         <v>9.9512909999999994</v>
       </c>
       <c r="E6" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B7" s="5">
         <v>36617</v>
@@ -78336,12 +78353,12 @@
         <v>4.0929969999999996</v>
       </c>
       <c r="E7" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B8" s="5">
         <v>36708</v>
@@ -78353,12 +78370,12 @@
         <v>5.0257550000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B9" s="5">
         <v>36800</v>
@@ -78370,12 +78387,12 @@
         <v>36.499832000000005</v>
       </c>
       <c r="E9" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B10" s="5">
         <v>36892</v>
@@ -78387,12 +78404,12 @@
         <v>3.2223809999999999</v>
       </c>
       <c r="E10" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B11" s="5">
         <v>36982</v>
@@ -78404,12 +78421,12 @@
         <v>3.1597689999999998</v>
       </c>
       <c r="E11" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B12" s="5">
         <v>37073</v>
@@ -78421,12 +78438,12 @@
         <v>10.741318</v>
       </c>
       <c r="E12" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B13" s="5">
         <v>37165</v>
@@ -78438,12 +78455,12 @@
         <v>10.570994000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B14" s="5">
         <v>37257</v>
@@ -78455,12 +78472,12 @@
         <v>20.958390999999999</v>
       </c>
       <c r="E14" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B15" s="5">
         <v>37347</v>
@@ -78472,12 +78489,12 @@
         <v>14.212596000000001</v>
       </c>
       <c r="E15" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B16" s="5">
         <v>37438</v>
@@ -78489,12 +78506,12 @@
         <v>8.3149080000000009</v>
       </c>
       <c r="E16" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B17" s="5">
         <v>37530</v>
@@ -78506,12 +78523,12 @@
         <v>10.442649000000001</v>
       </c>
       <c r="E17" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B18" s="5">
         <v>37622</v>
@@ -78523,12 +78540,12 @@
         <v>12.814825000000001</v>
       </c>
       <c r="E18" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B19" s="5">
         <v>37712</v>
@@ -78540,12 +78557,12 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B20" s="5">
         <v>37803</v>
@@ -78557,12 +78574,12 @@
         <v>13.039013000000001</v>
       </c>
       <c r="E20" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B21" s="5">
         <v>37895</v>
@@ -78574,12 +78591,12 @@
         <v>1.955627</v>
       </c>
       <c r="E21" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B22" s="5">
         <v>37987</v>
@@ -78591,12 +78608,12 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B23" s="5">
         <v>38078</v>
@@ -78608,12 +78625,12 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B24" s="5">
         <v>38169</v>
@@ -78625,12 +78642,12 @@
         <v>0.63998299999999997</v>
       </c>
       <c r="E24" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B25" s="5">
         <v>38261</v>
@@ -78642,12 +78659,12 @@
         <v>-9.9165720000000004</v>
       </c>
       <c r="E25" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B26" s="5">
         <v>38353</v>
@@ -78659,12 +78676,12 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B27" s="5">
         <v>38443</v>
@@ -78676,12 +78693,12 @@
         <v>0.38894899999999999</v>
       </c>
       <c r="E27" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B28" s="5">
         <v>38534</v>
@@ -78693,12 +78710,12 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B29" s="5">
         <v>38626</v>
@@ -78710,12 +78727,12 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B30" s="5">
         <v>38718</v>
@@ -78727,12 +78744,12 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B31" s="5">
         <v>38808</v>
@@ -78744,12 +78761,12 @@
         <v>1.7387809999999999</v>
       </c>
       <c r="E31" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B32" s="5">
         <v>38899</v>
@@ -78761,12 +78778,12 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B33" s="5">
         <v>38991</v>
@@ -78778,12 +78795,12 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B34" s="5">
         <v>39083</v>
@@ -78795,12 +78812,12 @@
         <v>0.69270100000000001</v>
       </c>
       <c r="E34" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B35" s="5">
         <v>39173</v>
@@ -78812,12 +78829,12 @@
         <v>-0.90290000000000004</v>
       </c>
       <c r="E35" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B36" s="5">
         <v>39264</v>
@@ -78829,12 +78846,12 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B37" s="5">
         <v>39356</v>
@@ -78846,12 +78863,12 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B38" s="5">
         <v>39448</v>
@@ -78863,12 +78880,12 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B39" s="5">
         <v>39539</v>
@@ -78880,12 +78897,12 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B40" s="5">
         <v>39630</v>
@@ -78897,12 +78914,12 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B41" s="5">
         <v>39722</v>
@@ -78914,12 +78931,12 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B42" s="5">
         <v>39814</v>
@@ -78931,12 +78948,12 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B43" s="5">
         <v>39904</v>
@@ -78948,12 +78965,12 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B44" s="5">
         <v>39995</v>
@@ -78965,12 +78982,12 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B45" s="5">
         <v>40087</v>
@@ -78982,12 +78999,12 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B46" s="5">
         <v>40179</v>
@@ -78999,12 +79016,12 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B47" s="5">
         <v>40269</v>
@@ -79016,12 +79033,12 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B48" s="5">
         <v>40360</v>
@@ -79033,12 +79050,12 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B49" s="5">
         <v>40452</v>
@@ -79050,12 +79067,12 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B50" s="5">
         <v>40544</v>
@@ -79067,12 +79084,12 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B51" s="5">
         <v>40634</v>
@@ -79084,12 +79101,12 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B52" s="5">
         <v>40725</v>
@@ -79101,12 +79118,12 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B53" s="5">
         <v>40817</v>
@@ -79118,12 +79135,12 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B54" s="5">
         <v>40909</v>
@@ -79135,12 +79152,12 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B55" s="5">
         <v>41000</v>
@@ -79152,12 +79169,12 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B56" s="5">
         <v>41091</v>
@@ -79169,12 +79186,12 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B57" s="5">
         <v>41183</v>
@@ -79186,12 +79203,12 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B58" s="5">
         <v>41275</v>
@@ -79203,12 +79220,12 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B59" s="5">
         <v>41365</v>
@@ -79220,12 +79237,12 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B60" s="5">
         <v>41456</v>
@@ -79237,12 +79254,12 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B61" s="5">
         <v>41548</v>
@@ -79254,12 +79271,12 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B62" s="5">
         <v>41640</v>
@@ -79271,12 +79288,12 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B63" s="5">
         <v>41730</v>
@@ -79288,12 +79305,12 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B64" s="5">
         <v>41821</v>
@@ -79305,12 +79322,12 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B65" s="5">
         <v>41913</v>
@@ -79322,12 +79339,12 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B66" s="5">
         <v>42005</v>
@@ -79339,12 +79356,12 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B67" s="5">
         <v>42095</v>
@@ -79356,12 +79373,12 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B68" s="5">
         <v>42186</v>
@@ -79373,12 +79390,12 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B69" s="5">
         <v>42278</v>
@@ -79390,12 +79407,12 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B70" s="5">
         <v>42370</v>
@@ -79407,12 +79424,12 @@
         <v>0.61121135999999998</v>
       </c>
       <c r="E70" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B71" s="5">
         <v>42461</v>
@@ -79424,12 +79441,12 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B72" s="5">
         <v>42552</v>
@@ -79441,12 +79458,12 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B73" s="5">
         <v>42644</v>
@@ -79458,12 +79475,12 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B74" s="5">
         <v>42736</v>
@@ -79475,12 +79492,12 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B75" s="5">
         <v>42826</v>
@@ -79492,12 +79509,12 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B76" s="5">
         <v>42917</v>
@@ -79509,12 +79526,12 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B77" s="5">
         <v>43009</v>
@@ -79526,12 +79543,12 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B78" s="5">
         <v>43101</v>
@@ -79543,12 +79560,12 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B79" s="5">
         <v>43191</v>
@@ -79560,12 +79577,12 @@
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B80" s="5">
         <v>43282</v>
@@ -79577,12 +79594,12 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B81" s="5">
         <v>43374</v>
@@ -79594,12 +79611,12 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B82" s="5">
         <v>43466</v>
@@ -79611,12 +79628,12 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B83" s="5">
         <v>43556</v>
@@ -79628,12 +79645,12 @@
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B84" s="5">
         <v>43647</v>
@@ -79645,12 +79662,12 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B85" s="5">
         <v>43739</v>
@@ -79662,12 +79679,12 @@
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B86" s="5">
         <v>43831</v>
@@ -79679,12 +79696,12 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B87" s="5">
         <v>43922</v>
@@ -79696,12 +79713,12 @@
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B88" s="5">
         <v>44013</v>
@@ -79713,12 +79730,12 @@
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B89" s="5">
         <v>44105</v>
@@ -79730,12 +79747,12 @@
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B90" s="5">
         <v>44197</v>
@@ -79747,12 +79764,12 @@
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B91" s="5">
         <v>44287</v>
@@ -79764,12 +79781,12 @@
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B92" s="5">
         <v>44378</v>
@@ -79781,12 +79798,12 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B93" s="5">
         <v>44470</v>
@@ -79798,12 +79815,12 @@
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B94" s="5">
         <v>44562</v>
@@ -79815,12 +79832,12 @@
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B95" s="5">
         <v>44652</v>
@@ -79832,12 +79849,12 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B96" s="5">
         <v>44743</v>
@@ -79849,7 +79866,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/14/2023</t>
+    <t xml:space="preserve"> 02/20/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/07/2023</t>
+    <t xml:space="preserve"> 03/14/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/14/2023</t>
+    <t xml:space="preserve"> 03/24/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11213" uniqueCount="1790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11215" uniqueCount="1791">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/24/2023</t>
+    <t xml:space="preserve"> 03/31/2023</t>
   </si>
   <si>
     <t>Sección</t>
@@ -5205,6 +5205,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
   </si>
   <si>
     <t>Industria</t>
@@ -77947,7 +77950,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -78844,6 +78847,20 @@
       </c>
       <c r="D64" t="s">
         <v>1724</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C65" s="4">
+        <v>16019</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1725</v>
       </c>
     </row>
   </sheetData>
@@ -78857,24 +78874,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B1" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="C1" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="D1" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="E1" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B2" s="5">
         <v>36161</v>
@@ -78886,12 +78903,12 @@
         <v>1.8647880000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B3" s="5">
         <v>36251</v>
@@ -78903,12 +78920,12 @@
         <v>6.3323</v>
       </c>
       <c r="E3" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B4" s="5">
         <v>36342</v>
@@ -78920,12 +78937,12 @@
         <v>0.88144599999999995</v>
       </c>
       <c r="E4" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B5" s="5">
         <v>36434</v>
@@ -78937,12 +78954,12 @@
         <v>7.9705779999999997</v>
       </c>
       <c r="E5" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B6" s="5">
         <v>36526</v>
@@ -78954,12 +78971,12 @@
         <v>9.9512909999999994</v>
       </c>
       <c r="E6" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B7" s="5">
         <v>36617</v>
@@ -78971,12 +78988,12 @@
         <v>4.0929969999999996</v>
       </c>
       <c r="E7" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B8" s="5">
         <v>36708</v>
@@ -78988,12 +79005,12 @@
         <v>5.0257550000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B9" s="5">
         <v>36800</v>
@@ -79005,12 +79022,12 @@
         <v>36.499832000000005</v>
       </c>
       <c r="E9" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B10" s="5">
         <v>36892</v>
@@ -79022,12 +79039,12 @@
         <v>3.2223809999999999</v>
       </c>
       <c r="E10" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B11" s="5">
         <v>36982</v>
@@ -79039,12 +79056,12 @@
         <v>3.1597689999999998</v>
       </c>
       <c r="E11" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B12" s="5">
         <v>37073</v>
@@ -79056,12 +79073,12 @@
         <v>10.741318</v>
       </c>
       <c r="E12" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B13" s="5">
         <v>37165</v>
@@ -79073,12 +79090,12 @@
         <v>10.570994000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B14" s="5">
         <v>37257</v>
@@ -79090,12 +79107,12 @@
         <v>20.958390999999999</v>
       </c>
       <c r="E14" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B15" s="5">
         <v>37347</v>
@@ -79107,12 +79124,12 @@
         <v>14.212596000000001</v>
       </c>
       <c r="E15" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B16" s="5">
         <v>37438</v>
@@ -79124,12 +79141,12 @@
         <v>8.3149080000000009</v>
       </c>
       <c r="E16" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B17" s="5">
         <v>37530</v>
@@ -79141,12 +79158,12 @@
         <v>10.442649000000001</v>
       </c>
       <c r="E17" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B18" s="5">
         <v>37622</v>
@@ -79158,12 +79175,12 @@
         <v>12.814825000000001</v>
       </c>
       <c r="E18" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B19" s="5">
         <v>37712</v>
@@ -79175,12 +79192,12 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B20" s="5">
         <v>37803</v>
@@ -79192,12 +79209,12 @@
         <v>13.039013000000001</v>
       </c>
       <c r="E20" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B21" s="5">
         <v>37895</v>
@@ -79209,12 +79226,12 @@
         <v>1.955627</v>
       </c>
       <c r="E21" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B22" s="5">
         <v>37987</v>
@@ -79226,12 +79243,12 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B23" s="5">
         <v>38078</v>
@@ -79243,12 +79260,12 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B24" s="5">
         <v>38169</v>
@@ -79260,12 +79277,12 @@
         <v>0.63998299999999997</v>
       </c>
       <c r="E24" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B25" s="5">
         <v>38261</v>
@@ -79277,12 +79294,12 @@
         <v>-9.9165720000000004</v>
       </c>
       <c r="E25" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B26" s="5">
         <v>38353</v>
@@ -79294,12 +79311,12 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B27" s="5">
         <v>38443</v>
@@ -79311,12 +79328,12 @@
         <v>0.38894899999999999</v>
       </c>
       <c r="E27" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B28" s="5">
         <v>38534</v>
@@ -79328,12 +79345,12 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B29" s="5">
         <v>38626</v>
@@ -79345,12 +79362,12 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B30" s="5">
         <v>38718</v>
@@ -79362,12 +79379,12 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B31" s="5">
         <v>38808</v>
@@ -79379,12 +79396,12 @@
         <v>1.7387809999999999</v>
       </c>
       <c r="E31" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B32" s="5">
         <v>38899</v>
@@ -79396,12 +79413,12 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B33" s="5">
         <v>38991</v>
@@ -79413,12 +79430,12 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B34" s="5">
         <v>39083</v>
@@ -79430,12 +79447,12 @@
         <v>0.69270100000000001</v>
       </c>
       <c r="E34" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B35" s="5">
         <v>39173</v>
@@ -79447,12 +79464,12 @@
         <v>-0.90290000000000004</v>
       </c>
       <c r="E35" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B36" s="5">
         <v>39264</v>
@@ -79464,12 +79481,12 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B37" s="5">
         <v>39356</v>
@@ -79481,12 +79498,12 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B38" s="5">
         <v>39448</v>
@@ -79498,12 +79515,12 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B39" s="5">
         <v>39539</v>
@@ -79515,12 +79532,12 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B40" s="5">
         <v>39630</v>
@@ -79532,12 +79549,12 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B41" s="5">
         <v>39722</v>
@@ -79549,12 +79566,12 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B42" s="5">
         <v>39814</v>
@@ -79566,12 +79583,12 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B43" s="5">
         <v>39904</v>
@@ -79583,12 +79600,12 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B44" s="5">
         <v>39995</v>
@@ -79600,12 +79617,12 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B45" s="5">
         <v>40087</v>
@@ -79617,12 +79634,12 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B46" s="5">
         <v>40179</v>
@@ -79634,12 +79651,12 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B47" s="5">
         <v>40269</v>
@@ -79651,12 +79668,12 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B48" s="5">
         <v>40360</v>
@@ -79668,12 +79685,12 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B49" s="5">
         <v>40452</v>
@@ -79685,12 +79702,12 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B50" s="5">
         <v>40544</v>
@@ -79702,12 +79719,12 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B51" s="5">
         <v>40634</v>
@@ -79719,12 +79736,12 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B52" s="5">
         <v>40725</v>
@@ -79736,12 +79753,12 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B53" s="5">
         <v>40817</v>
@@ -79753,12 +79770,12 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B54" s="5">
         <v>40909</v>
@@ -79770,12 +79787,12 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B55" s="5">
         <v>41000</v>
@@ -79787,12 +79804,12 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B56" s="5">
         <v>41091</v>
@@ -79804,12 +79821,12 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B57" s="5">
         <v>41183</v>
@@ -79821,12 +79838,12 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B58" s="5">
         <v>41275</v>
@@ -79838,12 +79855,12 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B59" s="5">
         <v>41365</v>
@@ -79855,12 +79872,12 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B60" s="5">
         <v>41456</v>
@@ -79872,12 +79889,12 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B61" s="5">
         <v>41548</v>
@@ -79889,12 +79906,12 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B62" s="5">
         <v>41640</v>
@@ -79906,12 +79923,12 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B63" s="5">
         <v>41730</v>
@@ -79923,12 +79940,12 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B64" s="5">
         <v>41821</v>
@@ -79940,12 +79957,12 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B65" s="5">
         <v>41913</v>
@@ -79957,12 +79974,12 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B66" s="5">
         <v>42005</v>
@@ -79974,12 +79991,12 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B67" s="5">
         <v>42095</v>
@@ -79991,12 +80008,12 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B68" s="5">
         <v>42186</v>
@@ -80008,12 +80025,12 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B69" s="5">
         <v>42278</v>
@@ -80025,12 +80042,12 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B70" s="5">
         <v>42370</v>
@@ -80042,12 +80059,12 @@
         <v>0.61121135999999998</v>
       </c>
       <c r="E70" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B71" s="5">
         <v>42461</v>
@@ -80059,12 +80076,12 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B72" s="5">
         <v>42552</v>
@@ -80076,12 +80093,12 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B73" s="5">
         <v>42644</v>
@@ -80093,12 +80110,12 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B74" s="5">
         <v>42736</v>
@@ -80110,12 +80127,12 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B75" s="5">
         <v>42826</v>
@@ -80127,12 +80144,12 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B76" s="5">
         <v>42917</v>
@@ -80144,12 +80161,12 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B77" s="5">
         <v>43009</v>
@@ -80161,12 +80178,12 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B78" s="5">
         <v>43101</v>
@@ -80178,12 +80195,12 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B79" s="5">
         <v>43191</v>
@@ -80195,12 +80212,12 @@
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B80" s="5">
         <v>43282</v>
@@ -80212,12 +80229,12 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B81" s="5">
         <v>43374</v>
@@ -80229,12 +80246,12 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B82" s="5">
         <v>43466</v>
@@ -80246,12 +80263,12 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B83" s="5">
         <v>43556</v>
@@ -80263,12 +80280,12 @@
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B84" s="5">
         <v>43647</v>
@@ -80280,12 +80297,12 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B85" s="5">
         <v>43739</v>
@@ -80297,12 +80314,12 @@
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B86" s="5">
         <v>43831</v>
@@ -80314,12 +80331,12 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B87" s="5">
         <v>43922</v>
@@ -80331,12 +80348,12 @@
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B88" s="5">
         <v>44013</v>
@@ -80348,12 +80365,12 @@
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B89" s="5">
         <v>44105</v>
@@ -80365,12 +80382,12 @@
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B90" s="5">
         <v>44197</v>
@@ -80382,12 +80399,12 @@
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B91" s="5">
         <v>44287</v>
@@ -80399,12 +80416,12 @@
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B92" s="5">
         <v>44378</v>
@@ -80416,12 +80433,12 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B93" s="5">
         <v>44470</v>
@@ -80433,12 +80450,12 @@
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B94" s="5">
         <v>44562</v>
@@ -80450,12 +80467,12 @@
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B95" s="5">
         <v>44652</v>
@@ -80467,12 +80484,12 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B96" s="5">
         <v>44743</v>
@@ -80484,12 +80501,12 @@
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B97" s="5">
         <v>44835</v>
@@ -80501,7 +80518,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/15/2023</t>
+    <t xml:space="preserve"> 05/19/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/19/2023</t>
+    <t xml:space="preserve"> 05/22/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/22/2023</t>
+    <t xml:space="preserve"> 05/24/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/24/2023</t>
+    <t xml:space="preserve"> 05/30/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/30/2023</t>
+    <t xml:space="preserve"> 05/31/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/31/2023</t>
+    <t xml:space="preserve"> 06/05/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 06/05/2023</t>
+    <t xml:space="preserve"> 06/06/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 06/06/2023</t>
+    <t xml:space="preserve"> 06/28/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11290" uniqueCount="1801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11252" uniqueCount="1764">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 06/28/2023</t>
+    <t xml:space="preserve"> 07/07/2023</t>
   </si>
   <si>
     <t>Sección</t>
@@ -5261,15 +5261,24 @@
     <t/>
   </si>
   <si>
+    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
   </si>
   <si>
@@ -5285,142 +5294,22 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t/>
@@ -78459,7 +78348,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D66"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -79369,6 +79258,20 @@
         <v>16019</v>
       </c>
       <c r="D65" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5">
+        <v>44927</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C66" s="4">
+        <v>13195</v>
+      </c>
+      <c r="D66" t="s">
         <v>1735</v>
       </c>
     </row>
@@ -79378,7 +79281,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E77"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -79406,10 +79309,10 @@
         <v>36161</v>
       </c>
       <c r="C2" s="4">
-        <v>1.8647880000000001</v>
+        <v>0.246887</v>
       </c>
       <c r="D2" s="4">
-        <v>1.8647880000000001</v>
+        <v>0.246887</v>
       </c>
       <c r="E2" t="s">
         <v>1742</v>
@@ -79420,13 +79323,13 @@
         <v>1737</v>
       </c>
       <c r="B3" s="5">
-        <v>36251</v>
+        <v>36526</v>
       </c>
       <c r="C3" s="4">
-        <v>6.3323</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>6.3323</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>1743</v>
@@ -79437,16 +79340,16 @@
         <v>1737</v>
       </c>
       <c r="B4" s="5">
-        <v>36342</v>
+        <v>36892</v>
       </c>
       <c r="C4" s="4">
-        <v>0.88144599999999995</v>
+        <v>0.037081999999999997</v>
       </c>
       <c r="D4" s="4">
-        <v>0.88144599999999995</v>
+        <v>0.037081999999999997</v>
       </c>
       <c r="E4" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="5">
@@ -79454,16 +79357,16 @@
         <v>1737</v>
       </c>
       <c r="B5" s="5">
-        <v>36434</v>
+        <v>37257</v>
       </c>
       <c r="C5" s="4">
-        <v>7.9705779999999997</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>7.9705779999999997</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="6">
@@ -79471,16 +79374,16 @@
         <v>1737</v>
       </c>
       <c r="B6" s="5">
-        <v>36526</v>
+        <v>37622</v>
       </c>
       <c r="C6" s="4">
-        <v>9.9512909999999994</v>
+        <v>-0.28429100000000002</v>
       </c>
       <c r="D6" s="4">
-        <v>9.9512909999999994</v>
+        <v>-0.28429100000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="7">
@@ -79488,16 +79391,16 @@
         <v>1737</v>
       </c>
       <c r="B7" s="5">
-        <v>36617</v>
+        <v>37987</v>
       </c>
       <c r="C7" s="4">
-        <v>4.0929969999999996</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>4.0929969999999996</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="8">
@@ -79505,16 +79408,16 @@
         <v>1737</v>
       </c>
       <c r="B8" s="5">
-        <v>36708</v>
+        <v>38353</v>
       </c>
       <c r="C8" s="4">
-        <v>5.0257550000000002</v>
+        <v>0</v>
       </c>
       <c r="D8" s="4">
-        <v>5.0257550000000002</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="9">
@@ -79522,16 +79425,16 @@
         <v>1737</v>
       </c>
       <c r="B9" s="5">
-        <v>36800</v>
+        <v>38718</v>
       </c>
       <c r="C9" s="4">
-        <v>36.499832000000005</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>36.499832000000005</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="10">
@@ -79539,16 +79442,16 @@
         <v>1737</v>
       </c>
       <c r="B10" s="5">
-        <v>36892</v>
+        <v>38808</v>
       </c>
       <c r="C10" s="4">
-        <v>3.2223809999999999</v>
+        <v>-0.62884499999999999</v>
       </c>
       <c r="D10" s="4">
-        <v>3.2223809999999999</v>
+        <v>-0.62884499999999999</v>
       </c>
       <c r="E10" t="s">
-        <v>1750</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="11">
@@ -79556,16 +79459,16 @@
         <v>1737</v>
       </c>
       <c r="B11" s="5">
-        <v>36982</v>
+        <v>38899</v>
       </c>
       <c r="C11" s="4">
-        <v>3.1597689999999998</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4">
-        <v>3.1597689999999998</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>1751</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="12">
@@ -79573,16 +79476,16 @@
         <v>1737</v>
       </c>
       <c r="B12" s="5">
-        <v>37073</v>
+        <v>38991</v>
       </c>
       <c r="C12" s="4">
-        <v>10.741318</v>
+        <v>0</v>
       </c>
       <c r="D12" s="4">
-        <v>10.741318</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>1752</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="13">
@@ -79590,16 +79493,16 @@
         <v>1737</v>
       </c>
       <c r="B13" s="5">
-        <v>37165</v>
+        <v>39083</v>
       </c>
       <c r="C13" s="4">
-        <v>10.570994000000001</v>
+        <v>0.69270100000000001</v>
       </c>
       <c r="D13" s="4">
-        <v>10.570994000000001</v>
+        <v>0.69270100000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>1753</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="14">
@@ -79607,16 +79510,16 @@
         <v>1737</v>
       </c>
       <c r="B14" s="5">
-        <v>37257</v>
+        <v>39173</v>
       </c>
       <c r="C14" s="4">
-        <v>20.958390999999999</v>
+        <v>1.6546639999999999</v>
       </c>
       <c r="D14" s="4">
-        <v>20.958390999999999</v>
+        <v>1.6546639999999999</v>
       </c>
       <c r="E14" t="s">
-        <v>1753</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="15">
@@ -79624,16 +79527,16 @@
         <v>1737</v>
       </c>
       <c r="B15" s="5">
-        <v>37347</v>
+        <v>39264</v>
       </c>
       <c r="C15" s="4">
-        <v>14.212596000000001</v>
+        <v>0</v>
       </c>
       <c r="D15" s="4">
-        <v>14.212596000000001</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>1754</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="16">
@@ -79641,16 +79544,16 @@
         <v>1737</v>
       </c>
       <c r="B16" s="5">
-        <v>37438</v>
+        <v>39356</v>
       </c>
       <c r="C16" s="4">
-        <v>8.3149080000000009</v>
+        <v>0</v>
       </c>
       <c r="D16" s="4">
-        <v>8.3149080000000009</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>1755</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="17">
@@ -79658,16 +79561,16 @@
         <v>1737</v>
       </c>
       <c r="B17" s="5">
-        <v>37530</v>
+        <v>39448</v>
       </c>
       <c r="C17" s="4">
-        <v>10.442649000000001</v>
+        <v>0</v>
       </c>
       <c r="D17" s="4">
-        <v>10.442649000000001</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="18">
@@ -79675,16 +79578,16 @@
         <v>1737</v>
       </c>
       <c r="B18" s="5">
-        <v>37622</v>
+        <v>39539</v>
       </c>
       <c r="C18" s="4">
-        <v>12.814825000000001</v>
+        <v>0</v>
       </c>
       <c r="D18" s="4">
-        <v>12.814825000000001</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>1757</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="19">
@@ -79692,7 +79595,7 @@
         <v>1737</v>
       </c>
       <c r="B19" s="5">
-        <v>37712</v>
+        <v>39630</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -79701,7 +79604,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>1758</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="20">
@@ -79709,16 +79612,16 @@
         <v>1737</v>
       </c>
       <c r="B20" s="5">
-        <v>37803</v>
+        <v>39722</v>
       </c>
       <c r="C20" s="4">
-        <v>13.039013000000001</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4">
-        <v>13.039013000000001</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>1758</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="21">
@@ -79726,16 +79629,16 @@
         <v>1737</v>
       </c>
       <c r="B21" s="5">
-        <v>37895</v>
+        <v>39814</v>
       </c>
       <c r="C21" s="4">
-        <v>1.955627</v>
+        <v>0</v>
       </c>
       <c r="D21" s="4">
-        <v>1.955627</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>1759</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="22">
@@ -79743,7 +79646,7 @@
         <v>1737</v>
       </c>
       <c r="B22" s="5">
-        <v>37987</v>
+        <v>39904</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
@@ -79752,7 +79655,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="23">
@@ -79760,7 +79663,7 @@
         <v>1737</v>
       </c>
       <c r="B23" s="5">
-        <v>38078</v>
+        <v>39995</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
@@ -79769,7 +79672,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="24">
@@ -79777,16 +79680,16 @@
         <v>1737</v>
       </c>
       <c r="B24" s="5">
-        <v>38169</v>
+        <v>40087</v>
       </c>
       <c r="C24" s="4">
-        <v>0.63998299999999997</v>
+        <v>0</v>
       </c>
       <c r="D24" s="4">
-        <v>0.63998299999999997</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="25">
@@ -79794,16 +79697,16 @@
         <v>1737</v>
       </c>
       <c r="B25" s="5">
-        <v>38261</v>
+        <v>40179</v>
       </c>
       <c r="C25" s="4">
-        <v>-9.9165720000000004</v>
+        <v>0</v>
       </c>
       <c r="D25" s="4">
-        <v>-9.9165720000000004</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="26">
@@ -79811,7 +79714,7 @@
         <v>1737</v>
       </c>
       <c r="B26" s="5">
-        <v>38353</v>
+        <v>40269</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
@@ -79820,7 +79723,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="27">
@@ -79828,16 +79731,16 @@
         <v>1737</v>
       </c>
       <c r="B27" s="5">
-        <v>38443</v>
+        <v>40360</v>
       </c>
       <c r="C27" s="4">
-        <v>0.38894899999999999</v>
+        <v>0</v>
       </c>
       <c r="D27" s="4">
-        <v>0.38894899999999999</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="28">
@@ -79845,7 +79748,7 @@
         <v>1737</v>
       </c>
       <c r="B28" s="5">
-        <v>38534</v>
+        <v>40452</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -79854,7 +79757,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="29">
@@ -79862,7 +79765,7 @@
         <v>1737</v>
       </c>
       <c r="B29" s="5">
-        <v>38626</v>
+        <v>40544</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
@@ -79871,7 +79774,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="30">
@@ -79879,7 +79782,7 @@
         <v>1737</v>
       </c>
       <c r="B30" s="5">
-        <v>38718</v>
+        <v>40634</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -79888,7 +79791,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="31">
@@ -79896,16 +79799,16 @@
         <v>1737</v>
       </c>
       <c r="B31" s="5">
-        <v>38808</v>
+        <v>40725</v>
       </c>
       <c r="C31" s="4">
-        <v>1.7387809999999999</v>
+        <v>0</v>
       </c>
       <c r="D31" s="4">
-        <v>1.7387809999999999</v>
+        <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>1761</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="32">
@@ -79913,7 +79816,7 @@
         <v>1737</v>
       </c>
       <c r="B32" s="5">
-        <v>38899</v>
+        <v>40817</v>
       </c>
       <c r="C32" s="4">
         <v>0</v>
@@ -79922,7 +79825,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>1762</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="33">
@@ -79930,7 +79833,7 @@
         <v>1737</v>
       </c>
       <c r="B33" s="5">
-        <v>38991</v>
+        <v>40909</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
@@ -79939,7 +79842,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>1762</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="34">
@@ -79947,16 +79850,16 @@
         <v>1737</v>
       </c>
       <c r="B34" s="5">
-        <v>39083</v>
+        <v>41000</v>
       </c>
       <c r="C34" s="4">
-        <v>0.69270100000000001</v>
+        <v>0</v>
       </c>
       <c r="D34" s="4">
-        <v>0.69270100000000001</v>
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>1762</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="35">
@@ -79964,16 +79867,16 @@
         <v>1737</v>
       </c>
       <c r="B35" s="5">
-        <v>39173</v>
+        <v>41091</v>
       </c>
       <c r="C35" s="4">
-        <v>-0.90290000000000004</v>
+        <v>0</v>
       </c>
       <c r="D35" s="4">
-        <v>-0.90290000000000004</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>1762</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="36">
@@ -79981,7 +79884,7 @@
         <v>1737</v>
       </c>
       <c r="B36" s="5">
-        <v>39264</v>
+        <v>41183</v>
       </c>
       <c r="C36" s="4">
         <v>0</v>
@@ -79990,7 +79893,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>1762</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="37">
@@ -79998,7 +79901,7 @@
         <v>1737</v>
       </c>
       <c r="B37" s="5">
-        <v>39356</v>
+        <v>41275</v>
       </c>
       <c r="C37" s="4">
         <v>0</v>
@@ -80007,7 +79910,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>1762</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="38">
@@ -80015,7 +79918,7 @@
         <v>1737</v>
       </c>
       <c r="B38" s="5">
-        <v>39448</v>
+        <v>41365</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -80024,7 +79927,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>1762</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="39">
@@ -80032,16 +79935,16 @@
         <v>1737</v>
       </c>
       <c r="B39" s="5">
-        <v>39539</v>
+        <v>41456</v>
       </c>
       <c r="C39" s="4">
-        <v>0</v>
+        <v>-0.380328</v>
       </c>
       <c r="D39" s="4">
-        <v>0</v>
+        <v>-0.380328</v>
       </c>
       <c r="E39" t="s">
-        <v>1762</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="40">
@@ -80049,7 +79952,7 @@
         <v>1737</v>
       </c>
       <c r="B40" s="5">
-        <v>39630</v>
+        <v>41548</v>
       </c>
       <c r="C40" s="4">
         <v>0</v>
@@ -80058,7 +79961,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>1762</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="41">
@@ -80066,7 +79969,7 @@
         <v>1737</v>
       </c>
       <c r="B41" s="5">
-        <v>39722</v>
+        <v>41640</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
@@ -80075,7 +79978,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>1762</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="42">
@@ -80083,7 +79986,7 @@
         <v>1737</v>
       </c>
       <c r="B42" s="5">
-        <v>39814</v>
+        <v>41730</v>
       </c>
       <c r="C42" s="4">
         <v>0</v>
@@ -80092,7 +79995,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>1762</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="43">
@@ -80100,7 +80003,7 @@
         <v>1737</v>
       </c>
       <c r="B43" s="5">
-        <v>39904</v>
+        <v>41821</v>
       </c>
       <c r="C43" s="4">
         <v>0</v>
@@ -80109,7 +80012,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>1762</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="44">
@@ -80117,7 +80020,7 @@
         <v>1737</v>
       </c>
       <c r="B44" s="5">
-        <v>39995</v>
+        <v>41913</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
@@ -80126,7 +80029,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>1762</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="45">
@@ -80134,7 +80037,7 @@
         <v>1737</v>
       </c>
       <c r="B45" s="5">
-        <v>40087</v>
+        <v>42005</v>
       </c>
       <c r="C45" s="4">
         <v>0</v>
@@ -80143,7 +80046,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>1762</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="46">
@@ -80151,7 +80054,7 @@
         <v>1737</v>
       </c>
       <c r="B46" s="5">
-        <v>40179</v>
+        <v>42095</v>
       </c>
       <c r="C46" s="4">
         <v>0</v>
@@ -80160,7 +80063,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>1762</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="47">
@@ -80168,7 +80071,7 @@
         <v>1737</v>
       </c>
       <c r="B47" s="5">
-        <v>40269</v>
+        <v>42186</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -80177,7 +80080,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>1762</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="48">
@@ -80185,7 +80088,7 @@
         <v>1737</v>
       </c>
       <c r="B48" s="5">
-        <v>40360</v>
+        <v>42278</v>
       </c>
       <c r="C48" s="4">
         <v>0</v>
@@ -80194,7 +80097,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>1762</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="49">
@@ -80202,7 +80105,7 @@
         <v>1737</v>
       </c>
       <c r="B49" s="5">
-        <v>40452</v>
+        <v>42370</v>
       </c>
       <c r="C49" s="4">
         <v>0</v>
@@ -80211,7 +80114,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>1762</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="50">
@@ -80219,7 +80122,7 @@
         <v>1737</v>
       </c>
       <c r="B50" s="5">
-        <v>40544</v>
+        <v>42461</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
@@ -80228,7 +80131,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="51">
@@ -80236,7 +80139,7 @@
         <v>1737</v>
       </c>
       <c r="B51" s="5">
-        <v>40634</v>
+        <v>42552</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -80245,7 +80148,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>1762</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="52">
@@ -80253,7 +80156,7 @@
         <v>1737</v>
       </c>
       <c r="B52" s="5">
-        <v>40725</v>
+        <v>42644</v>
       </c>
       <c r="C52" s="4">
         <v>0</v>
@@ -80262,7 +80165,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>1763</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="53">
@@ -80270,16 +80173,16 @@
         <v>1737</v>
       </c>
       <c r="B53" s="5">
-        <v>40817</v>
+        <v>42736</v>
       </c>
       <c r="C53" s="4">
-        <v>0</v>
+        <v>2.4929448000000001</v>
       </c>
       <c r="D53" s="4">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>1764</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="54">
@@ -80287,16 +80190,16 @@
         <v>1737</v>
       </c>
       <c r="B54" s="5">
-        <v>40909</v>
+        <v>42826</v>
       </c>
       <c r="C54" s="4">
-        <v>0</v>
+        <v>44.908611200000003</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="55">
@@ -80304,16 +80207,16 @@
         <v>1737</v>
       </c>
       <c r="B55" s="5">
-        <v>41000</v>
+        <v>42917</v>
       </c>
       <c r="C55" s="4">
-        <v>0</v>
+        <v>-0.64303284000000005</v>
       </c>
       <c r="D55" s="4">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>1766</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="56">
@@ -80321,16 +80224,16 @@
         <v>1737</v>
       </c>
       <c r="B56" s="5">
-        <v>41091</v>
+        <v>43009</v>
       </c>
       <c r="C56" s="4">
-        <v>0</v>
+        <v>-0.33114304999999999</v>
       </c>
       <c r="D56" s="4">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>1767</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="57">
@@ -80338,7 +80241,7 @@
         <v>1737</v>
       </c>
       <c r="B57" s="5">
-        <v>41183</v>
+        <v>43101</v>
       </c>
       <c r="C57" s="4">
         <v>0</v>
@@ -80347,7 +80250,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>1768</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="58">
@@ -80355,7 +80258,7 @@
         <v>1737</v>
       </c>
       <c r="B58" s="5">
-        <v>41275</v>
+        <v>43191</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -80364,7 +80267,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>1769</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="59">
@@ -80372,16 +80275,16 @@
         <v>1737</v>
       </c>
       <c r="B59" s="5">
-        <v>41365</v>
+        <v>43282</v>
       </c>
       <c r="C59" s="4">
-        <v>0</v>
+        <v>10.474154</v>
       </c>
       <c r="D59" s="4">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>1769</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="60">
@@ -80389,16 +80292,16 @@
         <v>1737</v>
       </c>
       <c r="B60" s="5">
-        <v>41456</v>
+        <v>43374</v>
       </c>
       <c r="C60" s="4">
-        <v>0</v>
+        <v>1.2704790100000001</v>
       </c>
       <c r="D60" s="4">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>1770</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="61">
@@ -80406,7 +80309,7 @@
         <v>1737</v>
       </c>
       <c r="B61" s="5">
-        <v>41548</v>
+        <v>43466</v>
       </c>
       <c r="C61" s="4">
         <v>0</v>
@@ -80415,7 +80318,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="62">
@@ -80423,7 +80326,7 @@
         <v>1737</v>
       </c>
       <c r="B62" s="5">
-        <v>41640</v>
+        <v>43556</v>
       </c>
       <c r="C62" s="4">
         <v>0</v>
@@ -80432,7 +80335,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="63">
@@ -80440,7 +80343,7 @@
         <v>1737</v>
       </c>
       <c r="B63" s="5">
-        <v>41730</v>
+        <v>43647</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
@@ -80449,7 +80352,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>1773</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="64">
@@ -80457,7 +80360,7 @@
         <v>1737</v>
       </c>
       <c r="B64" s="5">
-        <v>41821</v>
+        <v>43739</v>
       </c>
       <c r="C64" s="4">
         <v>0</v>
@@ -80466,7 +80369,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>1774</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="65">
@@ -80474,7 +80377,7 @@
         <v>1737</v>
       </c>
       <c r="B65" s="5">
-        <v>41913</v>
+        <v>43831</v>
       </c>
       <c r="C65" s="4">
         <v>0</v>
@@ -80483,7 +80386,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>1775</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="66">
@@ -80491,7 +80394,7 @@
         <v>1737</v>
       </c>
       <c r="B66" s="5">
-        <v>42005</v>
+        <v>43922</v>
       </c>
       <c r="C66" s="4">
         <v>0</v>
@@ -80500,7 +80403,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>1776</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="67">
@@ -80508,7 +80411,7 @@
         <v>1737</v>
       </c>
       <c r="B67" s="5">
-        <v>42095</v>
+        <v>44013</v>
       </c>
       <c r="C67" s="4">
         <v>0</v>
@@ -80517,7 +80420,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>1777</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="68">
@@ -80525,7 +80428,7 @@
         <v>1737</v>
       </c>
       <c r="B68" s="5">
-        <v>42186</v>
+        <v>44105</v>
       </c>
       <c r="C68" s="4">
         <v>0</v>
@@ -80534,7 +80437,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>1778</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="69">
@@ -80542,7 +80445,7 @@
         <v>1737</v>
       </c>
       <c r="B69" s="5">
-        <v>42278</v>
+        <v>44197</v>
       </c>
       <c r="C69" s="4">
         <v>0</v>
@@ -80551,7 +80454,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>1779</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="70">
@@ -80559,16 +80462,16 @@
         <v>1737</v>
       </c>
       <c r="B70" s="5">
-        <v>42370</v>
+        <v>44287</v>
       </c>
       <c r="C70" s="4">
-        <v>0.61121135999999998</v>
+        <v>0</v>
       </c>
       <c r="D70" s="4">
-        <v>0.61121135999999998</v>
+        <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>1780</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="71">
@@ -80576,7 +80479,7 @@
         <v>1737</v>
       </c>
       <c r="B71" s="5">
-        <v>42461</v>
+        <v>44378</v>
       </c>
       <c r="C71" s="4">
         <v>0</v>
@@ -80585,7 +80488,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>1781</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="72">
@@ -80593,7 +80496,7 @@
         <v>1737</v>
       </c>
       <c r="B72" s="5">
-        <v>42552</v>
+        <v>44470</v>
       </c>
       <c r="C72" s="4">
         <v>0</v>
@@ -80602,7 +80505,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>1781</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="73">
@@ -80610,7 +80513,7 @@
         <v>1737</v>
       </c>
       <c r="B73" s="5">
-        <v>42644</v>
+        <v>44562</v>
       </c>
       <c r="C73" s="4">
         <v>0</v>
@@ -80619,7 +80522,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>1781</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="74">
@@ -80627,7 +80530,7 @@
         <v>1737</v>
       </c>
       <c r="B74" s="5">
-        <v>42736</v>
+        <v>44652</v>
       </c>
       <c r="C74" s="4">
         <v>0</v>
@@ -80636,7 +80539,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>1781</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="75">
@@ -80644,7 +80547,7 @@
         <v>1737</v>
       </c>
       <c r="B75" s="5">
-        <v>42826</v>
+        <v>44743</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
@@ -80653,7 +80556,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>1782</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="76">
@@ -80661,7 +80564,7 @@
         <v>1737</v>
       </c>
       <c r="B76" s="5">
-        <v>42917</v>
+        <v>44835</v>
       </c>
       <c r="C76" s="4">
         <v>0</v>
@@ -80670,7 +80573,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>1783</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="77">
@@ -80678,356 +80581,16 @@
         <v>1737</v>
       </c>
       <c r="B77" s="5">
-        <v>43009</v>
+        <v>44927</v>
       </c>
       <c r="C77" s="4">
-        <v>-0.30533013999999997</v>
+        <v>0</v>
       </c>
       <c r="D77" s="4">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B78" s="5">
-        <v>43101</v>
-      </c>
-      <c r="C78" s="4">
-        <v>0</v>
-      </c>
-      <c r="D78" s="4">
-        <v>0</v>
-      </c>
-      <c r="E78" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B79" s="5">
-        <v>43191</v>
-      </c>
-      <c r="C79" s="4">
-        <v>0</v>
-      </c>
-      <c r="D79" s="4">
-        <v>0</v>
-      </c>
-      <c r="E79" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B80" s="5">
-        <v>43282</v>
-      </c>
-      <c r="C80" s="4">
-        <v>0</v>
-      </c>
-      <c r="D80" s="4">
-        <v>0</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B81" s="5">
-        <v>43374</v>
-      </c>
-      <c r="C81" s="4">
-        <v>0</v>
-      </c>
-      <c r="D81" s="4">
-        <v>0</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B82" s="5">
-        <v>43466</v>
-      </c>
-      <c r="C82" s="4">
-        <v>0</v>
-      </c>
-      <c r="D82" s="4">
-        <v>0</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B83" s="5">
-        <v>43556</v>
-      </c>
-      <c r="C83" s="4">
-        <v>0</v>
-      </c>
-      <c r="D83" s="4">
-        <v>0</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B84" s="5">
-        <v>43647</v>
-      </c>
-      <c r="C84" s="4">
-        <v>0</v>
-      </c>
-      <c r="D84" s="4">
-        <v>0</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B85" s="5">
-        <v>43739</v>
-      </c>
-      <c r="C85" s="4">
-        <v>0</v>
-      </c>
-      <c r="D85" s="4">
-        <v>0</v>
-      </c>
-      <c r="E85" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B86" s="5">
-        <v>43831</v>
-      </c>
-      <c r="C86" s="4">
-        <v>0</v>
-      </c>
-      <c r="D86" s="4">
-        <v>0</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B87" s="5">
-        <v>43922</v>
-      </c>
-      <c r="C87" s="4">
-        <v>0</v>
-      </c>
-      <c r="D87" s="4">
-        <v>0</v>
-      </c>
-      <c r="E87" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B88" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C88" s="4">
-        <v>0</v>
-      </c>
-      <c r="D88" s="4">
-        <v>0</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B89" s="5">
-        <v>44105</v>
-      </c>
-      <c r="C89" s="4">
-        <v>0</v>
-      </c>
-      <c r="D89" s="4">
-        <v>0</v>
-      </c>
-      <c r="E89" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B90" s="5">
-        <v>44197</v>
-      </c>
-      <c r="C90" s="4">
-        <v>0</v>
-      </c>
-      <c r="D90" s="4">
-        <v>0</v>
-      </c>
-      <c r="E90" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B91" s="5">
-        <v>44287</v>
-      </c>
-      <c r="C91" s="4">
-        <v>0</v>
-      </c>
-      <c r="D91" s="4">
-        <v>0</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B92" s="5">
-        <v>44378</v>
-      </c>
-      <c r="C92" s="4">
-        <v>0</v>
-      </c>
-      <c r="D92" s="4">
-        <v>0</v>
-      </c>
-      <c r="E92" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B93" s="5">
-        <v>44470</v>
-      </c>
-      <c r="C93" s="4">
-        <v>0</v>
-      </c>
-      <c r="D93" s="4">
-        <v>0</v>
-      </c>
-      <c r="E93" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B94" s="5">
-        <v>44562</v>
-      </c>
-      <c r="C94" s="4">
-        <v>0</v>
-      </c>
-      <c r="D94" s="4">
-        <v>0</v>
-      </c>
-      <c r="E94" t="s">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B95" s="5">
-        <v>44652</v>
-      </c>
-      <c r="C95" s="4">
-        <v>0</v>
-      </c>
-      <c r="D95" s="4">
-        <v>0</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B96" s="5">
-        <v>44743</v>
-      </c>
-      <c r="C96" s="4">
-        <v>0</v>
-      </c>
-      <c r="D96" s="4">
-        <v>0</v>
-      </c>
-      <c r="E96" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B97" s="5">
-        <v>44835</v>
-      </c>
-      <c r="C97" s="4">
-        <v>0</v>
-      </c>
-      <c r="D97" s="4">
-        <v>0</v>
-      </c>
-      <c r="E97" t="s">
-        <v>1800</v>
+        <v>1763</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 07/07/2023</t>
+    <t xml:space="preserve"> 07/31/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08/09/2023</t>
+    <t xml:space="preserve"> 08/29/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11270" uniqueCount="1764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11272" uniqueCount="1765">
   <si>
     <t>Base de datos</t>
   </si>
@@ -5319,6 +5319,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
   </si>
   <si>
     <t/>
@@ -79419,7 +79422,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -80731,6 +80734,23 @@
         <v>1763</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B78" s="5">
+        <v>45017</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1764</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11281" uniqueCount="1765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11283" uniqueCount="1766">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 09/06/2023</t>
+    <t xml:space="preserve"> 10/02/2023</t>
   </si>
   <si>
     <t>Sección</t>
@@ -5238,6 +5238,9 @@
   </si>
   <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Industria</t>
@@ -78558,7 +78561,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D67"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -79483,6 +79486,20 @@
       </c>
       <c r="D66" t="s">
         <v>1735</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5">
+        <v>45017</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C67" s="4">
+        <v>15457</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1736</v>
       </c>
     </row>
   </sheetData>
@@ -79496,24 +79513,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B1" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="C1" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="D1" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="E1" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B2" s="5">
         <v>36161</v>
@@ -79525,12 +79542,12 @@
         <v>0.246887</v>
       </c>
       <c r="E2" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B3" s="5">
         <v>36526</v>
@@ -79542,12 +79559,12 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B4" s="5">
         <v>36892</v>
@@ -79559,12 +79576,12 @@
         <v>0.037081999999999997</v>
       </c>
       <c r="E4" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B5" s="5">
         <v>37257</v>
@@ -79576,12 +79593,12 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B6" s="5">
         <v>37622</v>
@@ -79593,12 +79610,12 @@
         <v>-0.28429100000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B7" s="5">
         <v>37987</v>
@@ -79610,12 +79627,12 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B8" s="5">
         <v>38353</v>
@@ -79627,12 +79644,12 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B9" s="5">
         <v>38718</v>
@@ -79644,12 +79661,12 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B10" s="5">
         <v>38808</v>
@@ -79661,12 +79678,12 @@
         <v>-0.62884499999999999</v>
       </c>
       <c r="E10" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B11" s="5">
         <v>38899</v>
@@ -79678,12 +79695,12 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B12" s="5">
         <v>38991</v>
@@ -79695,12 +79712,12 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B13" s="5">
         <v>39083</v>
@@ -79712,12 +79729,12 @@
         <v>0.69270100000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B14" s="5">
         <v>39173</v>
@@ -79729,12 +79746,12 @@
         <v>1.6546639999999999</v>
       </c>
       <c r="E14" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B15" s="5">
         <v>39264</v>
@@ -79746,12 +79763,12 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B16" s="5">
         <v>39356</v>
@@ -79763,12 +79780,12 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B17" s="5">
         <v>39448</v>
@@ -79780,12 +79797,12 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B18" s="5">
         <v>39539</v>
@@ -79797,12 +79814,12 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B19" s="5">
         <v>39630</v>
@@ -79814,12 +79831,12 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B20" s="5">
         <v>39722</v>
@@ -79831,12 +79848,12 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B21" s="5">
         <v>39814</v>
@@ -79848,12 +79865,12 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B22" s="5">
         <v>39904</v>
@@ -79865,12 +79882,12 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B23" s="5">
         <v>39995</v>
@@ -79882,12 +79899,12 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B24" s="5">
         <v>40087</v>
@@ -79899,12 +79916,12 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B25" s="5">
         <v>40179</v>
@@ -79916,12 +79933,12 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B26" s="5">
         <v>40269</v>
@@ -79933,12 +79950,12 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B27" s="5">
         <v>40360</v>
@@ -79950,12 +79967,12 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B28" s="5">
         <v>40452</v>
@@ -79967,12 +79984,12 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B29" s="5">
         <v>40544</v>
@@ -79984,12 +80001,12 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B30" s="5">
         <v>40634</v>
@@ -80001,12 +80018,12 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B31" s="5">
         <v>40725</v>
@@ -80018,12 +80035,12 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B32" s="5">
         <v>40817</v>
@@ -80035,12 +80052,12 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B33" s="5">
         <v>40909</v>
@@ -80052,12 +80069,12 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B34" s="5">
         <v>41000</v>
@@ -80069,12 +80086,12 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B35" s="5">
         <v>41091</v>
@@ -80086,12 +80103,12 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B36" s="5">
         <v>41183</v>
@@ -80103,12 +80120,12 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B37" s="5">
         <v>41275</v>
@@ -80120,12 +80137,12 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B38" s="5">
         <v>41365</v>
@@ -80137,12 +80154,12 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B39" s="5">
         <v>41456</v>
@@ -80154,12 +80171,12 @@
         <v>-0.380328</v>
       </c>
       <c r="E39" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B40" s="5">
         <v>41548</v>
@@ -80171,12 +80188,12 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B41" s="5">
         <v>41640</v>
@@ -80188,12 +80205,12 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B42" s="5">
         <v>41730</v>
@@ -80205,12 +80222,12 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B43" s="5">
         <v>41821</v>
@@ -80222,12 +80239,12 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B44" s="5">
         <v>41913</v>
@@ -80239,12 +80256,12 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B45" s="5">
         <v>42005</v>
@@ -80256,12 +80273,12 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B46" s="5">
         <v>42095</v>
@@ -80273,12 +80290,12 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B47" s="5">
         <v>42186</v>
@@ -80290,12 +80307,12 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B48" s="5">
         <v>42278</v>
@@ -80307,12 +80324,12 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B49" s="5">
         <v>42370</v>
@@ -80324,12 +80341,12 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B50" s="5">
         <v>42461</v>
@@ -80341,12 +80358,12 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B51" s="5">
         <v>42552</v>
@@ -80358,12 +80375,12 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B52" s="5">
         <v>42644</v>
@@ -80375,12 +80392,12 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B53" s="5">
         <v>42736</v>
@@ -80392,12 +80409,12 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B54" s="5">
         <v>42826</v>
@@ -80409,12 +80426,12 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B55" s="5">
         <v>42917</v>
@@ -80426,12 +80443,12 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B56" s="5">
         <v>43009</v>
@@ -80443,12 +80460,12 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B57" s="5">
         <v>43101</v>
@@ -80460,12 +80477,12 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B58" s="5">
         <v>43191</v>
@@ -80477,12 +80494,12 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B59" s="5">
         <v>43282</v>
@@ -80494,12 +80511,12 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B60" s="5">
         <v>43374</v>
@@ -80511,12 +80528,12 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B61" s="5">
         <v>43466</v>
@@ -80528,12 +80545,12 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B62" s="5">
         <v>43556</v>
@@ -80545,12 +80562,12 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B63" s="5">
         <v>43647</v>
@@ -80562,12 +80579,12 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B64" s="5">
         <v>43739</v>
@@ -80579,12 +80596,12 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B65" s="5">
         <v>43831</v>
@@ -80596,12 +80613,12 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B66" s="5">
         <v>43922</v>
@@ -80613,12 +80630,12 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B67" s="5">
         <v>44013</v>
@@ -80630,12 +80647,12 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B68" s="5">
         <v>44105</v>
@@ -80647,12 +80664,12 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B69" s="5">
         <v>44197</v>
@@ -80664,12 +80681,12 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B70" s="5">
         <v>44287</v>
@@ -80681,12 +80698,12 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B71" s="5">
         <v>44378</v>
@@ -80698,12 +80715,12 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B72" s="5">
         <v>44470</v>
@@ -80715,12 +80732,12 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B73" s="5">
         <v>44562</v>
@@ -80732,12 +80749,12 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B74" s="5">
         <v>44652</v>
@@ -80749,12 +80766,12 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B75" s="5">
         <v>44743</v>
@@ -80766,12 +80783,12 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B76" s="5">
         <v>44835</v>
@@ -80783,12 +80800,12 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B77" s="5">
         <v>44927</v>
@@ -80800,12 +80817,12 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B78" s="5">
         <v>45017</v>
@@ -80817,7 +80834,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 10/02/2023</t>
+    <t xml:space="preserve"> 10/03/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -5954,13 +5954,13 @@
         <v>2003</v>
       </c>
       <c r="D2" s="4">
-        <v>794957.32200000004</v>
+        <v>1212171.1969999999</v>
       </c>
       <c r="E2" s="4">
-        <v>9468.7009999999991</v>
+        <v>12480.641</v>
       </c>
       <c r="F2" s="4">
-        <v>0.011910955139299916</v>
+        <v>0.010296104239144037</v>
       </c>
     </row>
     <row r="3">
@@ -5974,13 +5974,13 @@
         <v>2004</v>
       </c>
       <c r="D3" s="4">
-        <v>819238.31000000006</v>
+        <v>1246901.3899999999</v>
       </c>
       <c r="E3" s="4">
-        <v>9378.3850000000002</v>
+        <v>12433.951999999999</v>
       </c>
       <c r="F3" s="4">
-        <v>0.011447688524234174</v>
+        <v>0.0099718807755920461</v>
       </c>
     </row>
     <row r="4">
@@ -5994,13 +5994,13 @@
         <v>2005</v>
       </c>
       <c r="D4" s="4">
-        <v>842128.81299999997</v>
+        <v>1274855.8219999999</v>
       </c>
       <c r="E4" s="4">
-        <v>8914.7479999999996</v>
+        <v>12140.023000000001</v>
       </c>
       <c r="F4" s="4">
-        <v>0.010585967208795646</v>
+        <v>0.0095226634969236557</v>
       </c>
     </row>
     <row r="5">
@@ -6014,13 +6014,13 @@
         <v>2006</v>
       </c>
       <c r="D5" s="4">
-        <v>886009.72600000002</v>
+        <v>1340006.101</v>
       </c>
       <c r="E5" s="4">
-        <v>9373.7340000000004</v>
+        <v>12105.100999999999</v>
       </c>
       <c r="F5" s="4">
-        <v>0.010579719076356957</v>
+        <v>0.0090336163327662325</v>
       </c>
     </row>
     <row r="6">
@@ -6034,13 +6034,13 @@
         <v>2007</v>
       </c>
       <c r="D6" s="4">
-        <v>913139.83400000003</v>
+        <v>1380125.9169999999</v>
       </c>
       <c r="E6" s="4">
-        <v>8638.1990000000005</v>
+        <v>11331.982</v>
       </c>
       <c r="F6" s="4">
-        <v>0.009459886293822552</v>
+        <v>0.0082108319686021811</v>
       </c>
     </row>
     <row r="7">
@@ -6054,13 +6054,13 @@
         <v>2008</v>
       </c>
       <c r="D7" s="4">
-        <v>918573.45600000001</v>
+        <v>1408019.743</v>
       </c>
       <c r="E7" s="4">
-        <v>7714.5879999999997</v>
+        <v>9788.6010000000006</v>
       </c>
       <c r="F7" s="4">
-        <v>0.0083984442938224851</v>
+        <v>0.0069520339105074609</v>
       </c>
     </row>
     <row r="8">
@@ -6074,13 +6074,13 @@
         <v>2009</v>
       </c>
       <c r="D8" s="4">
-        <v>870319.09999999998</v>
+        <v>1315481.838</v>
       </c>
       <c r="E8" s="4">
-        <v>7370.4560000000001</v>
+        <v>9218.1739999999991</v>
       </c>
       <c r="F8" s="4">
-        <v>0.0084686823488074672</v>
+        <v>0.007007450603814417</v>
       </c>
     </row>
     <row r="9">
@@ -6094,13 +6094,13 @@
         <v>2010</v>
       </c>
       <c r="D9" s="4">
-        <v>925371.83700000006</v>
+        <v>1393675.3570000001</v>
       </c>
       <c r="E9" s="4">
-        <v>7522.8729999999996</v>
+        <v>9341.5730000000003</v>
       </c>
       <c r="F9" s="4">
-        <v>0.0081295677037121657</v>
+        <v>0.0067028328750165303</v>
       </c>
     </row>
     <row r="10">
@@ -6114,13 +6114,13 @@
         <v>2011</v>
       </c>
       <c r="D10" s="4">
-        <v>953148.05599999998</v>
+        <v>1433185.382</v>
       </c>
       <c r="E10" s="4">
-        <v>6837.9570000000003</v>
+        <v>8781.0529999999999</v>
       </c>
       <c r="F10" s="4">
-        <v>0.0071740764270099931</v>
+        <v>0.0061269484815328658</v>
       </c>
     </row>
     <row r="11">
@@ -6134,13 +6134,13 @@
         <v>2012</v>
       </c>
       <c r="D11" s="4">
-        <v>995285.99899999995</v>
+        <v>1488616.797</v>
       </c>
       <c r="E11" s="4">
-        <v>6847.884</v>
+        <v>8678.7690000000002</v>
       </c>
       <c r="F11" s="4">
-        <v>0.0068803178251078765</v>
+        <v>0.0058300893940537741</v>
       </c>
     </row>
     <row r="12">
@@ -6154,13 +6154,13 @@
         <v>2013</v>
       </c>
       <c r="D12" s="4">
-        <v>1018578.607</v>
+        <v>1514072.5970000001</v>
       </c>
       <c r="E12" s="4">
-        <v>6612.0810000000001</v>
+        <v>7920.5869999999995</v>
       </c>
       <c r="F12" s="4">
-        <v>0.0064914783744324219</v>
+        <v>0.0052313125643340596</v>
       </c>
     </row>
     <row r="13">
@@ -6174,13 +6174,13 @@
         <v>2014</v>
       </c>
       <c r="D13" s="4">
-        <v>1067256.7620000001</v>
+        <v>1567647.173</v>
       </c>
       <c r="E13" s="4">
-        <v>6698.9639999999999</v>
+        <v>7966.8780000000006</v>
       </c>
       <c r="F13" s="4">
-        <v>0.0062768063305088705</v>
+        <v>0.0050820606429913808</v>
       </c>
     </row>
     <row r="14">
@@ -6194,13 +6194,13 @@
         <v>2015</v>
       </c>
       <c r="D14" s="4">
-        <v>1104884.8700000001</v>
+        <v>1626750.8130000001</v>
       </c>
       <c r="E14" s="4">
-        <v>6714.799</v>
+        <v>7779.7829999999994</v>
       </c>
       <c r="F14" s="4">
-        <v>0.0060773743783820652</v>
+        <v>0.004782406093071366</v>
       </c>
     </row>
     <row r="15">
@@ -6214,13 +6214,13 @@
         <v>2016</v>
       </c>
       <c r="D15" s="4">
-        <v>1149129.548</v>
+        <v>1676418.736</v>
       </c>
       <c r="E15" s="4">
-        <v>6282.058</v>
+        <v>7331.0790000000006</v>
       </c>
       <c r="F15" s="4">
-        <v>0.005466797029920251</v>
+        <v>0.004373059571913542</v>
       </c>
     </row>
     <row r="16">
@@ -6234,13 +6234,13 @@
         <v>2017</v>
       </c>
       <c r="D16" s="4">
-        <v>1176616.034</v>
+        <v>1708140.0179999999</v>
       </c>
       <c r="E16" s="4">
-        <v>5874.5249999999996</v>
+        <v>6570.5990000000002</v>
       </c>
       <c r="F16" s="4">
-        <v>0.0049927290044051867</v>
+        <v>0.0038466395791682696</v>
       </c>
     </row>
     <row r="17">
@@ -6254,13 +6254,13 @@
         <v>2018</v>
       </c>
       <c r="D17" s="4">
-        <v>1208076.0220000001</v>
+        <v>1754179.51</v>
       </c>
       <c r="E17" s="4">
-        <v>5820.2920000000004</v>
+        <v>6602.2370000000001</v>
       </c>
       <c r="F17" s="4">
-        <v>0.0048178193209764738</v>
+        <v>0.0037637180016998374</v>
       </c>
     </row>
     <row r="18">
@@ -6274,13 +6274,13 @@
         <v>2019</v>
       </c>
       <c r="D18" s="4">
-        <v>1216735.696</v>
+        <v>1767625.0630000001</v>
       </c>
       <c r="E18" s="4">
-        <v>5284.1469999999999</v>
+        <v>6177.9920000000002</v>
       </c>
       <c r="F18" s="4">
-        <v>0.0043428881205438063</v>
+        <v>0.0034950805627946679</v>
       </c>
     </row>
     <row r="19">
@@ -6294,13 +6294,13 @@
         <v>2020</v>
       </c>
       <c r="D19" s="4">
-        <v>1126205.8729999999</v>
+        <v>1611191.787</v>
       </c>
       <c r="E19" s="4">
-        <v>3473.6620000000003</v>
+        <v>4178.2070000000003</v>
       </c>
       <c r="F19" s="4">
-        <v>0.0030843934339880685</v>
+        <v>0.0025932400063804449</v>
       </c>
     </row>
     <row r="20">
@@ -6314,13 +6314,13 @@
         <v>2021</v>
       </c>
       <c r="D20" s="4">
-        <v>1186918.9639999999</v>
+        <v>1694872.7209999999</v>
       </c>
       <c r="E20" s="4">
-        <v>3962.5590000000002</v>
+        <v>4777.0219999999999</v>
       </c>
       <c r="F20" s="4">
-        <v>0.0033385253081186766</v>
+        <v>0.0028185137095023197</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11301" uniqueCount="1766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11303" uniqueCount="1781">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 11/08/2023</t>
+    <t xml:space="preserve"> 11/27/2023</t>
   </si>
   <si>
     <t>Sección</t>
@@ -5282,12 +5282,33 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -5297,15 +5318,24 @@
     <t/>
   </si>
   <si>
+    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -5324,7 +5354,22 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -79646,7 +79691,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -80564,7 +80609,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="55">
@@ -80581,7 +80626,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="56">
@@ -80598,7 +80643,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="57">
@@ -80615,7 +80660,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="58">
@@ -80632,7 +80677,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="59">
@@ -80649,7 +80694,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="60">
@@ -80666,7 +80711,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="61">
@@ -80683,7 +80728,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="62">
@@ -80700,7 +80745,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>1760</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="63">
@@ -80717,7 +80762,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="64">
@@ -80734,7 +80779,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>1760</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="65">
@@ -80751,7 +80796,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>1760</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="66">
@@ -80768,7 +80813,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>1760</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="67">
@@ -80785,7 +80830,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>1760</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="68">
@@ -80802,7 +80847,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>1760</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="69">
@@ -80819,7 +80864,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>1760</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="70">
@@ -80836,7 +80881,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>1760</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="71">
@@ -80853,7 +80898,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>1760</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="72">
@@ -80870,7 +80915,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>1761</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="73">
@@ -80887,7 +80932,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>1762</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="74">
@@ -80904,7 +80949,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>1762</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="75">
@@ -80921,7 +80966,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>1762</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="76">
@@ -80938,7 +80983,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>1763</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="77">
@@ -80955,7 +81000,7 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>1764</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="78">
@@ -80972,7 +81017,24 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>1765</v>
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B79" s="5">
+        <v>45108</v>
+      </c>
+      <c r="C79" s="4">
+        <v>0</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1780</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 12/07/2023</t>
+    <t xml:space="preserve"> 12/08/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 07/08/2024</t>
+    <t xml:space="preserve"> 07/19/2024</t>
   </si>
   <si>
     <t>Sección</t>
@@ -80291,10 +80291,10 @@
         <v>36161</v>
       </c>
       <c r="C2" s="4">
-        <v>0.246887</v>
+        <v>0.24688699841499329</v>
       </c>
       <c r="D2" s="4">
-        <v>0.246887</v>
+        <v>0.24688699841499329</v>
       </c>
       <c r="E2" t="s">
         <v>1760</v>
@@ -80325,10 +80325,10 @@
         <v>36892</v>
       </c>
       <c r="C4" s="4">
-        <v>0.037081999999999997</v>
+        <v>0.037082001566886902</v>
       </c>
       <c r="D4" s="4">
-        <v>0.037081999999999997</v>
+        <v>0.037082001566886902</v>
       </c>
       <c r="E4" t="s">
         <v>1761</v>
@@ -80359,10 +80359,10 @@
         <v>37622</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.28429100000000002</v>
+        <v>-0.28429099917411804</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.28429100000000002</v>
+        <v>-0.28429099917411804</v>
       </c>
       <c r="E6" t="s">
         <v>1761</v>
@@ -80427,10 +80427,10 @@
         <v>38808</v>
       </c>
       <c r="C10" s="4">
-        <v>-0.62884499999999999</v>
+        <v>-0.6288449764251709</v>
       </c>
       <c r="D10" s="4">
-        <v>-0.62884499999999999</v>
+        <v>-0.6288449764251709</v>
       </c>
       <c r="E10" t="s">
         <v>1761</v>
@@ -80478,10 +80478,10 @@
         <v>39083</v>
       </c>
       <c r="C13" s="4">
-        <v>0.69270100000000001</v>
+        <v>0.69270098209381104</v>
       </c>
       <c r="D13" s="4">
-        <v>0.69270100000000001</v>
+        <v>0.69270098209381104</v>
       </c>
       <c r="E13" t="s">
         <v>1761</v>
@@ -80495,10 +80495,10 @@
         <v>39173</v>
       </c>
       <c r="C14" s="4">
-        <v>1.6546639999999999</v>
+        <v>1.6546640396118164</v>
       </c>
       <c r="D14" s="4">
-        <v>1.6546639999999999</v>
+        <v>1.6546640396118164</v>
       </c>
       <c r="E14" t="s">
         <v>1761</v>
@@ -80889,7 +80889,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="4">
-        <v>-0.77783400000000003</v>
+        <v>-0.77783399820327759</v>
       </c>
       <c r="E37" t="s">
         <v>1761</v>
@@ -80920,10 +80920,10 @@
         <v>41456</v>
       </c>
       <c r="C39" s="4">
-        <v>-0.380328</v>
+        <v>-0.38032799959182739</v>
       </c>
       <c r="D39" s="4">
-        <v>-0.380328</v>
+        <v>-0.38032799959182739</v>
       </c>
       <c r="E39" t="s">
         <v>1762</v>
@@ -81158,7 +81158,7 @@
         <v>42736</v>
       </c>
       <c r="C53" s="4">
-        <v>2.4929448000000001</v>
+        <v>2.4929447174072266</v>
       </c>
       <c r="D53" s="4">
         <v>0</v>
@@ -81175,7 +81175,7 @@
         <v>42826</v>
       </c>
       <c r="C54" s="4">
-        <v>44.908611200000003</v>
+        <v>44.908611297607422</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
@@ -81192,7 +81192,7 @@
         <v>42917</v>
       </c>
       <c r="C55" s="4">
-        <v>-0.64303284000000005</v>
+        <v>-0.64303284883499146</v>
       </c>
       <c r="D55" s="4">
         <v>0</v>
@@ -81209,7 +81209,7 @@
         <v>43009</v>
       </c>
       <c r="C56" s="4">
-        <v>-0.33114304999999999</v>
+        <v>-0.33114305138587952</v>
       </c>
       <c r="D56" s="4">
         <v>0</v>
@@ -81260,7 +81260,7 @@
         <v>43282</v>
       </c>
       <c r="C59" s="4">
-        <v>10.474154</v>
+        <v>10.474154472351074</v>
       </c>
       <c r="D59" s="4">
         <v>0</v>
@@ -81277,7 +81277,7 @@
         <v>43374</v>
       </c>
       <c r="C60" s="4">
-        <v>1.2704790100000001</v>
+        <v>1.2704789638519287</v>
       </c>
       <c r="D60" s="4">
         <v>0</v>

--- a/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
+++ b/sej_datos/BD_INDUSTRIA_VESTIDO.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11399" uniqueCount="1799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11401" uniqueCount="1800">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del vestido</t>
   </si>
   <si>
-    <t xml:space="preserve"> 09/18/2024</t>
+    <t xml:space="preserve"> 09/30/2024</t>
   </si>
   <si>
     <t>Sección</t>
@@ -5274,6 +5274,9 @@
   </si>
   <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -6056,10 +6059,10 @@
         <v>37622</v>
       </c>
       <c r="E2" s="4">
-        <v>12480.641</v>
+        <v>12480.640625</v>
       </c>
       <c r="F2" s="4">
-        <v>0.010296104239144037</v>
+        <v>0.010296103544533253</v>
       </c>
     </row>
     <row r="3">
@@ -6076,10 +6079,10 @@
         <v>37987</v>
       </c>
       <c r="E3" s="4">
-        <v>12433.951999999999</v>
+        <v>12433.9521484375</v>
       </c>
       <c r="F3" s="4">
-        <v>0.0099718807755920461</v>
+        <v>0.0099718812853097916</v>
       </c>
     </row>
     <row r="4">
@@ -6096,10 +6099,10 @@
         <v>38353</v>
       </c>
       <c r="E4" s="4">
-        <v>12140.023000000001</v>
+        <v>12140.0234375</v>
       </c>
       <c r="F4" s="4">
-        <v>0.0095226634969236557</v>
+        <v>0.0095226634293794632</v>
       </c>
     </row>
     <row r="5">
@@ -6116,10 +6119,10 @@
         <v>38718</v>
       </c>
       <c r="E5" s="4">
-        <v>12105.100999999999</v>
+        <v>12105.1005859375</v>
       </c>
       <c r="F5" s="4">
-        <v>0.0090336163327662325</v>
+        <v>0.0090336157009005547</v>
       </c>
     </row>
     <row r="6">
@@ -6136,10 +6139,10 @@
         <v>39083</v>
       </c>
       <c r="E6" s="4">
-        <v>11331.982</v>
+        <v>11331.982421875</v>
       </c>
       <c r="F6" s="4">
-        <v>0.0082108319686021811</v>
+        <v>0.0082108322530984879</v>
       </c>
     </row>
     <row r="7">
@@ -6156,10 +6159,10 @@
         <v>39448</v>
       </c>
       <c r="E7" s="4">
-        <v>9788.6010000000006</v>
+        <v>9788.6005859375</v>
       </c>
       <c r="F7" s="4">
-        <v>0.0069520339105074609</v>
+        <v>0.006952033843845129</v>
       </c>
     </row>
     <row r="8">
@@ -6176,10 +6179,10 @@
         <v>39814</v>
       </c>
       <c r="E8" s="4">
-        <v>9218.1739999999991</v>
+        <v>9218.173828125</v>
       </c>
       <c r="F8" s="4">
-        <v>0.007007450603814417</v>
+        <v>0.0070074503310024738</v>
       </c>
     </row>
     <row r="9">
@@ -6196,10 +6199,10 @@
         <v>40179</v>
       </c>
       <c r="E9" s="4">
-        <v>9341.5730000000003</v>
+        <v>9341.5732421875</v>
       </c>
       <c r="F9" s="4">
-        <v>0.0067028328750165303</v>
+        <v>0.0067028328776359558</v>
       </c>
     </row>
     <row r="10">
@@ -6216,10 +6219,10 @@
         <v>40544</v>
       </c>
       <c r="E10" s="4">
-        <v>8781.0529999999999</v>
+        <v>8781.052734375</v>
       </c>
       <c r="F10" s="4">
-        <v>0.0061269484815328658</v>
+        <v>0.0061269481666386127</v>
       </c>
     </row>
     <row r="11">
@@ -6236,10 +6239,10 @@
         <v>40909</v>
       </c>
       <c r="E11" s="4">
-        <v>8678.7690000000002</v>
+        <v>8678.7685546875</v>
       </c>
       <c r="F11" s="4">
-        <v>0.0058300893940537741</v>
+        <v>0.005830089095979929</v>
       </c>
     </row>
     <row r="12">
@@ -6256,10 +6259,10 @@
         <v>41275</v>
       </c>
       <c r="E12" s="4">
-        <v>7920.5869999999995</v>
+        <v>7920.5869140625</v>
       </c>
       <c r="F12" s="4">
-        <v>0.0052313125643340596</v>
+        <v>0.0052313124760985374</v>
       </c>
     </row>
     <row r="13">
@@ -6276,10 +6279,10 @@
         <v>41640</v>
       </c>
       <c r="E13" s="4">
-        <v>7966.8780000000006</v>
+        <v>7966.8779296875</v>
       </c>
       <c r="F13" s="4">
-        <v>0.0050820606429913808</v>
+        <v>0.0050820605829358101</v>
       </c>
     </row>
     <row r="14">
@@ -6296,10 +6299,10 @@
         <v>42005</v>
       </c>
       <c r="E14" s="4">
-        <v>7779.7829999999994</v>
+        <v>7779.783203125</v>
       </c>
       <c r="F14" s="4">
-        <v>0.004782406093071366</v>
+        <v>0.004782406147569418</v>
       </c>
     </row>
     <row r="15">
@@ -6316,10 +6319,10 @@
         <v>42370</v>
       </c>
       <c r="E15" s="4">
-        <v>7331.0790000000006</v>
+        <v>7331.0791015625</v>
       </c>
       <c r="F15" s="4">
-        <v>0.004373059571913542</v>
+        <v>0.0043730596080422401</v>
       </c>
     </row>
     <row r="16">
@@ -6336,10 +6339,10 @@
         <v>42736</v>
       </c>
       <c r="E16" s="4">
-        <v>6570.5990000000002</v>
+        <v>6570.59912109375</v>
       </c>
       <c r="F16" s="4">
-        <v>0.0038466395791682696</v>
+        <v>0.003846639534458518</v>
       </c>
     </row>
     <row r="17">
@@ -6356,10 +6359,10 @@
         <v>43101</v>
       </c>
       <c r="E17" s="4">
-        <v>6602.2370000000001</v>
+        <v>6602.23681640625</v>
       </c>
       <c r="F17" s="4">
-        <v>0.0037637180016998374</v>
+        <v>0.003763717832043767</v>
       </c>
     </row>
     <row r="18">
@@ -6376,10 +6379,10 @@
         <v>43466</v>
       </c>
       <c r="E18" s="4">
-        <v>6404.9749999999995</v>
+        <v>6404.97509765625</v>
       </c>
       <c r="F18" s="4">
-        <v>0.0036245206721761333</v>
+        <v>0.003624520730227232</v>
       </c>
     </row>
     <row r="19">
@@ -6396,10 +6399,10 @@
         <v>43831</v>
       </c>
       <c r="E19" s="4">
-        <v>5390.4639999999999</v>
+        <v>5390.4638671875</v>
       </c>
       <c r="F19" s="4">
-        <v>0.0033188243804389366</v>
+        <v>0.0033188243396580219</v>
       </c>
     </row>
     <row r="20">
@@ -6416,10 +6419,10 @@
         <v>44197</v>
       </c>
       <c r="E20" s="4">
-        <v>5933.6489999999994</v>
+        <v>5933.64892578125</v>
       </c>
       <c r="F20" s="4">
-        <v>0.003464938721710561</v>
+        <v>0.0034649386070668697</v>
       </c>
     </row>
     <row r="21">
@@ -6436,10 +6439,10 @@
         <v>44562</v>
       </c>
       <c r="E21" s="4">
-        <v>5945.0300000000007</v>
+        <v>5945.02978515625</v>
       </c>
       <c r="F21" s="4">
-        <v>0.0033060891055019387</v>
+        <v>0.0033060889691114426</v>
       </c>
     </row>
   </sheetData>
@@ -79455,7 +79458,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D71"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -80436,6 +80439,20 @@
       </c>
       <c r="D70" t="s">
         <v>1753</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5">
+        <v>45383</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C71" s="4">
+        <v>7734</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1754</v>
       </c>
     </row>
   </sheetData>
@@ -80449,41 +80466,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="C1" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="D1" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="E1" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B2" s="5">
         <v>36161</v>
       </c>
       <c r="C2" s="4">
-        <v>0.246887</v>
+        <v>0.24688699841499329</v>
       </c>
       <c r="D2" s="4">
-        <v>0.246887</v>
+        <v>0.24688699841499329</v>
       </c>
       <c r="E2" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B3" s="5">
         <v>36526</v>
@@ -80495,29 +80512,29 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B4" s="5">
         <v>36892</v>
       </c>
       <c r="C4" s="4">
-        <v>0.037081999999999997</v>
+        <v>0.037082001566886902</v>
       </c>
       <c r="D4" s="4">
-        <v>0.037081999999999997</v>
+        <v>0.037082001566886902</v>
       </c>
       <c r="E4" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B5" s="5">
         <v>37257</v>
@@ -80529,29 +80546,29 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B6" s="5">
         <v>37622</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.28429100000000002</v>
+        <v>-0.28429099917411804</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.28429100000000002</v>
+        <v>-0.28429099917411804</v>
       </c>
       <c r="E6" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B7" s="5">
         <v>37987</v>
@@ -80563,12 +80580,12 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B8" s="5">
         <v>38353</v>
@@ -80580,12 +80597,12 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B9" s="5">
         <v>38718</v>
@@ -80597,29 +80614,29 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B10" s="5">
         <v>38808</v>
       </c>
       <c r="C10" s="4">
-        <v>-0.62884499999999999</v>
+        <v>-0.6288449764251709</v>
       </c>
       <c r="D10" s="4">
-        <v>-0.62884499999999999</v>
+        <v>-0.6288449764251709</v>
       </c>
       <c r="E10" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B11" s="5">
         <v>38899</v>
@@ -80631,12 +80648,12 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B12" s="5">
         <v>38991</v>
@@ -80648,46 +80665,46 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B13" s="5">
         <v>39083</v>
       </c>
       <c r="C13" s="4">
-        <v>0.69270100000000001</v>
+        <v>0.69270098209381104</v>
       </c>
       <c r="D13" s="4">
-        <v>0.69270100000000001</v>
+        <v>0.69270098209381104</v>
       </c>
       <c r="E13" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B14" s="5">
         <v>39173</v>
       </c>
       <c r="C14" s="4">
-        <v>1.6546639999999999</v>
+        <v>1.6546640396118164</v>
       </c>
       <c r="D14" s="4">
-        <v>1.6546639999999999</v>
+        <v>1.6546640396118164</v>
       </c>
       <c r="E14" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B15" s="5">
         <v>39264</v>
@@ -80699,12 +80716,12 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B16" s="5">
         <v>39356</v>
@@ -80716,12 +80733,12 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B17" s="5">
         <v>39448</v>
@@ -80733,12 +80750,12 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B18" s="5">
         <v>39539</v>
@@ -80750,12 +80767,12 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B19" s="5">
         <v>39630</v>
@@ -80767,12 +80784,12 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B20" s="5">
         <v>39722</v>
@@ -80784,12 +80801,12 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B21" s="5">
         <v>39814</v>
@@ -80801,12 +80818,12 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B22" s="5">
         <v>39904</v>
@@ -80818,12 +80835,12 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B23" s="5">
         <v>39995</v>
@@ -80835,12 +80852,12 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B24" s="5">
         <v>40087</v>
@@ -80852,12 +80869,12 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B25" s="5">
         <v>40179</v>
@@ -80869,12 +80886,12 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B26" s="5">
         <v>40269</v>
@@ -80886,12 +80903,12 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B27" s="5">
         <v>40360</v>
@@ -80903,12 +80920,12 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B28" s="5">
         <v>40452</v>
@@ -80920,12 +80937,12 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B29" s="5">
         <v>40544</v>
@@ -80937,12 +80954,12 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B30" s="5">
         <v>40634</v>
@@ -80954,12 +80971,12 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B31" s="5">
         <v>40725</v>
@@ -80971,12 +80988,12 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B32" s="5">
         <v>40817</v>
@@ -80988,12 +81005,12 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B33" s="5">
         <v>40909</v>
@@ -81005,12 +81022,12 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B34" s="5">
         <v>41000</v>
@@ -81022,12 +81039,12 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B35" s="5">
         <v>41091</v>
@@ -81039,12 +81056,12 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B36" s="5">
         <v>41183</v>
@@ -81056,12 +81073,12 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B37" s="5">
         <v>41275</v>
@@ -81070,15 +81087,15 @@
         <v>0</v>
       </c>
       <c r="D37" s="4">
-        <v>-0.77783400000000003</v>
+        <v>-0.77783399820327759</v>
       </c>
       <c r="E37" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B38" s="5">
         <v>41365</v>
@@ -81090,29 +81107,29 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B39" s="5">
         <v>41456</v>
       </c>
       <c r="C39" s="4">
-        <v>-0.380328</v>
+        <v>-0.38032799959182739</v>
       </c>
       <c r="D39" s="4">
-        <v>-0.380328</v>
+        <v>-0.38032799959182739</v>
       </c>
       <c r="E39" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B40" s="5">
         <v>41548</v>
@@ -81124,12 +81141,12 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B41" s="5">
         <v>41640</v>
@@ -81141,12 +81158,12 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B42" s="5">
         <v>41730</v>
@@ -81158,12 +81175,12 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B43" s="5">
         <v>41821</v>
@@ -81175,12 +81192,12 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B44" s="5">
         <v>41913</v>
@@ -81192,12 +81209,12 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B45" s="5">
         <v>42005</v>
@@ -81209,12 +81226,12 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B46" s="5">
         <v>42095</v>
@@ -81226,12 +81243,12 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B47" s="5">
         <v>42186</v>
@@ -81243,12 +81260,12 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B48" s="5">
         <v>42278</v>
@@ -81260,12 +81277,12 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B49" s="5">
         <v>42370</v>
@@ -81277,12 +81294,12 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B50" s="5">
         <v>42461</v>
@@ -81294,12 +81311,12 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B51" s="5">
         <v>42552</v>
@@ -81311,12 +81328,12 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B52" s="5">
         <v>42644</v>
@@ -81328,80 +81345,80 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B53" s="5">
         <v>42736</v>
       </c>
       <c r="C53" s="4">
-        <v>2.4929448000000001</v>
+        <v>2.4929447174072266</v>
       </c>
       <c r="D53" s="4">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B54" s="5">
         <v>42826</v>
       </c>
       <c r="C54" s="4">
-        <v>44.908611200000003</v>
+        <v>44.908611297607422</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B55" s="5">
         <v>42917</v>
       </c>
       <c r="C55" s="4">
-        <v>-0.64303284000000005</v>
+        <v>-0.64303284883499146</v>
       </c>
       <c r="D55" s="4">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B56" s="5">
         <v>43009</v>
       </c>
       <c r="C56" s="4">
-        <v>-0.33114304999999999</v>
+        <v>-0.33114305138587952</v>
       </c>
       <c r="D56" s="4">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B57" s="5">
         <v>43101</v>
@@ -81413,12 +81430,12 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B58" s="5">
         <v>43191</v>
@@ -81430,46 +81447,46 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B59" s="5">
         <v>43282</v>
       </c>
       <c r="C59" s="4">
-        <v>10.474154</v>
+        <v>10.474154472351074</v>
       </c>
       <c r="D59" s="4">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B60" s="5">
         <v>43374</v>
       </c>
       <c r="C60" s="4">
-        <v>1.2704790100000001</v>
+        <v>1.2704789638519287</v>
       </c>
       <c r="D60" s="4">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B61" s="5">
         <v>43466</v>
@@ -81481,12 +81498,12 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B62" s="5">
         <v>43556</v>
@@ -81498,12 +81515,12 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B63" s="5">
         <v>43647</v>
@@ -81515,12 +81532,12 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B64" s="5">
         <v>43739</v>
@@ -81532,12 +81549,12 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B65" s="5">
         <v>43831</v>
@@ -81549,12 +81566,12 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B66" s="5">
         <v>43922</v>
@@ -81566,12 +81583,12 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B67" s="5">
         <v>44013</v>
@@ -81583,12 +81600,12 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B68" s="5">
         <v>44105</v>
@@ -81600,12 +81617,12 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B69" s="5">
         <v>44197</v>
@@ -81617,12 +81634,12 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B70" s="5">
         <v>44287</v>
@@ -81634,12 +81651,12 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B71" s="5">
         <v>44378</v>
@@ -81651,12 +81668,12 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B72" s="5">
         <v>44470</v>
@@ -81668,12 +81685,12 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B73" s="5">
         <v>44562</v>
@@ -81685,12 +81702,12 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B74" s="5">
         <v>44652</v>
@@ -81702,12 +81719,12 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B75" s="5">
         <v>44743</v>
@@ -81719,12 +81736,12 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B76" s="5">
         <v>44835</v>
@@ -81736,12 +81753,12 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B77" s="5">
         <v>44927</v>
@@ -81753,12 +81770,12 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B78" s="5">
         <v>45017</v>
@@ -81770,12 +81787,12 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B79" s="5">
         <v>45108</v>
@@ -81787,12 +81804,12 @@
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B80" s="5">
         <v>45200</v>
@@ -81804,12 +81821,12 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B81" s="5">
         <v>45292</v>
@@ -81821,12 +81838,12 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B82" s="5">
         <v>45383</v>
@@ -81838,7 +81855,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
   </sheetData>
